--- a/Data/HW_Counters.xlsx
+++ b/Data/HW_Counters.xlsx
@@ -4,10 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="39400" yWindow="4860" windowWidth="25600" windowHeight="16600" tabRatio="500"/>
+    <workbookView xWindow="28800" yWindow="-460" windowWidth="51200" windowHeight="28800" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PM_CMPLU_STALL_DCACHE_MISS" sheetId="1" r:id="rId1"/>
+    <sheet name="PM_CMPLU_STALL_DMISS_REMOTE" sheetId="2" r:id="rId2"/>
+    <sheet name="PM_CMPLU_STALL_DMISS_DISTANT" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +21,439 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="288">
+  <si>
+    <t xml:space="preserve">j-A_10th_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_10th_cores_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_10th_cores_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_10th_cores_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_10th_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_10th_sockets_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_10th_sockets_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_10th_sockets_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_10th_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_10th_threads_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_10th_threads_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_10th_threads_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_160th_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_160th_cores_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_160th_cores_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_160th_cores_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_160th_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_160th_sockets_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_160th_sockets_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_160th_sockets_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_160th_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_160th_threads_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_160th_threads_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_160th_threads_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_1th_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_1th_cores_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_1th_cores_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_1th_cores_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_1th_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_1th_sockets_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_1th_sockets_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_1th_sockets_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_1th_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_1th_threads_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_1th_threads_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_1th_threads_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_20th_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_20th_cores_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_20th_cores_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_20th_cores_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_20th_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_20th_sockets_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_20th_sockets_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_20th_sockets_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_20th_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_20th_threads_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_20th_threads_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_20th_threads_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_40th_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_40th_cores_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_40th_cores_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_40th_cores_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_40th_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_40th_sockets_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_40th_sockets_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_40th_sockets_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_40th_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_40th_threads_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_40th_threads_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_40th_threads_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_80th_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_80th_cores_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_80th_cores_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_80th_cores_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_80th_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_80th_sockets_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_80th_sockets_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_80th_sockets_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_80th_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_80th_threads_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_80th_threads_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-A_80th_threads_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_10th_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_10th_cores_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_10th_cores_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_10th_cores_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_10th_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_10th_sockets_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_10th_sockets_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_10th_sockets_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_10th_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_10th_threads_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_10th_threads_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_10th_threads_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_160th_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_160th_cores_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_160th_cores_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_160th_cores_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_160th_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_160th_sockets_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_160th_sockets_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_160th_sockets_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_160th_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_160th_threads_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_160th_threads_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_160th_threads_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_1th_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_1th_cores_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_1th_cores_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_1th_cores_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_1th_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_1th_sockets_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_1th_sockets_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_1th_sockets_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_1th_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_1th_threads_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_1th_threads_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_1th_threads_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_20th_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_20th_cores_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_20th_cores_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_20th_cores_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_20th_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_20th_sockets_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_20th_sockets_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_20th_sockets_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_20th_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_20th_threads_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_20th_threads_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_20th_threads_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_40th_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_40th_cores_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_40th_cores_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_40th_cores_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_40th_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_40th_sockets_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_40th_sockets_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_40th_sockets_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_40th_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_40th_threads_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_40th_threads_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_40th_threads_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_80th_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_80th_cores_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_80th_cores_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_80th_cores_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_80th_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_80th_sockets_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_80th_sockets_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_80th_sockets_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_80th_spread.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_80th_threads_close.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_80th_threads_master.txt:	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">j-O_80th_threads_spread.txt:	</t>
+  </si>
   <si>
     <t xml:space="preserve">j-A_10th_close	</t>
   </si>
@@ -504,8 +938,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -544,7 +979,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$1:$A$12</c:f>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$A$1:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -588,7 +1023,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$12</c:f>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$B$1:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -641,11 +1076,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2080352536"/>
-        <c:axId val="-2078050808"/>
+        <c:axId val="-2083504744"/>
+        <c:axId val="-2084214632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2080352536"/>
+        <c:axId val="-2083504744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -654,7 +1089,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2078050808"/>
+        <c:crossAx val="-2084214632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -662,7 +1097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2078050808"/>
+        <c:axId val="-2084214632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,7 +1108,897 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2080352536"/>
+        <c:crossAx val="-2083504744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$A$13:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>j-A_160th_close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>j-A_160th_cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>j-A_160th_cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>j-A_160th_cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>j-A_160th_master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>j-A_160th_sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>j-A_160th_sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>j-A_160th_sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>j-A_160th_spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>j-A_160th_threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>j-A_160th_threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>j-A_160th_threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$B$13:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.15614278E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.36887523E8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8873144E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.23978245E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.415814E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6270452E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5894886E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2152947E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.18425894E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.18811269E8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.87011E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.19173786E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2079387480"/>
+        <c:axId val="-2077738664"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2079387480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2077738664"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2077738664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2079387480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$A$1:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>j-A_10th_close.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>j-A_10th_cores_close.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>j-A_10th_cores_master.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>j-A_10th_cores_spread.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>j-A_10th_master.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>j-A_10th_sockets_close.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>j-A_10th_sockets_master.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>j-A_10th_sockets_spread.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>j-A_10th_spread.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>j-A_10th_threads_close.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>j-A_10th_threads_master.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>j-A_10th_threads_spread.txt:	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$B$1:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>73438.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>275195.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>357561.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>720564.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>254503.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>544350.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>239470.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>508995.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>636575.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>79736.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>202563.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>622723.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2077394984"/>
+        <c:axId val="-2138533176"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2077394984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2138533176"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2138533176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2077394984"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$A$13:$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>j-A_160th_close.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>j-A_160th_cores_close.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>j-A_160th_cores_master.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>j-A_160th_cores_spread.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>j-A_160th_master.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>j-A_160th_sockets_close.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>j-A_160th_sockets_master.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>j-A_160th_sockets_spread.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>j-A_160th_spread.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>j-A_160th_threads_close.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>j-A_160th_threads_master.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>j-A_160th_threads_spread.txt:	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$B$13:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.9813102E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6435902E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>240510.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6919822E7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>197093.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1262138E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>378270.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0455408E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1241589E7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.9051005E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>177638.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4495413E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2129156840"/>
+        <c:axId val="2086040168"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2129156840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2086040168"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2086040168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2129156840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$A$1:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>j-A_10th_close.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>j-A_10th_cores_close.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>j-A_10th_cores_master.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>j-A_10th_cores_spread.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>j-A_10th_master.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>j-A_10th_sockets_close.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>j-A_10th_sockets_master.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>j-A_10th_sockets_spread.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>j-A_10th_spread.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>j-A_10th_threads_close.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>j-A_10th_threads_master.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>j-A_10th_threads_spread.txt:	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$B$1:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>821254.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.754533E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.283705E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.998507E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>838880.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.431994E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>918526.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.393456E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.779083E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>769176.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>795950.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.528247E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2079089784"/>
+        <c:axId val="-2073603400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2079089784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2073603400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2073603400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2079089784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$A$73:$A$84</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>j-O_10th_close.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>j-O_10th_cores_close.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>j-O_10th_cores_master.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>j-O_10th_cores_spread.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>j-O_10th_master.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>j-O_10th_sockets_close.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>j-O_10th_sockets_master.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>j-O_10th_sockets_spread.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>j-O_10th_spread.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>j-O_10th_threads_close.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>j-O_10th_threads_master.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>j-O_10th_threads_spread.txt:	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$B$73:$B$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>972990.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.395466E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.969554E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.704222E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>794295.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.43055E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>386462.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.252018E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.099532E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>669955.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>794069.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.818235E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2072415160"/>
+        <c:axId val="-2072549400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2072415160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2072549400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2072549400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2072415160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -705,10 +2030,10 @@
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -722,6 +2047,166 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>774700</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1054,8 +2539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showRuler="0" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1065,7 +2550,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="B1">
         <v>11948408</v>
@@ -1073,7 +2558,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="B2">
         <v>3422910</v>
@@ -1081,7 +2566,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>146</v>
       </c>
       <c r="B3">
         <v>13758106</v>
@@ -1089,7 +2574,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>147</v>
       </c>
       <c r="B4">
         <v>3745173</v>
@@ -1097,7 +2582,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>148</v>
       </c>
       <c r="B5">
         <v>2170594</v>
@@ -1105,7 +2590,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="B6">
         <v>3580436</v>
@@ -1113,7 +2598,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="B7">
         <v>2160493</v>
@@ -1121,7 +2606,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>151</v>
       </c>
       <c r="B8">
         <v>3644008</v>
@@ -1129,7 +2614,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="B9">
         <v>3521135</v>
@@ -1137,7 +2622,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="B10">
         <v>10852050</v>
@@ -1145,7 +2630,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="B11">
         <v>1935902</v>
@@ -1153,7 +2638,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>155</v>
       </c>
       <c r="B12">
         <v>3541610</v>
@@ -1161,7 +2646,7 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>156</v>
       </c>
       <c r="B13">
         <v>115614278</v>
@@ -1169,7 +2654,7 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>157</v>
       </c>
       <c r="B14">
         <v>136887523</v>
@@ -1177,7 +2662,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="B15">
         <v>28873144</v>
@@ -1185,7 +2670,7 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>159</v>
       </c>
       <c r="B16">
         <v>123978245</v>
@@ -1193,7 +2678,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>160</v>
       </c>
       <c r="B17">
         <v>4415814</v>
@@ -1201,7 +2686,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>161</v>
       </c>
       <c r="B18">
         <v>96270452</v>
@@ -1209,7 +2694,7 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>162</v>
       </c>
       <c r="B19">
         <v>35894886</v>
@@ -1217,7 +2702,7 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>163</v>
       </c>
       <c r="B20">
         <v>92152947</v>
@@ -1225,7 +2710,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>164</v>
       </c>
       <c r="B21">
         <v>118425894</v>
@@ -1233,7 +2718,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="B22">
         <v>118811269</v>
@@ -1241,7 +2726,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>166</v>
       </c>
       <c r="B23">
         <v>3870110</v>
@@ -1249,7 +2734,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="B24">
         <v>119173786</v>
@@ -1257,7 +2742,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>168</v>
       </c>
       <c r="B25">
         <v>1110987</v>
@@ -1265,7 +2750,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>169</v>
       </c>
       <c r="B26">
         <v>1156445</v>
@@ -1273,7 +2758,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="B27">
         <v>1302318</v>
@@ -1281,7 +2766,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>171</v>
       </c>
       <c r="B28">
         <v>1165642</v>
@@ -1289,7 +2774,7 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="B29">
         <v>1082300</v>
@@ -1297,7 +2782,7 @@
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="B30">
         <v>1083222</v>
@@ -1305,7 +2790,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>174</v>
       </c>
       <c r="B31">
         <v>1103701</v>
@@ -1313,7 +2798,7 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>175</v>
       </c>
       <c r="B32">
         <v>1110361</v>
@@ -1321,7 +2806,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>176</v>
       </c>
       <c r="B33">
         <v>1019813</v>
@@ -1329,7 +2814,7 @@
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>177</v>
       </c>
       <c r="B34">
         <v>1114447</v>
@@ -1337,7 +2822,7 @@
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="B35">
         <v>1107253</v>
@@ -1345,7 +2830,7 @@
     </row>
     <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>179</v>
       </c>
       <c r="B36">
         <v>1110068</v>
@@ -1353,7 +2838,7 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>180</v>
       </c>
       <c r="B37">
         <v>20662146</v>
@@ -1361,7 +2846,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>181</v>
       </c>
       <c r="B38">
         <v>9917586</v>
@@ -1369,7 +2854,7 @@
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>182</v>
       </c>
       <c r="B39">
         <v>25227802</v>
@@ -1377,7 +2862,7 @@
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>183</v>
       </c>
       <c r="B40">
         <v>9496783</v>
@@ -1385,7 +2870,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="B41">
         <v>2179241</v>
@@ -1393,7 +2878,7 @@
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="B42">
         <v>7345726</v>
@@ -1401,7 +2886,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>186</v>
       </c>
       <c r="B43">
         <v>8496671</v>
@@ -1409,7 +2894,7 @@
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>187</v>
       </c>
       <c r="B44">
         <v>7368697</v>
@@ -1417,7 +2902,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>188</v>
       </c>
       <c r="B45">
         <v>8958567</v>
@@ -1425,7 +2910,7 @@
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>189</v>
       </c>
       <c r="B46">
         <v>20473686</v>
@@ -1433,7 +2918,7 @@
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="B47">
         <v>2082840</v>
@@ -1441,7 +2926,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>191</v>
       </c>
       <c r="B48">
         <v>9059954</v>
@@ -1449,7 +2934,7 @@
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="B49">
         <v>65159655</v>
@@ -1457,7 +2942,7 @@
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>193</v>
       </c>
       <c r="B50">
         <v>19268088</v>
@@ -1465,7 +2950,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>194</v>
       </c>
       <c r="B51">
         <v>15579783</v>
@@ -1473,7 +2958,7 @@
     </row>
     <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="B52">
         <v>19492279</v>
@@ -1481,7 +2966,7 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>196</v>
       </c>
       <c r="B53">
         <v>2391530</v>
@@ -1489,7 +2974,7 @@
     </row>
     <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>197</v>
       </c>
       <c r="B54">
         <v>79174425</v>
@@ -1497,7 +2982,7 @@
     </row>
     <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>198</v>
       </c>
       <c r="B55">
         <v>20156711</v>
@@ -1505,7 +2990,7 @@
     </row>
     <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>199</v>
       </c>
       <c r="B56">
         <v>31074369</v>
@@ -1513,7 +2998,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>200</v>
       </c>
       <c r="B57">
         <v>16000963</v>
@@ -1521,7 +3006,7 @@
     </row>
     <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>201</v>
       </c>
       <c r="B58">
         <v>32474431</v>
@@ -1529,7 +3014,7 @@
     </row>
     <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>202</v>
       </c>
       <c r="B59">
         <v>2435245</v>
@@ -1537,7 +3022,7 @@
     </row>
     <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>203</v>
       </c>
       <c r="B60">
         <v>16229138</v>
@@ -1545,7 +3030,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="B61">
         <v>49786715</v>
@@ -1553,7 +3038,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>205</v>
       </c>
       <c r="B62">
         <v>43185724</v>
@@ -1561,7 +3046,7 @@
     </row>
     <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>206</v>
       </c>
       <c r="B63">
         <v>18638199</v>
@@ -1569,7 +3054,7 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>207</v>
       </c>
       <c r="B64">
         <v>42287259</v>
@@ -1577,7 +3062,7 @@
     </row>
     <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>208</v>
       </c>
       <c r="B65">
         <v>2891464</v>
@@ -1585,7 +3070,7 @@
     </row>
     <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>209</v>
       </c>
       <c r="B66">
         <v>51542471</v>
@@ -1593,7 +3078,7 @@
     </row>
     <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>210</v>
       </c>
       <c r="B67">
         <v>30721581</v>
@@ -1601,7 +3086,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>211</v>
       </c>
       <c r="B68">
         <v>45694836</v>
@@ -1609,7 +3094,7 @@
     </row>
     <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>212</v>
       </c>
       <c r="B69">
         <v>37723024</v>
@@ -1617,7 +3102,7 @@
     </row>
     <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>213</v>
       </c>
       <c r="B70">
         <v>47836977</v>
@@ -1625,7 +3110,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>214</v>
       </c>
       <c r="B71">
         <v>2923488</v>
@@ -1633,7 +3118,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>215</v>
       </c>
       <c r="B72">
         <v>36336402</v>
@@ -1641,7 +3126,7 @@
     </row>
     <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>216</v>
       </c>
       <c r="B73">
         <v>11775007</v>
@@ -1649,7 +3134,7 @@
     </row>
     <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>217</v>
       </c>
       <c r="B74">
         <v>3572884</v>
@@ -1657,7 +3142,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="B75">
         <v>19369197</v>
@@ -1665,7 +3150,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>219</v>
       </c>
       <c r="B76">
         <v>3727561</v>
@@ -1673,7 +3158,7 @@
     </row>
     <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>220</v>
       </c>
       <c r="B77">
         <v>2045049</v>
@@ -1681,7 +3166,7 @@
     </row>
     <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>221</v>
       </c>
       <c r="B78">
         <v>3744809</v>
@@ -1689,7 +3174,7 @@
     </row>
     <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>222</v>
       </c>
       <c r="B79">
         <v>2534674</v>
@@ -1697,7 +3182,7 @@
     </row>
     <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>223</v>
       </c>
       <c r="B80">
         <v>3146206</v>
@@ -1705,7 +3190,7 @@
     </row>
     <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>224</v>
       </c>
       <c r="B81">
         <v>3577984</v>
@@ -1713,7 +3198,7 @@
     </row>
     <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>225</v>
       </c>
       <c r="B82">
         <v>12480220</v>
@@ -1721,7 +3206,7 @@
     </row>
     <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>226</v>
       </c>
       <c r="B83">
         <v>1940541</v>
@@ -1729,7 +3214,7 @@
     </row>
     <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>227</v>
       </c>
       <c r="B84">
         <v>3909861</v>
@@ -1737,7 +3222,7 @@
     </row>
     <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>228</v>
       </c>
       <c r="B85">
         <v>136481791</v>
@@ -1745,7 +3230,7 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>85</v>
+        <v>229</v>
       </c>
       <c r="B86">
         <v>201232190</v>
@@ -1753,7 +3238,7 @@
     </row>
     <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>86</v>
+        <v>230</v>
       </c>
       <c r="B87">
         <v>25391682</v>
@@ -1761,7 +3246,7 @@
     </row>
     <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>87</v>
+        <v>231</v>
       </c>
       <c r="B88">
         <v>187091229</v>
@@ -1769,7 +3254,7 @@
     </row>
     <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>232</v>
       </c>
       <c r="B89">
         <v>4504194</v>
@@ -1777,7 +3262,7 @@
     </row>
     <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>233</v>
       </c>
       <c r="B90">
         <v>144072941</v>
@@ -1785,7 +3270,7 @@
     </row>
     <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>234</v>
       </c>
       <c r="B91">
         <v>46750436</v>
@@ -1793,7 +3278,7 @@
     </row>
     <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>91</v>
+        <v>235</v>
       </c>
       <c r="B92">
         <v>130524965</v>
@@ -1801,7 +3286,7 @@
     </row>
     <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>92</v>
+        <v>236</v>
       </c>
       <c r="B93">
         <v>142004521</v>
@@ -1809,7 +3294,7 @@
     </row>
     <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>93</v>
+        <v>237</v>
       </c>
       <c r="B94">
         <v>152987987</v>
@@ -1817,7 +3302,7 @@
     </row>
     <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>94</v>
+        <v>238</v>
       </c>
       <c r="B95">
         <v>4888702</v>
@@ -1825,7 +3310,7 @@
     </row>
     <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>95</v>
+        <v>239</v>
       </c>
       <c r="B96">
         <v>202850129</v>
@@ -1833,7 +3318,7 @@
     </row>
     <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="B97">
         <v>1065088</v>
@@ -1841,7 +3326,7 @@
     </row>
     <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>97</v>
+        <v>241</v>
       </c>
       <c r="B98">
         <v>1188058</v>
@@ -1849,7 +3334,7 @@
     </row>
     <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>242</v>
       </c>
       <c r="B99">
         <v>1177498</v>
@@ -1857,7 +3342,7 @@
     </row>
     <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>243</v>
       </c>
       <c r="B100">
         <v>1240649</v>
@@ -1865,7 +3350,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>100</v>
+        <v>244</v>
       </c>
       <c r="B101">
         <v>1078239</v>
@@ -1873,7 +3358,7 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>101</v>
+        <v>245</v>
       </c>
       <c r="B102">
         <v>1127273</v>
@@ -1881,7 +3366,7 @@
     </row>
     <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>102</v>
+        <v>246</v>
       </c>
       <c r="B103">
         <v>1127536</v>
@@ -1889,7 +3374,7 @@
     </row>
     <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>103</v>
+        <v>247</v>
       </c>
       <c r="B104">
         <v>1131527</v>
@@ -1897,7 +3382,7 @@
     </row>
     <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="B105">
         <v>1014674</v>
@@ -1905,7 +3390,7 @@
     </row>
     <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>105</v>
+        <v>249</v>
       </c>
       <c r="B106">
         <v>1127634</v>
@@ -1913,7 +3398,7 @@
     </row>
     <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="B107">
         <v>1061148</v>
@@ -1921,7 +3406,7 @@
     </row>
     <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="B108">
         <v>1066581</v>
@@ -1929,7 +3414,7 @@
     </row>
     <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>108</v>
+        <v>252</v>
       </c>
       <c r="B109">
         <v>21604169</v>
@@ -1937,7 +3422,7 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>109</v>
+        <v>253</v>
       </c>
       <c r="B110">
         <v>10341890</v>
@@ -1945,7 +3430,7 @@
     </row>
     <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="B111">
         <v>15123585</v>
@@ -1953,7 +3438,7 @@
     </row>
     <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>111</v>
+        <v>255</v>
       </c>
       <c r="B112">
         <v>11642611</v>
@@ -1961,7 +3446,7 @@
     </row>
     <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>112</v>
+        <v>256</v>
       </c>
       <c r="B113">
         <v>2214470</v>
@@ -1969,7 +3454,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>113</v>
+        <v>257</v>
       </c>
       <c r="B114">
         <v>6845316</v>
@@ -1977,7 +3462,7 @@
     </row>
     <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>114</v>
+        <v>258</v>
       </c>
       <c r="B115">
         <v>5518140</v>
@@ -1985,7 +3470,7 @@
     </row>
     <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>115</v>
+        <v>259</v>
       </c>
       <c r="B116">
         <v>7168905</v>
@@ -1993,7 +3478,7 @@
     </row>
     <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>116</v>
+        <v>260</v>
       </c>
       <c r="B117">
         <v>11072227</v>
@@ -2001,7 +3486,7 @@
     </row>
     <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>117</v>
+        <v>261</v>
       </c>
       <c r="B118">
         <v>21658057</v>
@@ -2009,7 +3494,7 @@
     </row>
     <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>118</v>
+        <v>262</v>
       </c>
       <c r="B119">
         <v>2243360</v>
@@ -2017,7 +3502,7 @@
     </row>
     <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>119</v>
+        <v>263</v>
       </c>
       <c r="B120">
         <v>10094631</v>
@@ -2025,7 +3510,7 @@
     </row>
     <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>264</v>
       </c>
       <c r="B121">
         <v>36080674</v>
@@ -2033,7 +3518,7 @@
     </row>
     <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>265</v>
       </c>
       <c r="B122">
         <v>26498873</v>
@@ -2041,7 +3526,7 @@
     </row>
     <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>122</v>
+        <v>266</v>
       </c>
       <c r="B123">
         <v>22216961</v>
@@ -2049,7 +3534,7 @@
     </row>
     <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>123</v>
+        <v>267</v>
       </c>
       <c r="B124">
         <v>26255460</v>
@@ -2057,7 +3542,7 @@
     </row>
     <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>124</v>
+        <v>268</v>
       </c>
       <c r="B125">
         <v>2538307</v>
@@ -2065,7 +3550,7 @@
     </row>
     <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>125</v>
+        <v>269</v>
       </c>
       <c r="B126">
         <v>36714315</v>
@@ -2073,7 +3558,7 @@
     </row>
     <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>126</v>
+        <v>270</v>
       </c>
       <c r="B127">
         <v>36851455</v>
@@ -2081,7 +3566,7 @@
     </row>
     <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>127</v>
+        <v>271</v>
       </c>
       <c r="B128">
         <v>31817974</v>
@@ -2089,7 +3574,7 @@
     </row>
     <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>128</v>
+        <v>272</v>
       </c>
       <c r="B129">
         <v>21733983</v>
@@ -2097,7 +3582,7 @@
     </row>
     <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>129</v>
+        <v>273</v>
       </c>
       <c r="B130">
         <v>35535978</v>
@@ -2105,7 +3590,7 @@
     </row>
     <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>130</v>
+        <v>274</v>
       </c>
       <c r="B131">
         <v>2749637</v>
@@ -2113,7 +3598,7 @@
     </row>
     <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>131</v>
+        <v>275</v>
       </c>
       <c r="B132">
         <v>20488941</v>
@@ -2121,7 +3606,7 @@
     </row>
     <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>132</v>
+        <v>276</v>
       </c>
       <c r="B133">
         <v>55554853</v>
@@ -2129,7 +3614,7 @@
     </row>
     <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>133</v>
+        <v>277</v>
       </c>
       <c r="B134">
         <v>64185577</v>
@@ -2137,7 +3622,7 @@
     </row>
     <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>134</v>
+        <v>278</v>
       </c>
       <c r="B135">
         <v>18651985</v>
@@ -2145,7 +3630,7 @@
     </row>
     <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>135</v>
+        <v>279</v>
       </c>
       <c r="B136">
         <v>64849892</v>
@@ -2153,7 +3638,7 @@
     </row>
     <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>136</v>
+        <v>280</v>
       </c>
       <c r="B137">
         <v>3487046</v>
@@ -2161,7 +3646,7 @@
     </row>
     <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>137</v>
+        <v>281</v>
       </c>
       <c r="B138">
         <v>67282700</v>
@@ -2169,7 +3654,7 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>138</v>
+        <v>282</v>
       </c>
       <c r="B139">
         <v>40499881</v>
@@ -2177,7 +3662,7 @@
     </row>
     <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>139</v>
+        <v>283</v>
       </c>
       <c r="B140">
         <v>71881375</v>
@@ -2185,7 +3670,7 @@
     </row>
     <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>140</v>
+        <v>284</v>
       </c>
       <c r="B141">
         <v>50313242</v>
@@ -2193,7 +3678,7 @@
     </row>
     <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>141</v>
+        <v>285</v>
       </c>
       <c r="B142">
         <v>53034921</v>
@@ -2201,7 +3686,7 @@
     </row>
     <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>142</v>
+        <v>286</v>
       </c>
       <c r="B143">
         <v>3293420</v>
@@ -2209,7 +3694,7 @@
     </row>
     <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>143</v>
+        <v>287</v>
       </c>
       <c r="B144">
         <v>48537565</v>
@@ -2225,4 +3710,2356 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B144"/>
+  <sheetViews>
+    <sheetView showRuler="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="52.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>73438</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>275195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>357561</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>720564</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>254503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>544350</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>239470</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>508995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>636575</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>79736</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>202563</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>622723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>19813102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>26435902</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>240510</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>26919822</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>197093</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>11262138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>378270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>10455408</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>21241589</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>19051005</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>177638</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>14495413</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>61128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>63474</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>59515</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>55855</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>53630</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>59998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>59607</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>62148</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>51649</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>61326</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>62246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>67395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>298295</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1926557</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>357243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>2122520</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>276111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>995284</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>349268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>902645</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>1644765</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>336862</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>215714</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>2015480</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>313487</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>4408213</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>324740</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>4220600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>226059</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>2114091</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>380903</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>2265211</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>3633444</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>333929</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>195608</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>3214494</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>562973</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>9954400</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>446925</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>9674521</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>246281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>5646595</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>299911</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7088673</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7555401</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>336131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>192268</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7063582</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>72283</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>123814</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>360206</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>731999</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>276539</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>577751</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>202127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>442400</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>630158</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>64904</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>209805</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>587188</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>27401988</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>38174838</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>394900</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>37142411</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>246396</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>21984674</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>477718</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>8423675</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>31772937</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>28464583</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>173170</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>25708445</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>62412</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>66121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>79310</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>68156</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>48472</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>63464</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>65474</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>65388</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>50048</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>60419</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>58004</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>58989</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>82733</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>2218202</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>503653</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>2229902</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>256133</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>799581</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>279835</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>1103685</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>2177955</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>393489</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>214134</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>1957713</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>259395</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>5326249</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>333703</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>4788163</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>274131</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>2630581</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>388935</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>3195875</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>4579745</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>314064</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>171842</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>4417319</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>685462</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>14402033</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>369499</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>14147688</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>260596</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>9203006</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>382228</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>6825946</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>11626139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>1158885</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>208623</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>11561985</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="A73" sqref="A73:B84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="83" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>821254</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1754533</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1283705</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1998507</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>838880</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1431994</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>918526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1393456</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1779083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>769176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>795950</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1528247</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>32127460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>62795997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2641304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>63376820</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1212887</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>29660703</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>3746226</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>45282489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>40366122</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>45362202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>1144107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>46013355</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>384851</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>490402</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>531805</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>477530</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>409900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>404491</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>451342</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>461273</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>369841</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>410386</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>439155</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>409780</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>1392756</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>4563781</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>1272269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>4664638</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>1115500</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1899242</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1074903</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>1829333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>4188198</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>1399900</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>859165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>4090839</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1365493</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>9446584</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1836672</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>8571026</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>1048774</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>3801007</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>1390191</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>4404773</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7102250</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>1584604</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>883778</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>5669188</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>11497814</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>20414035</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>1558054</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>21594426</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>1025400</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>17484578</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>1257142</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>11348959</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>17101463</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>8638924</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>841331</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>18140038</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>972990</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>1395466</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>1969554</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>1704222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>794295</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>1430550</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>386462</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>1252018</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>2099532</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>669955</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>794069</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>1818235</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>67783396</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>85463247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>3414301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>73344837</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>1620091</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>28155462</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>4051747</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>46096854</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>54852579</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>57105192</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>1460309</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>60015116</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>386701</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>461233</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>448211</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>472262</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>414342</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>400143</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>444639</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>438441</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>381372</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>363050</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>404531</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>449096</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>1588660</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>5621462</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>1503873</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>4935726</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>756913</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>2759494</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>936741</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>2238468</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" t="s">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>4719028</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>1323527</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" t="s">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>999189</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" t="s">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>4743872</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" t="s">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>1394754</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" t="s">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1">
+        <v>10956340</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" t="s">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>1812919</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" t="s">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1">
+        <v>12592251</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" t="s">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>1189194</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" t="s">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>5837554</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" t="s">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>1645725</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" t="s">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>5806947</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" t="s">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>9931478</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" t="s">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>1967160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" t="s">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>1009571</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" t="s">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1">
+        <v>10234430</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1">
+        <v>13257809</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1">
+        <v>25460413</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>2384176</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1">
+        <v>28593850</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>990223</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" t="s">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1">
+        <v>18196027</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" t="s">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>2933958</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" t="s">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1">
+        <v>14741172</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" t="s">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1">
+        <v>21959970</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" t="s">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1">
+        <v>11687325</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" t="s">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>1149693</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" t="s">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1">
+        <v>23504098</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Data/HW_Counters.xlsx
+++ b/Data/HW_Counters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-460" windowWidth="51200" windowHeight="28800" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="51200" windowHeight="28340" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PM_CMPLU_STALL_DCACHE_MISS" sheetId="1" r:id="rId1"/>
@@ -4893,7 +4893,7 @@
   <dimension ref="A1:B144"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="A73" sqref="A73:B84"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/Data/HW_Counters.xlsx
+++ b/Data/HW_Counters.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="51200" windowHeight="28340" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="51200" windowHeight="28340" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PM_CMPLU_STALL_DCACHE_MISS" sheetId="1" r:id="rId1"/>
     <sheet name="PM_CMPLU_STALL_DMISS_REMOTE" sheetId="2" r:id="rId2"/>
     <sheet name="PM_CMPLU_STALL_DMISS_DISTANT" sheetId="3" r:id="rId3"/>
+    <sheet name="Timing" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -891,6 +892,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -938,9 +942,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1076,11 +1081,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2083504744"/>
-        <c:axId val="-2084214632"/>
+        <c:axId val="-2087247336"/>
+        <c:axId val="-2138567080"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2083504744"/>
+        <c:axId val="-2087247336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,7 +1094,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2084214632"/>
+        <c:crossAx val="-2138567080"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1097,7 +1102,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2084214632"/>
+        <c:axId val="-2138567080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1108,14 +1113,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2083504744"/>
+        <c:crossAx val="-2087247336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1254,11 +1258,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2079387480"/>
-        <c:axId val="-2077738664"/>
+        <c:axId val="-2139051816"/>
+        <c:axId val="-2138525512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2079387480"/>
+        <c:axId val="-2139051816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1267,7 +1271,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2077738664"/>
+        <c:crossAx val="-2138525512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1275,7 +1279,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2077738664"/>
+        <c:axId val="-2138525512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1286,14 +1290,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2079387480"/>
+        <c:crossAx val="-2139051816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1432,11 +1435,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2077394984"/>
-        <c:axId val="-2138533176"/>
+        <c:axId val="-2044474120"/>
+        <c:axId val="-2044471112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2077394984"/>
+        <c:axId val="-2044474120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1445,7 +1448,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138533176"/>
+        <c:crossAx val="-2044471112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1453,7 +1456,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138533176"/>
+        <c:axId val="-2044471112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1464,14 +1467,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2077394984"/>
+        <c:crossAx val="-2044474120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1610,11 +1612,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2129156840"/>
-        <c:axId val="2086040168"/>
+        <c:axId val="-2044493560"/>
+        <c:axId val="-2044490552"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2129156840"/>
+        <c:axId val="-2044493560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1623,7 +1625,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086040168"/>
+        <c:crossAx val="-2044490552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1631,7 +1633,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2086040168"/>
+        <c:axId val="-2044490552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1642,14 +1644,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129156840"/>
+        <c:crossAx val="-2044493560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1788,11 +1789,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2079089784"/>
-        <c:axId val="-2073603400"/>
+        <c:axId val="-2084169400"/>
+        <c:axId val="-2079106152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2079089784"/>
+        <c:axId val="-2084169400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1801,7 +1802,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073603400"/>
+        <c:crossAx val="-2079106152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1809,7 +1810,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2073603400"/>
+        <c:axId val="-2079106152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1820,7 +1821,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2079089784"/>
+        <c:crossAx val="-2084169400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1966,11 +1967,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2072415160"/>
-        <c:axId val="-2072549400"/>
+        <c:axId val="-2078417304"/>
+        <c:axId val="-2078442952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2072415160"/>
+        <c:axId val="-2078417304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1979,7 +1980,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2072549400"/>
+        <c:crossAx val="-2078442952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1987,7 +1988,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2072549400"/>
+        <c:axId val="-2078442952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1998,7 +1999,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2072415160"/>
+        <c:crossAx val="-2078417304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4892,7 +4893,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="C10" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="C10" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -6062,4 +6063,747 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A144"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection sqref="A1:H1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1">
+      <c r="A102" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1">
+      <c r="A103" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1">
+      <c r="A105" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1">
+      <c r="A106" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1">
+      <c r="A107" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1">
+      <c r="A108" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1">
+      <c r="A109" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1">
+      <c r="A110" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1">
+      <c r="A111" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
+      <c r="A112" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1">
+      <c r="A113" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1">
+      <c r="A114" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1">
+      <c r="A115" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1">
+      <c r="A116" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1">
+      <c r="A117" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1">
+      <c r="A118" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1">
+      <c r="A119" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1">
+      <c r="A120" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1">
+      <c r="A121" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1">
+      <c r="A122" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1">
+      <c r="A123" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1">
+      <c r="A124" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1">
+      <c r="A125" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1">
+      <c r="A126" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1">
+      <c r="A127" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1">
+      <c r="A128" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1">
+      <c r="A129" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1">
+      <c r="A130" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1">
+      <c r="A131" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1">
+      <c r="A132" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1">
+      <c r="A133" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1">
+      <c r="A134" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1">
+      <c r="A135" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1">
+      <c r="A136" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1">
+      <c r="A137" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1">
+      <c r="A138" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1">
+      <c r="A139" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1">
+      <c r="A140" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1">
+      <c r="A141" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1">
+      <c r="A142" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1">
+      <c r="A143" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1">
+      <c r="A144" s="2">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Data/HW_Counters.xlsx
+++ b/Data/HW_Counters.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="51200" windowHeight="28340" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="35500" yWindow="4020" windowWidth="27060" windowHeight="23800" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PM_CMPLU_STALL_DCACHE_MISS" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="511">
   <si>
     <t xml:space="preserve">j-A_10th_close.txt:	</t>
   </si>
@@ -886,6 +886,675 @@
   </si>
   <si>
     <t xml:space="preserve">j-O_80th_threads_spread	</t>
+  </si>
+  <si>
+    <t>Time in seconds</t>
+  </si>
+  <si>
+    <t>Configurations</t>
+  </si>
+  <si>
+    <t>J-O_1th_close</t>
+  </si>
+  <si>
+    <t>J-A_1th_close</t>
+  </si>
+  <si>
+    <t>J-O_10th_close</t>
+  </si>
+  <si>
+    <t>J-A_10th_close</t>
+  </si>
+  <si>
+    <t>J-O_20th_close</t>
+  </si>
+  <si>
+    <t>J-A_20th_close</t>
+  </si>
+  <si>
+    <t>J-O_40th_close</t>
+  </si>
+  <si>
+    <t>J-A_40th_close</t>
+  </si>
+  <si>
+    <t>J-O_80th_close</t>
+  </si>
+  <si>
+    <t>J-A_80th_close</t>
+  </si>
+  <si>
+    <t>J-O_160th_close</t>
+  </si>
+  <si>
+    <t>J-A_160th_close</t>
+  </si>
+  <si>
+    <t>J-O_1th_spread</t>
+  </si>
+  <si>
+    <t>J-A_1th_spread</t>
+  </si>
+  <si>
+    <t>J-O_10th_spread</t>
+  </si>
+  <si>
+    <t>J-A_10th_spread</t>
+  </si>
+  <si>
+    <t>J-O_20th_spread</t>
+  </si>
+  <si>
+    <t>J-A_20th_spread</t>
+  </si>
+  <si>
+    <t>J-O_40th_spread</t>
+  </si>
+  <si>
+    <t>J-A_40th_spread</t>
+  </si>
+  <si>
+    <t>J-O_80th_spread</t>
+  </si>
+  <si>
+    <t>J-A_80th_spread</t>
+  </si>
+  <si>
+    <t>J-O_160th_spread</t>
+  </si>
+  <si>
+    <t>J-A_160th_spread</t>
+  </si>
+  <si>
+    <t>J-O_1th_master</t>
+  </si>
+  <si>
+    <t>J-A_1th_master</t>
+  </si>
+  <si>
+    <t>J-O_10th_master</t>
+  </si>
+  <si>
+    <t>J-A_10th_master</t>
+  </si>
+  <si>
+    <t>J-O_20th_master</t>
+  </si>
+  <si>
+    <t>J-A_20th_master</t>
+  </si>
+  <si>
+    <t>J-O_40th_master</t>
+  </si>
+  <si>
+    <t>J-A_40th_master</t>
+  </si>
+  <si>
+    <t>J-O_80th_master</t>
+  </si>
+  <si>
+    <t>J-A_80th_master</t>
+  </si>
+  <si>
+    <t>J-O_160th_master</t>
+  </si>
+  <si>
+    <t>J-A_160th_master</t>
+  </si>
+  <si>
+    <t>J-O_1th_close_threads</t>
+  </si>
+  <si>
+    <t>J-A_1th_close_threads</t>
+  </si>
+  <si>
+    <t>J-O_10th_close_threads</t>
+  </si>
+  <si>
+    <t>J-A_10th_close_threads</t>
+  </si>
+  <si>
+    <t>J-O_20th_close_threads</t>
+  </si>
+  <si>
+    <t>J-A_20th_close_threads</t>
+  </si>
+  <si>
+    <t>J-O_40th_close_threads</t>
+  </si>
+  <si>
+    <t>J-A_40th_close_threads</t>
+  </si>
+  <si>
+    <t>J-O_80th_close_threads</t>
+  </si>
+  <si>
+    <t>J-A_80th_close_threads</t>
+  </si>
+  <si>
+    <t>J-O_160th_close_threads</t>
+  </si>
+  <si>
+    <t>J-A_160th_close_threads</t>
+  </si>
+  <si>
+    <t>J-O_1th_spread_threads</t>
+  </si>
+  <si>
+    <t>J-A_1th_spread_threads</t>
+  </si>
+  <si>
+    <t>J-O_10th_spread_threads</t>
+  </si>
+  <si>
+    <t>J-A_10th_spread_threads</t>
+  </si>
+  <si>
+    <t>J-O_20th_spread_threads</t>
+  </si>
+  <si>
+    <t>J-A_20th_spread_threads</t>
+  </si>
+  <si>
+    <t>J-O_40th_spread_threads</t>
+  </si>
+  <si>
+    <t>J-A_40th_spread_threads</t>
+  </si>
+  <si>
+    <t>J-O_80th_spread_threads</t>
+  </si>
+  <si>
+    <t>J-A_80th_spread_threads</t>
+  </si>
+  <si>
+    <t>J-O_160th_spread_threads</t>
+  </si>
+  <si>
+    <t>J-A_160th_spread_threads</t>
+  </si>
+  <si>
+    <t>J-O_1th_master_threads</t>
+  </si>
+  <si>
+    <t>J-A_1th_master_threads</t>
+  </si>
+  <si>
+    <t>J-O_10th_master_threads</t>
+  </si>
+  <si>
+    <t>J-A_10th_master_threads</t>
+  </si>
+  <si>
+    <t>J-O_20th_master_threads</t>
+  </si>
+  <si>
+    <t>J-A_20th_master_threads</t>
+  </si>
+  <si>
+    <t>J-O_40th_master_threads</t>
+  </si>
+  <si>
+    <t>J-A_40th_master_threads</t>
+  </si>
+  <si>
+    <t>J-O_80th_master_threads</t>
+  </si>
+  <si>
+    <t>J-A_80th_master_threads</t>
+  </si>
+  <si>
+    <t>J-O_160th_master_threads</t>
+  </si>
+  <si>
+    <t>J-A_160th_master_threads</t>
+  </si>
+  <si>
+    <t>J-O_1th_close_cores</t>
+  </si>
+  <si>
+    <t>J-A_1th_close_cores</t>
+  </si>
+  <si>
+    <t>J-O_10th_close_cores</t>
+  </si>
+  <si>
+    <t>J-A_10th_close_cores</t>
+  </si>
+  <si>
+    <t>J-O_20th_close_cores</t>
+  </si>
+  <si>
+    <t>J-A_20th_close_cores</t>
+  </si>
+  <si>
+    <t>J-O_40th_close_cores</t>
+  </si>
+  <si>
+    <t>J-A_40th_close_cores</t>
+  </si>
+  <si>
+    <t>J-O_80th_close_cores</t>
+  </si>
+  <si>
+    <t>J-A_80th_close_cores</t>
+  </si>
+  <si>
+    <t>J-O_160th_close_cores</t>
+  </si>
+  <si>
+    <t>J-A_160th_close_cores</t>
+  </si>
+  <si>
+    <t>J-O_1th_spread_cores</t>
+  </si>
+  <si>
+    <t>J-A_1th_spread_cores</t>
+  </si>
+  <si>
+    <t>J-O_10th_spread_cores</t>
+  </si>
+  <si>
+    <t>J-A_10th_spread_cores</t>
+  </si>
+  <si>
+    <t>J-O_20th_spread_cores</t>
+  </si>
+  <si>
+    <t>J-A_20th_spread_cores</t>
+  </si>
+  <si>
+    <t>J-O_40th_spread_cores</t>
+  </si>
+  <si>
+    <t>J-A_40th_spread_cores</t>
+  </si>
+  <si>
+    <t>J-O_80th_spread_cores</t>
+  </si>
+  <si>
+    <t>J-A_80th_spread_cores</t>
+  </si>
+  <si>
+    <t>J-O_160th_spread_cores</t>
+  </si>
+  <si>
+    <t>J-A_160th_spread_cores</t>
+  </si>
+  <si>
+    <t>J-O_1th_master_cores</t>
+  </si>
+  <si>
+    <t>J-A_1th_master_cores</t>
+  </si>
+  <si>
+    <t>J-O_10th_master_cores</t>
+  </si>
+  <si>
+    <t>J-A_10th_master_cores</t>
+  </si>
+  <si>
+    <t>J-O_20th_master_cores</t>
+  </si>
+  <si>
+    <t>J-A_20th_master_cores</t>
+  </si>
+  <si>
+    <t>J-O_40th_master_cores</t>
+  </si>
+  <si>
+    <t>J-A_40th_master_cores</t>
+  </si>
+  <si>
+    <t>J-O_80th_master_cores</t>
+  </si>
+  <si>
+    <t>J-A_80th_master_cores</t>
+  </si>
+  <si>
+    <t>J-O_160th_master_cores</t>
+  </si>
+  <si>
+    <t>J-A_160th_master_cores</t>
+  </si>
+  <si>
+    <t>J-O_1th_close_sockets</t>
+  </si>
+  <si>
+    <t>J-A_1th_close_sockets</t>
+  </si>
+  <si>
+    <t>J-O_10th_close_sockets</t>
+  </si>
+  <si>
+    <t>J-A_10th_close_sockets</t>
+  </si>
+  <si>
+    <t>J-O_20th_close_sockets</t>
+  </si>
+  <si>
+    <t>J-A_20th_close_sockets</t>
+  </si>
+  <si>
+    <t>J-O_40th_close_sockets</t>
+  </si>
+  <si>
+    <t>J-A_40th_close_sockets</t>
+  </si>
+  <si>
+    <t>J-O_80th_close_sockets</t>
+  </si>
+  <si>
+    <t>J-A_80th_close_sockets</t>
+  </si>
+  <si>
+    <t>J-O_160th_close_sockets</t>
+  </si>
+  <si>
+    <t>J-A_160th_close_sockets</t>
+  </si>
+  <si>
+    <t>J-O_1th_spread_sockets</t>
+  </si>
+  <si>
+    <t>J-A_1th_spread_sockets</t>
+  </si>
+  <si>
+    <t>J-O_10th_spread_sockets</t>
+  </si>
+  <si>
+    <t>J-A_10th_spread_sockets</t>
+  </si>
+  <si>
+    <t>J-O_20th_spread_sockets</t>
+  </si>
+  <si>
+    <t>J-A_20th_spread_sockets</t>
+  </si>
+  <si>
+    <t>J-O_40th_spread_sockets</t>
+  </si>
+  <si>
+    <t>J-A_40th_spread_sockets</t>
+  </si>
+  <si>
+    <t>J-O_80th_spread_sockets</t>
+  </si>
+  <si>
+    <t>J-A_80th_spread_sockets</t>
+  </si>
+  <si>
+    <t>J-O_160th_spread_sockets</t>
+  </si>
+  <si>
+    <t>J-A_160th_spread_sockets</t>
+  </si>
+  <si>
+    <t>J-O_1th_master_sockets</t>
+  </si>
+  <si>
+    <t>J-A_1th_master_sockets</t>
+  </si>
+  <si>
+    <t>J-O_10th_master_sockets</t>
+  </si>
+  <si>
+    <t>J-A_10th_master_sockets</t>
+  </si>
+  <si>
+    <t>J-O_20th_master_sockets</t>
+  </si>
+  <si>
+    <t>J-A_20th_master_sockets</t>
+  </si>
+  <si>
+    <t>J-O_40th_master_sockets</t>
+  </si>
+  <si>
+    <t>J-A_40th_master_sockets</t>
+  </si>
+  <si>
+    <t>J-O_80th_master_sockets</t>
+  </si>
+  <si>
+    <t>J-A_80th_master_sockets</t>
+  </si>
+  <si>
+    <t>J-O_160th_master_sockets</t>
+  </si>
+  <si>
+    <t>J-A_160th_master_sockets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1th_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1th_cores_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1th_cores_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1th_cores_spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1th_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1th_sockets_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1th_sockets_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1th_sockets_spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1th_spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1th_threads_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1th_threads_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1th_threads_spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10th_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10th_cores_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10th_cores_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10th_cores_spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10th_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10th_sockets_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10th_sockets_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10th_sockets_spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10th_spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10th_threads_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10th_threads_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10th_threads_spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20th_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20th_cores_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20th_cores_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20th_cores_spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20th_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20th_sockets_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20th_sockets_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20th_sockets_spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20th_spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20th_threads_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20th_threads_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20th_threads_spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40th_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40th_cores_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40th_cores_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40th_cores_spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40th_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40th_sockets_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40th_sockets_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40th_sockets_spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40th_spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40th_threads_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40th_threads_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40th_threads_spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80th_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80th_cores_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80th_cores_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80th_cores_spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80th_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80th_sockets_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80th_sockets_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80th_sockets_spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80th_spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80th_threads_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80th_threads_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80th_threads_spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160th_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160th_cores_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160th_cores_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160th_cores_spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160th_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160th_sockets_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160th_sockets_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160th_sockets_spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160th_spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160th_threads_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160th_threads_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">160th_threads_spread	</t>
+  </si>
+  <si>
+    <t>Jacobi-NoAffinity</t>
+  </si>
+  <si>
+    <t>Jacobi-Affinity</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>PM_CMPLU_STALL_DMISS_REMOTE</t>
+  </si>
+  <si>
+    <t>Timing</t>
   </si>
 </sst>
 </file>
@@ -893,9 +1562,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -919,13 +1588,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -937,19 +1638,156 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="59">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1081,11 +1919,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2087247336"/>
-        <c:axId val="-2138567080"/>
+        <c:axId val="2141049320"/>
+        <c:axId val="2141056392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2087247336"/>
+        <c:axId val="2141049320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1094,7 +1932,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138567080"/>
+        <c:crossAx val="2141056392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1102,7 +1940,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138567080"/>
+        <c:axId val="2141056392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1113,13 +1951,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2087247336"/>
+        <c:crossAx val="2141049320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1258,11 +2097,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2139051816"/>
-        <c:axId val="-2138525512"/>
+        <c:axId val="2139269096"/>
+        <c:axId val="2139259912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2139051816"/>
+        <c:axId val="2139269096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1271,7 +2110,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138525512"/>
+        <c:crossAx val="2139259912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1279,7 +2118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2138525512"/>
+        <c:axId val="2139259912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,13 +2129,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139051816"/>
+        <c:crossAx val="2139269096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1338,7 +2178,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$A$1:$A$12</c:f>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$A$1:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -1382,45 +2222,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$B$1:$B$12</c:f>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$B$1:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>73438.0</c:v>
+                  <c:v>821254.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>275195.0</c:v>
+                  <c:v>1.754533E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>357561.0</c:v>
+                  <c:v>1.283705E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>720564.0</c:v>
+                  <c:v>1.998507E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>254503.0</c:v>
+                  <c:v>838880.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>544350.0</c:v>
+                  <c:v>1.431994E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>239470.0</c:v>
+                  <c:v>918526.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>508995.0</c:v>
+                  <c:v>1.393456E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>636575.0</c:v>
+                  <c:v>1.779083E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>79736.0</c:v>
+                  <c:v>769176.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>202563.0</c:v>
+                  <c:v>795950.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>622723.0</c:v>
+                  <c:v>1.528247E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1435,11 +2275,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2044474120"/>
-        <c:axId val="-2044471112"/>
+        <c:axId val="2141805352"/>
+        <c:axId val="2141808360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2044474120"/>
+        <c:axId val="2141805352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,7 +2288,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2044471112"/>
+        <c:crossAx val="2141808360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1456,7 +2296,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2044471112"/>
+        <c:axId val="2141808360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1467,13 +2307,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2044474120"/>
+        <c:crossAx val="2141805352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1515,89 +2356,89 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$A$13:$A$24</c:f>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$A$73:$A$84</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>j-A_160th_close.txt:	</c:v>
+                  <c:v>j-O_10th_close.txt:	</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>j-A_160th_cores_close.txt:	</c:v>
+                  <c:v>j-O_10th_cores_close.txt:	</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>j-A_160th_cores_master.txt:	</c:v>
+                  <c:v>j-O_10th_cores_master.txt:	</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>j-A_160th_cores_spread.txt:	</c:v>
+                  <c:v>j-O_10th_cores_spread.txt:	</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>j-A_160th_master.txt:	</c:v>
+                  <c:v>j-O_10th_master.txt:	</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>j-A_160th_sockets_close.txt:	</c:v>
+                  <c:v>j-O_10th_sockets_close.txt:	</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>j-A_160th_sockets_master.txt:	</c:v>
+                  <c:v>j-O_10th_sockets_master.txt:	</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>j-A_160th_sockets_spread.txt:	</c:v>
+                  <c:v>j-O_10th_sockets_spread.txt:	</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>j-A_160th_spread.txt:	</c:v>
+                  <c:v>j-O_10th_spread.txt:	</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>j-A_160th_threads_close.txt:	</c:v>
+                  <c:v>j-O_10th_threads_close.txt:	</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>j-A_160th_threads_master.txt:	</c:v>
+                  <c:v>j-O_10th_threads_master.txt:	</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>j-A_160th_threads_spread.txt:	</c:v>
+                  <c:v>j-O_10th_threads_spread.txt:	</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$B$13:$B$24</c:f>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$B$73:$B$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>1.9813102E7</c:v>
+                  <c:v>972990.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6435902E7</c:v>
+                  <c:v>1.395466E6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>240510.0</c:v>
+                  <c:v>1.969554E6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6919822E7</c:v>
+                  <c:v>1.704222E6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>197093.0</c:v>
+                  <c:v>794295.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1262138E7</c:v>
+                  <c:v>1.43055E6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>378270.0</c:v>
+                  <c:v>386462.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.0455408E7</c:v>
+                  <c:v>1.252018E6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1241589E7</c:v>
+                  <c:v>2.099532E6</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.9051005E7</c:v>
+                  <c:v>669955.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>177638.0</c:v>
+                  <c:v>794069.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.4495413E7</c:v>
+                  <c:v>1.818235E6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1612,11 +2453,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2044493560"/>
-        <c:axId val="-2044490552"/>
+        <c:axId val="2141107864"/>
+        <c:axId val="2141110920"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2044493560"/>
+        <c:axId val="2141107864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1625,7 +2466,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2044490552"/>
+        <c:crossAx val="2141110920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1633,7 +2474,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2044490552"/>
+        <c:axId val="2141110920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1644,362 +2485,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2044493560"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$A$1:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>j-A_10th_close.txt:	</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>j-A_10th_cores_close.txt:	</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>j-A_10th_cores_master.txt:	</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>j-A_10th_cores_spread.txt:	</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>j-A_10th_master.txt:	</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>j-A_10th_sockets_close.txt:	</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>j-A_10th_sockets_master.txt:	</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>j-A_10th_sockets_spread.txt:	</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>j-A_10th_spread.txt:	</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>j-A_10th_threads_close.txt:	</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>j-A_10th_threads_master.txt:	</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>j-A_10th_threads_spread.txt:	</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$B$1:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>821254.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.754533E6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.283705E6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.998507E6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>838880.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.431994E6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>918526.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.393456E6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.779083E6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>769176.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>795950.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.528247E6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="-2084169400"/>
-        <c:axId val="-2079106152"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-2084169400"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2079106152"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2079106152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2084169400"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$A$73:$A$84</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>j-O_10th_close.txt:	</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>j-O_10th_cores_close.txt:	</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>j-O_10th_cores_master.txt:	</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>j-O_10th_cores_spread.txt:	</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>j-O_10th_master.txt:	</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>j-O_10th_sockets_close.txt:	</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>j-O_10th_sockets_master.txt:	</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>j-O_10th_sockets_spread.txt:	</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>j-O_10th_spread.txt:	</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>j-O_10th_threads_close.txt:	</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>j-O_10th_threads_master.txt:	</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>j-O_10th_threads_spread.txt:	</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$B$73:$B$84</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>972990.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.395466E6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.969554E6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.704222E6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>794295.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.43055E6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>386462.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.252018E6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.099532E6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>669955.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>794069.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.818235E6</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="-2078417304"/>
-        <c:axId val="-2078442952"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-2078417304"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2078442952"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2078442952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2078417304"/>
+        <c:crossAx val="2141107864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2025,10 +2511,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
@@ -2055,16 +2541,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>698500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2087,71 +2573,6 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>774700</xdr:colOff>
-      <xdr:row>84</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2540,8 +2961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B24"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3715,1172 +4136,958 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B144"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:B24"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="52.6640625" customWidth="1"/>
+    <col min="1" max="3" width="29" customWidth="1"/>
+    <col min="4" max="4" width="17.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20" style="9" customWidth="1"/>
+    <col min="6" max="6" width="28" customWidth="1"/>
+    <col min="7" max="7" width="19.6640625" customWidth="1"/>
+    <col min="9" max="9" width="31.1640625" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:5">
+      <c r="A1" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="E1" s="10"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="B2" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B3" s="12">
+        <v>14</v>
+      </c>
+      <c r="C3" s="12">
+        <v>14</v>
+      </c>
+      <c r="D3" s="9">
+        <v>61128</v>
+      </c>
+      <c r="E3" s="9">
+        <v>62412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>435</v>
+      </c>
+      <c r="B4" s="12">
+        <v>14</v>
+      </c>
+      <c r="C4" s="12">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9">
+        <v>63474</v>
+      </c>
+      <c r="E4" s="9">
+        <v>66121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>436</v>
+      </c>
+      <c r="B5" s="12">
+        <v>14</v>
+      </c>
+      <c r="C5" s="12">
+        <v>14</v>
+      </c>
+      <c r="D5" s="9">
+        <v>59515</v>
+      </c>
+      <c r="E5" s="9">
+        <v>79310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>437</v>
+      </c>
+      <c r="B6" s="12">
+        <v>14</v>
+      </c>
+      <c r="C6" s="12">
+        <v>14</v>
+      </c>
+      <c r="D6" s="9">
+        <v>55855</v>
+      </c>
+      <c r="E6" s="9">
+        <v>68156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>438</v>
+      </c>
+      <c r="B7" s="12">
+        <v>14</v>
+      </c>
+      <c r="C7" s="12">
+        <v>14</v>
+      </c>
+      <c r="D7" s="9">
+        <v>53630</v>
+      </c>
+      <c r="E7" s="9">
+        <v>48472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>439</v>
+      </c>
+      <c r="B8" s="12">
+        <v>14</v>
+      </c>
+      <c r="C8" s="12">
+        <v>14</v>
+      </c>
+      <c r="D8" s="9">
+        <v>59998</v>
+      </c>
+      <c r="E8" s="9">
+        <v>63464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>440</v>
+      </c>
+      <c r="B9" s="12">
+        <v>14</v>
+      </c>
+      <c r="C9" s="12">
+        <v>14</v>
+      </c>
+      <c r="D9" s="9">
+        <v>59607</v>
+      </c>
+      <c r="E9" s="9">
+        <v>65474</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>441</v>
+      </c>
+      <c r="B10" s="12">
+        <v>14</v>
+      </c>
+      <c r="C10" s="12">
+        <v>14</v>
+      </c>
+      <c r="D10" s="9">
+        <v>62148</v>
+      </c>
+      <c r="E10" s="9">
+        <v>65388</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>442</v>
+      </c>
+      <c r="B11" s="12">
+        <v>14</v>
+      </c>
+      <c r="C11" s="12">
+        <v>14</v>
+      </c>
+      <c r="D11" s="9">
+        <v>51649</v>
+      </c>
+      <c r="E11" s="9">
+        <v>50048</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>443</v>
+      </c>
+      <c r="B12" s="12">
+        <v>14</v>
+      </c>
+      <c r="C12" s="12">
+        <v>14</v>
+      </c>
+      <c r="D12" s="9">
+        <v>61326</v>
+      </c>
+      <c r="E12" s="9">
+        <v>60419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>444</v>
+      </c>
+      <c r="B13" s="12">
+        <v>14</v>
+      </c>
+      <c r="C13" s="12">
+        <v>14</v>
+      </c>
+      <c r="D13" s="9">
+        <v>62246</v>
+      </c>
+      <c r="E13" s="9">
+        <v>58004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>445</v>
+      </c>
+      <c r="B14" s="12">
+        <v>14</v>
+      </c>
+      <c r="C14" s="12">
+        <v>14</v>
+      </c>
+      <c r="D14" s="9">
+        <v>67395</v>
+      </c>
+      <c r="E14" s="9">
+        <v>58989</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>446</v>
+      </c>
+      <c r="B15" s="12">
+        <v>8</v>
+      </c>
+      <c r="C15" s="12">
+        <v>6</v>
+      </c>
+      <c r="D15" s="9">
         <v>73438</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="E15" s="9">
+        <v>72283</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>447</v>
+      </c>
+      <c r="B16" s="12">
+        <v>6</v>
+      </c>
+      <c r="C16" s="12">
+        <v>2</v>
+      </c>
+      <c r="D16" s="9">
+        <v>275195</v>
+      </c>
+      <c r="E16" s="9">
+        <v>123814</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>448</v>
+      </c>
+      <c r="B17" s="12">
+        <v>11</v>
+      </c>
+      <c r="C17" s="12">
+        <v>9</v>
+      </c>
+      <c r="D17" s="9">
+        <v>357561</v>
+      </c>
+      <c r="E17" s="9">
+        <v>360206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>449</v>
+      </c>
+      <c r="D18" s="9">
+        <v>720564</v>
+      </c>
+      <c r="E18" s="9">
+        <v>731999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>450</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>16</v>
+      </c>
+      <c r="D19" s="9">
+        <v>254503</v>
+      </c>
+      <c r="E19" s="9">
+        <v>276539</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>451</v>
+      </c>
+      <c r="D20" s="9">
+        <v>544350</v>
+      </c>
+      <c r="E20" s="9">
+        <v>577751</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>452</v>
+      </c>
+      <c r="D21" s="9">
+        <v>239470</v>
+      </c>
+      <c r="E21" s="9">
+        <v>202127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>453</v>
+      </c>
+      <c r="D22" s="9">
+        <v>508995</v>
+      </c>
+      <c r="E22" s="9">
+        <v>442400</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>454</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>275195</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>357561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>720564</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>254503</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>544350</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
+      <c r="D23" s="9">
+        <v>636575</v>
+      </c>
+      <c r="E23" s="9">
+        <v>630158</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>455</v>
+      </c>
+      <c r="B24">
+        <v>8</v>
+      </c>
+      <c r="C24">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>239470</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>508995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>636575</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+      <c r="D24" s="9">
         <v>79736</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+      <c r="E24" s="9">
+        <v>64904</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>456</v>
+      </c>
+      <c r="D25" s="9">
         <v>202563</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
+      <c r="E25" s="9">
+        <v>209805</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>457</v>
+      </c>
+      <c r="D26" s="9">
         <v>622723</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
+      <c r="E26" s="9">
+        <v>587188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>458</v>
+      </c>
+      <c r="D27" s="9">
+        <v>298295</v>
+      </c>
+      <c r="E27" s="9">
+        <v>82733</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>459</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1926557</v>
+      </c>
+      <c r="E28" s="9">
+        <v>2218202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>460</v>
+      </c>
+      <c r="D29" s="9">
+        <v>357243</v>
+      </c>
+      <c r="E29" s="9">
+        <v>503653</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>461</v>
+      </c>
+      <c r="D30" s="9">
+        <v>2122520</v>
+      </c>
+      <c r="E30" s="9">
+        <v>2229902</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>462</v>
+      </c>
+      <c r="D31" s="9">
+        <v>276111</v>
+      </c>
+      <c r="E31" s="9">
+        <v>256133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>463</v>
+      </c>
+      <c r="D32" s="9">
+        <v>995284</v>
+      </c>
+      <c r="E32" s="9">
+        <v>799581</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>464</v>
+      </c>
+      <c r="D33" s="9">
+        <v>349268</v>
+      </c>
+      <c r="E33" s="9">
+        <v>279835</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>465</v>
+      </c>
+      <c r="D34" s="9">
+        <v>902645</v>
+      </c>
+      <c r="E34" s="9">
+        <v>1103685</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>466</v>
+      </c>
+      <c r="D35" s="9">
+        <v>1644765</v>
+      </c>
+      <c r="E35" s="9">
+        <v>2177955</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>467</v>
+      </c>
+      <c r="D36" s="9">
+        <v>336862</v>
+      </c>
+      <c r="E36" s="9">
+        <v>393489</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>468</v>
+      </c>
+      <c r="D37" s="9">
+        <v>215714</v>
+      </c>
+      <c r="E37" s="9">
+        <v>214134</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>469</v>
+      </c>
+      <c r="D38" s="9">
+        <v>2015480</v>
+      </c>
+      <c r="E38" s="9">
+        <v>1957713</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>470</v>
+      </c>
+      <c r="D39" s="9">
+        <v>313487</v>
+      </c>
+      <c r="E39" s="9">
+        <v>259395</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>471</v>
+      </c>
+      <c r="D40" s="9">
+        <v>4408213</v>
+      </c>
+      <c r="E40" s="9">
+        <v>5326249</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>472</v>
+      </c>
+      <c r="D41" s="9">
+        <v>324740</v>
+      </c>
+      <c r="E41" s="9">
+        <v>333703</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>473</v>
+      </c>
+      <c r="D42" s="9">
+        <v>4220600</v>
+      </c>
+      <c r="E42" s="9">
+        <v>4788163</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>474</v>
+      </c>
+      <c r="D43" s="9">
+        <v>226059</v>
+      </c>
+      <c r="E43" s="9">
+        <v>274131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>475</v>
+      </c>
+      <c r="D44" s="9">
+        <v>2114091</v>
+      </c>
+      <c r="E44" s="9">
+        <v>2630581</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>476</v>
+      </c>
+      <c r="D45" s="9">
+        <v>380903</v>
+      </c>
+      <c r="E45" s="9">
+        <v>388935</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>477</v>
+      </c>
+      <c r="D46" s="9">
+        <v>2265211</v>
+      </c>
+      <c r="E46" s="9">
+        <v>3195875</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>478</v>
+      </c>
+      <c r="D47" s="9">
+        <v>3633444</v>
+      </c>
+      <c r="E47" s="9">
+        <v>4579745</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>479</v>
+      </c>
+      <c r="D48" s="9">
+        <v>333929</v>
+      </c>
+      <c r="E48" s="9">
+        <v>314064</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>480</v>
+      </c>
+      <c r="D49" s="9">
+        <v>195608</v>
+      </c>
+      <c r="E49" s="9">
+        <v>171842</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>481</v>
+      </c>
+      <c r="D50" s="9">
+        <v>3214494</v>
+      </c>
+      <c r="E50" s="9">
+        <v>4417319</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>482</v>
+      </c>
+      <c r="D51" s="9">
+        <v>562973</v>
+      </c>
+      <c r="E51" s="9">
+        <v>685462</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>483</v>
+      </c>
+      <c r="D52" s="9">
+        <v>9954400</v>
+      </c>
+      <c r="E52" s="9">
+        <v>14402033</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>484</v>
+      </c>
+      <c r="D53" s="9">
+        <v>446925</v>
+      </c>
+      <c r="E53" s="9">
+        <v>369499</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>485</v>
+      </c>
+      <c r="D54" s="9">
+        <v>9674521</v>
+      </c>
+      <c r="E54" s="9">
+        <v>14147688</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>486</v>
+      </c>
+      <c r="D55" s="9">
+        <v>246281</v>
+      </c>
+      <c r="E55" s="9">
+        <v>260596</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>487</v>
+      </c>
+      <c r="D56" s="9">
+        <v>5646595</v>
+      </c>
+      <c r="E56" s="9">
+        <v>9203006</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>488</v>
+      </c>
+      <c r="D57" s="9">
+        <v>299911</v>
+      </c>
+      <c r="E57" s="9">
+        <v>382228</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>489</v>
+      </c>
+      <c r="D58" s="9">
+        <v>7088673</v>
+      </c>
+      <c r="E58" s="9">
+        <v>6825946</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>490</v>
+      </c>
+      <c r="D59" s="9">
+        <v>7555401</v>
+      </c>
+      <c r="E59" s="9">
+        <v>11626139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>491</v>
+      </c>
+      <c r="D60" s="9">
+        <v>336131</v>
+      </c>
+      <c r="E60" s="9">
+        <v>1158885</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>492</v>
+      </c>
+      <c r="D61" s="9">
+        <v>192268</v>
+      </c>
+      <c r="E61" s="9">
+        <v>208623</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>493</v>
+      </c>
+      <c r="D62" s="9">
+        <v>7063582</v>
+      </c>
+      <c r="E62" s="9">
+        <v>11561985</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>494</v>
+      </c>
+      <c r="D63" s="9">
         <v>19813102</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
+      <c r="E63" s="9">
+        <v>27401988</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>495</v>
+      </c>
+      <c r="D64" s="9">
         <v>26435902</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15">
+      <c r="E64" s="9">
+        <v>38174838</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>496</v>
+      </c>
+      <c r="D65" s="9">
         <v>240510</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+      <c r="E65" s="9">
+        <v>394900</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>497</v>
+      </c>
+      <c r="D66" s="9">
         <v>26919822</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+      <c r="E66" s="9">
+        <v>37142411</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>498</v>
+      </c>
+      <c r="D67" s="9">
         <v>197093</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+      <c r="E67" s="9">
+        <v>246396</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>499</v>
+      </c>
+      <c r="D68" s="9">
         <v>11262138</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19">
+      <c r="E68" s="9">
+        <v>21984674</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>500</v>
+      </c>
+      <c r="D69" s="9">
         <v>378270</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20">
+      <c r="E69" s="9">
+        <v>477718</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>501</v>
+      </c>
+      <c r="D70" s="9">
         <v>10455408</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21">
+      <c r="E70" s="9">
+        <v>8423675</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>502</v>
+      </c>
+      <c r="D71" s="9">
         <v>21241589</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
+      <c r="E71" s="9">
+        <v>31772937</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>503</v>
+      </c>
+      <c r="D72" s="9">
         <v>19051005</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23">
+      <c r="E72" s="9">
+        <v>28464583</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>504</v>
+      </c>
+      <c r="D73" s="9">
         <v>177638</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+      <c r="E73" s="9">
+        <v>173170</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>505</v>
+      </c>
+      <c r="D74" s="9">
         <v>14495413</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25">
-        <v>61128</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26">
-        <v>63474</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27">
-        <v>59515</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
-        <v>55855</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29">
-        <v>53630</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
-        <v>59998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31">
-        <v>59607</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
-        <v>62148</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33">
-        <v>51649</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34">
-        <v>61326</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35">
-        <v>62246</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36">
-        <v>67395</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37">
-        <v>298295</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38">
-        <v>1926557</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>357243</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40">
-        <v>2122520</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41">
-        <v>276111</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42">
-        <v>995284</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43">
-        <v>349268</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44">
-        <v>902645</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45">
-        <v>1644765</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46">
-        <v>336862</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47">
-        <v>215714</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48">
-        <v>2015480</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49">
-        <v>313487</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50">
-        <v>4408213</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51">
-        <v>324740</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52">
-        <v>4220600</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53">
-        <v>226059</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54">
-        <v>2114091</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55">
-        <v>380903</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56">
-        <v>2265211</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57">
-        <v>3633444</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58">
-        <v>333929</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59">
-        <v>195608</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60">
-        <v>3214494</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61">
-        <v>562973</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62">
-        <v>9954400</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63">
-        <v>446925</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64">
-        <v>9674521</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65">
-        <v>246281</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66">
-        <v>5646595</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-      <c r="B67">
-        <v>299911</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-      <c r="B68">
-        <v>7088673</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-      <c r="B69">
-        <v>7555401</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-      <c r="B70">
-        <v>336131</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-      <c r="B71">
-        <v>192268</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
-      <c r="B72">
-        <v>7063582</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73">
-        <v>72283</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" t="s">
-        <v>73</v>
-      </c>
-      <c r="B74">
-        <v>123814</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" t="s">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>360206</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>731999</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" t="s">
-        <v>76</v>
-      </c>
-      <c r="B77">
-        <v>276539</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" t="s">
-        <v>77</v>
-      </c>
-      <c r="B78">
-        <v>577751</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" t="s">
-        <v>78</v>
-      </c>
-      <c r="B79">
-        <v>202127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" t="s">
-        <v>79</v>
-      </c>
-      <c r="B80">
-        <v>442400</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" t="s">
-        <v>80</v>
-      </c>
-      <c r="B81">
-        <v>630158</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" t="s">
-        <v>81</v>
-      </c>
-      <c r="B82">
-        <v>64904</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" t="s">
-        <v>82</v>
-      </c>
-      <c r="B83">
-        <v>209805</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84">
-        <v>587188</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85">
-        <v>27401988</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86">
-        <v>38174838</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" t="s">
-        <v>86</v>
-      </c>
-      <c r="B87">
-        <v>394900</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88">
-        <v>37142411</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" t="s">
-        <v>88</v>
-      </c>
-      <c r="B89">
-        <v>246396</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" t="s">
-        <v>89</v>
-      </c>
-      <c r="B90">
-        <v>21984674</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" t="s">
-        <v>90</v>
-      </c>
-      <c r="B91">
-        <v>477718</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" t="s">
-        <v>91</v>
-      </c>
-      <c r="B92">
-        <v>8423675</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" t="s">
-        <v>92</v>
-      </c>
-      <c r="B93">
-        <v>31772937</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" t="s">
-        <v>93</v>
-      </c>
-      <c r="B94">
-        <v>28464583</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" t="s">
-        <v>94</v>
-      </c>
-      <c r="B95">
-        <v>173170</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" t="s">
-        <v>95</v>
-      </c>
-      <c r="B96">
+      <c r="E74" s="9">
         <v>25708445</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97" t="s">
-        <v>96</v>
-      </c>
-      <c r="B97">
-        <v>62412</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" t="s">
-        <v>97</v>
-      </c>
-      <c r="B98">
-        <v>66121</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" t="s">
-        <v>98</v>
-      </c>
-      <c r="B99">
-        <v>79310</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" t="s">
-        <v>99</v>
-      </c>
-      <c r="B100">
-        <v>68156</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" t="s">
-        <v>100</v>
-      </c>
-      <c r="B101">
-        <v>48472</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" t="s">
-        <v>101</v>
-      </c>
-      <c r="B102">
-        <v>63464</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
-      <c r="A103" t="s">
-        <v>102</v>
-      </c>
-      <c r="B103">
-        <v>65474</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104">
-        <v>65388</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" t="s">
-        <v>104</v>
-      </c>
-      <c r="B105">
-        <v>50048</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" t="s">
-        <v>105</v>
-      </c>
-      <c r="B106">
-        <v>60419</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
-      <c r="A107" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107">
-        <v>58004</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" t="s">
-        <v>107</v>
-      </c>
-      <c r="B108">
-        <v>58989</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109">
-        <v>82733</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" t="s">
-        <v>109</v>
-      </c>
-      <c r="B110">
-        <v>2218202</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" t="s">
-        <v>110</v>
-      </c>
-      <c r="B111">
-        <v>503653</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" t="s">
-        <v>111</v>
-      </c>
-      <c r="B112">
-        <v>2229902</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" t="s">
-        <v>112</v>
-      </c>
-      <c r="B113">
-        <v>256133</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" t="s">
-        <v>113</v>
-      </c>
-      <c r="B114">
-        <v>799581</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" t="s">
-        <v>114</v>
-      </c>
-      <c r="B115">
-        <v>279835</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" t="s">
-        <v>115</v>
-      </c>
-      <c r="B116">
-        <v>1103685</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" t="s">
-        <v>116</v>
-      </c>
-      <c r="B117">
-        <v>2177955</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" t="s">
-        <v>117</v>
-      </c>
-      <c r="B118">
-        <v>393489</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
-      <c r="A119" t="s">
-        <v>118</v>
-      </c>
-      <c r="B119">
-        <v>214134</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
-      <c r="A120" t="s">
-        <v>119</v>
-      </c>
-      <c r="B120">
-        <v>1957713</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" t="s">
-        <v>120</v>
-      </c>
-      <c r="B121">
-        <v>259395</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" t="s">
-        <v>121</v>
-      </c>
-      <c r="B122">
-        <v>5326249</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" t="s">
-        <v>122</v>
-      </c>
-      <c r="B123">
-        <v>333703</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" t="s">
-        <v>123</v>
-      </c>
-      <c r="B124">
-        <v>4788163</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" t="s">
-        <v>124</v>
-      </c>
-      <c r="B125">
-        <v>274131</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" t="s">
-        <v>125</v>
-      </c>
-      <c r="B126">
-        <v>2630581</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" t="s">
-        <v>126</v>
-      </c>
-      <c r="B127">
-        <v>388935</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
-      <c r="A128" t="s">
-        <v>127</v>
-      </c>
-      <c r="B128">
-        <v>3195875</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
-      <c r="A129" t="s">
-        <v>128</v>
-      </c>
-      <c r="B129">
-        <v>4579745</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
-      <c r="A130" t="s">
-        <v>129</v>
-      </c>
-      <c r="B130">
-        <v>314064</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
-      <c r="A131" t="s">
-        <v>130</v>
-      </c>
-      <c r="B131">
-        <v>171842</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" t="s">
-        <v>131</v>
-      </c>
-      <c r="B132">
-        <v>4417319</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" t="s">
-        <v>132</v>
-      </c>
-      <c r="B133">
-        <v>685462</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" t="s">
-        <v>133</v>
-      </c>
-      <c r="B134">
-        <v>14402033</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" t="s">
-        <v>134</v>
-      </c>
-      <c r="B135">
-        <v>369499</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" t="s">
-        <v>135</v>
-      </c>
-      <c r="B136">
-        <v>14147688</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" t="s">
-        <v>136</v>
-      </c>
-      <c r="B137">
-        <v>260596</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" t="s">
-        <v>137</v>
-      </c>
-      <c r="B138">
-        <v>9203006</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" t="s">
-        <v>138</v>
-      </c>
-      <c r="B139">
-        <v>382228</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" t="s">
-        <v>139</v>
-      </c>
-      <c r="B140">
-        <v>6825946</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" t="s">
-        <v>140</v>
-      </c>
-      <c r="B141">
-        <v>11626139</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
-      <c r="A142" t="s">
-        <v>141</v>
-      </c>
-      <c r="B142">
-        <v>1158885</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
-      <c r="A143" t="s">
-        <v>142</v>
-      </c>
-      <c r="B143">
-        <v>208623</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
-        <v>143</v>
-      </c>
-      <c r="B144">
-        <v>11561985</v>
-      </c>
-    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6067,739 +6274,1618 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A144"/>
+  <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:H1048576"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="2"/>
+    <col min="1" max="1" width="22.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="2">
+    <row r="1" spans="1:3">
+      <c r="A1" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C1" s="5"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="13">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2">
+      <c r="C2" s="13">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2">
+    <row r="3" spans="1:3">
+      <c r="A3" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B3" s="13">
+        <v>14</v>
+      </c>
+      <c r="C3" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="B4" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="2">
+      <c r="C4" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="B5" s="13">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2">
+      <c r="C5" s="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="B6" s="13">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="2">
+      <c r="C6" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B7" s="13">
         <v>7</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="2">
+      <c r="C7" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="13">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="2">
+      <c r="C8" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B9" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="2">
+      <c r="C9" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="B10" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="2">
+      <c r="C10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B11" s="13">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="2">
+      <c r="C11" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B12" s="13">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="2">
+      <c r="C12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B13" s="13">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="2">
+      <c r="C13" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B14" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="2">
+      <c r="C14" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="2">
+    <row r="15" spans="1:3">
+      <c r="A15" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B15" s="6">
+        <v>14</v>
+      </c>
+      <c r="C15" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B16" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="2">
+      <c r="C16" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="B17" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="2">
+      <c r="C17" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B18" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="2">
+      <c r="C18" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B19" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="2">
+      <c r="C19" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B20" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="2">
+      <c r="C20" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B21" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="2">
+      <c r="C21" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B22" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="2">
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B23" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="2">
+      <c r="C23" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="14" t="s">
+        <v>312</v>
+      </c>
+      <c r="B24" s="14">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="2">
+      <c r="C24" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B25" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="2">
+      <c r="C25" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B26" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="2">
+      <c r="C26" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="2">
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="B27" s="2">
+        <v>14</v>
+      </c>
+      <c r="C27" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B28" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="2">
+      <c r="C28" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="B29" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="2">
+      <c r="C29" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B30" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="2">
+      <c r="C30" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B31" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="2">
+      <c r="C31" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B32" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="2">
+      <c r="C32" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="B33" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="2">
+      <c r="C33" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="B34" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="2">
+      <c r="C34" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B35" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="2">
+      <c r="C35" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="B36" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="2">
+      <c r="C36" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="B37" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="2">
+      <c r="C37" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="B38" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="2">
+      <c r="C38" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="2">
+    <row r="39" spans="1:3">
+      <c r="A39" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="B39" s="6">
+        <v>14</v>
+      </c>
+      <c r="C39" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="B40" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="2">
+      <c r="C40" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="B41" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="2">
+      <c r="C41" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="B42" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="2">
+      <c r="C42" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="B43" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="2">
+      <c r="C43" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="B44" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="2">
+      <c r="C44" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="B45" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="2">
+      <c r="C45" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="B46" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="2">
+      <c r="C46" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="B47" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="2">
+      <c r="C47" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B48" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="2">
+      <c r="C48" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B49" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="2">
+      <c r="C49" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="B50" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="2">
+      <c r="C50" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="2">
+    <row r="51" spans="1:3">
+      <c r="A51" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B51" s="2">
+        <v>14</v>
+      </c>
+      <c r="C51" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B52" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="2">
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="B53" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="2">
+      <c r="C53" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="B54" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="2">
+      <c r="C54" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="B55" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="2">
+      <c r="C55" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B56" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="2">
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B57" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="2">
+      <c r="C57" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B58" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="2">
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="B59" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="2">
+      <c r="C59" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="B60" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="2">
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="B61" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="2">
+      <c r="C61" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="B62" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="2">
+      <c r="C62" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="2">
+    <row r="63" spans="1:3">
+      <c r="A63" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="B63" s="6">
+        <v>14</v>
+      </c>
+      <c r="C63" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B64" s="6">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="2">
+      <c r="C64" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="B65" s="6">
         <v>15</v>
       </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="2">
+      <c r="C65" s="6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="B66" s="6">
         <v>18</v>
       </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="2">
+      <c r="C66" s="6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="B67" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="2">
+      <c r="C67" s="6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="B68" s="6">
         <v>21</v>
       </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="2">
+      <c r="C68" s="6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="B69" s="6">
         <v>19</v>
       </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="2">
+      <c r="C69" s="6">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="B70" s="6">
         <v>28</v>
       </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="2">
+      <c r="C70" s="6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="B71" s="6">
         <v>24</v>
       </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="2">
+      <c r="C71" s="6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="B72" s="6">
         <v>43</v>
       </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="2">
+      <c r="C72" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="B73" s="6">
         <v>35</v>
       </c>
-    </row>
-    <row r="73" spans="1:1">
-      <c r="A73" s="2">
+      <c r="C73" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="B74" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="74" spans="1:1">
-      <c r="A74" s="2">
+      <c r="C74" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="2">
+    <row r="75" spans="1:3">
+      <c r="A75" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B75" s="2">
+        <v>14</v>
+      </c>
+      <c r="C75" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="B76" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:1">
-      <c r="A76" s="2">
+      <c r="C76" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B77" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:1">
-      <c r="A77" s="2">
+      <c r="C77" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B78" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:1">
-      <c r="A78" s="2">
+      <c r="C78" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B79" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:1">
-      <c r="A79" s="2">
+      <c r="C79" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="B80" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:1">
-      <c r="A80" s="2">
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="B81" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="81" spans="1:1">
-      <c r="A81" s="2">
+      <c r="C81" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B82" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:1">
-      <c r="A82" s="2">
+      <c r="C82" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B83" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="2">
+      <c r="C83" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B84" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="84" spans="1:1">
-      <c r="A84" s="2">
+      <c r="C84" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="B85" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="1:1">
-      <c r="A85" s="2">
+      <c r="C85" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B86" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="86" spans="1:1">
-      <c r="A86" s="2">
+      <c r="C86" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="87" spans="1:1">
-      <c r="A87" s="2">
+    <row r="87" spans="1:3">
+      <c r="A87" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="B87" s="6">
+        <v>14</v>
+      </c>
+      <c r="C87" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="B88" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:1">
-      <c r="A88" s="2">
+      <c r="C88" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="B89" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="89" spans="1:1">
-      <c r="A89" s="2">
+      <c r="C89" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="B90" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:1">
-      <c r="A90" s="2">
+      <c r="C90" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="B91" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="91" spans="1:1">
-      <c r="A91" s="2">
+      <c r="C91" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="B92" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="92" spans="1:1">
-      <c r="A92" s="2">
+      <c r="C92" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="B93" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="2">
+      <c r="C93" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="B94" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="94" spans="1:1">
-      <c r="A94" s="2">
+      <c r="C94" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="B95" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="2">
+      <c r="C95" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="B96" s="6">
         <v>1</v>
       </c>
-    </row>
-    <row r="96" spans="1:1">
-      <c r="A96" s="2">
+      <c r="C96" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="B97" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="97" spans="1:1">
-      <c r="A97" s="2">
+      <c r="C97" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B98" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="98" spans="1:1">
-      <c r="A98" s="2">
+      <c r="C98" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="99" spans="1:1">
-      <c r="A99" s="2">
+    <row r="99" spans="1:3">
+      <c r="A99" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="B99" s="2">
+        <v>14</v>
+      </c>
+      <c r="C99" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="B100" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="100" spans="1:1">
-      <c r="A100" s="2">
+      <c r="C100" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="B101" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="2">
+      <c r="C101" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" s="2">
+    <row r="102" spans="1:3">
+      <c r="A102" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B102" s="2">
+        <v>10</v>
+      </c>
+      <c r="C102" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B103" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="103" spans="1:1">
-      <c r="A103" s="2">
+      <c r="C103" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="B104" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="104" spans="1:1">
-      <c r="A104" s="2">
+      <c r="C104" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="B105" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="105" spans="1:1">
-      <c r="A105" s="2">
+      <c r="C105" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B106" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="106" spans="1:1">
-      <c r="A106" s="2">
+      <c r="C106" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="B107" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="107" spans="1:1">
-      <c r="A107" s="2">
+      <c r="C107" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B108" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="108" spans="1:1">
-      <c r="A108" s="2">
+      <c r="C108" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="B109" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="109" spans="1:1">
-      <c r="A109" s="2">
+      <c r="C109" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="B110" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="110" spans="1:1">
-      <c r="A110" s="2">
+      <c r="C110" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:1">
-      <c r="A111" s="2">
+    <row r="111" spans="1:3">
+      <c r="A111" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="B111" s="6">
+        <v>14</v>
+      </c>
+      <c r="C111" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="B112" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="2">
+      <c r="C112" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="B113" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="2">
+      <c r="C113" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="B114" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="2">
+      <c r="C114" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="B115" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="2">
+      <c r="C115" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B116" s="6">
         <v>2</v>
       </c>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="2">
+      <c r="C116" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="B117" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="2">
+      <c r="C117" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="B118" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="2">
+      <c r="C118" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B119" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="2">
+      <c r="C119" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="B120" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="2">
+      <c r="C120" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="B121" s="6">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="2">
+      <c r="C121" s="6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B122" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="2">
+      <c r="C122" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="123" spans="1:1">
-      <c r="A123" s="2">
+    <row r="123" spans="1:3">
+      <c r="A123" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="B123" s="2">
+        <v>14</v>
+      </c>
+      <c r="C123" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="B124" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="124" spans="1:1">
-      <c r="A124" s="2">
+      <c r="C124" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B125" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="125" spans="1:1">
-      <c r="A125" s="2">
+      <c r="C125" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B126" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="126" spans="1:1">
-      <c r="A126" s="2">
+      <c r="C126" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B127" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="127" spans="1:1">
-      <c r="A127" s="2">
+      <c r="C127" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B128" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="128" spans="1:1">
-      <c r="A128" s="2">
+      <c r="C128" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B129" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="129" spans="1:1">
-      <c r="A129" s="2">
+      <c r="C129" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="B130" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="130" spans="1:1">
-      <c r="A130" s="2">
+      <c r="C130" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="B131" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="131" spans="1:1">
-      <c r="A131" s="2">
+      <c r="C131" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="B132" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="132" spans="1:1">
-      <c r="A132" s="2">
+      <c r="C132" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="B133" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="133" spans="1:1">
-      <c r="A133" s="2">
+      <c r="C133" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="B134" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="134" spans="1:1">
-      <c r="A134" s="2">
+      <c r="C134" s="6">
         <v>14</v>
       </c>
     </row>
-    <row r="135" spans="1:1">
-      <c r="A135" s="2">
+    <row r="135" spans="1:3">
+      <c r="A135" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="B135" s="6">
+        <v>14</v>
+      </c>
+      <c r="C135" s="6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="B136" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="136" spans="1:1">
-      <c r="A136" s="2">
+      <c r="C136" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="B137" s="6">
         <v>7</v>
       </c>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="2">
+      <c r="C137" s="6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="B138" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="138" spans="1:1">
-      <c r="A138" s="2">
+      <c r="C138" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="B139" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="1:1">
-      <c r="A139" s="2">
+      <c r="C139" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="B140" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="140" spans="1:1">
-      <c r="A140" s="2">
+      <c r="C140" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="B141" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="141" spans="1:1">
-      <c r="A141" s="2">
+      <c r="C141" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="B142" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="142" spans="1:1">
-      <c r="A142" s="2">
+      <c r="C142" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="15" t="s">
+        <v>431</v>
+      </c>
+      <c r="B143" s="6">
         <v>8</v>
       </c>
-    </row>
-    <row r="143" spans="1:1">
-      <c r="A143" s="2">
+      <c r="C143" s="6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="B144" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="144" spans="1:1">
-      <c r="A144" s="2">
+      <c r="C144" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="B145" s="6">
         <v>9</v>
       </c>
+      <c r="C145" s="6">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Data/HW_Counters.xlsx
+++ b/Data/HW_Counters.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="35500" yWindow="4020" windowWidth="27060" windowHeight="23800" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16280" windowHeight="14580" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PM_CMPLU_STALL_DCACHE_MISS" sheetId="1" r:id="rId1"/>
@@ -1570,6 +1570,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1638,8 +1639,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="59">
+  <cellStyleXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1707,9 +1710,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1718,18 +1718,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="59">
+  <cellStyles count="61">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1759,6 +1762,7 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1788,6 +1792,7 @@
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1919,11 +1924,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2141049320"/>
-        <c:axId val="2141056392"/>
+        <c:axId val="2082653592"/>
+        <c:axId val="2082650568"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141049320"/>
+        <c:axId val="2082653592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1932,7 +1937,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141056392"/>
+        <c:crossAx val="2082650568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1940,7 +1945,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141056392"/>
+        <c:axId val="2082650568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1951,7 +1956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141049320"/>
+        <c:crossAx val="2082653592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2097,11 +2102,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2139269096"/>
-        <c:axId val="2139259912"/>
+        <c:axId val="2082592552"/>
+        <c:axId val="2082589528"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2139269096"/>
+        <c:axId val="2082592552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2110,7 +2115,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139259912"/>
+        <c:crossAx val="2082589528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2118,7 +2123,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139259912"/>
+        <c:axId val="2082589528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2129,14 +2134,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139269096"/>
+        <c:crossAx val="2082592552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2275,11 +2279,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2141805352"/>
-        <c:axId val="2141808360"/>
+        <c:axId val="2082555080"/>
+        <c:axId val="2082552056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141805352"/>
+        <c:axId val="2082555080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2288,7 +2292,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141808360"/>
+        <c:crossAx val="2082552056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2296,7 +2300,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141808360"/>
+        <c:axId val="2082552056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2307,7 +2311,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141805352"/>
+        <c:crossAx val="2082555080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2453,11 +2457,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2141107864"/>
-        <c:axId val="2141110920"/>
+        <c:axId val="2082527160"/>
+        <c:axId val="2082524136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2141107864"/>
+        <c:axId val="2082527160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2466,7 +2470,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141110920"/>
+        <c:crossAx val="2082524136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2474,7 +2478,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2141110920"/>
+        <c:axId val="2082524136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2485,14 +2489,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141107864"/>
+        <c:crossAx val="2082527160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4138,46 +4141,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="3" width="29" customWidth="1"/>
     <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="20" style="9" customWidth="1"/>
+    <col min="5" max="5" width="20" style="8" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" customWidth="1"/>
     <col min="9" max="9" width="31.1640625" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" style="9" customWidth="1"/>
+    <col min="10" max="10" width="22.1640625" style="8" customWidth="1"/>
     <col min="11" max="11" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="14" t="s">
         <v>510</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="13" t="s">
         <v>509</v>
       </c>
-      <c r="E1" s="10"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>507</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>507</v>
       </c>
     </row>
@@ -4185,16 +4188,16 @@
       <c r="A3" t="s">
         <v>434</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="9">
         <v>14</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="9">
         <v>14</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="8">
         <v>61128</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="8">
         <v>62412</v>
       </c>
     </row>
@@ -4202,16 +4205,16 @@
       <c r="A4" t="s">
         <v>435</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="9">
         <v>14</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <v>14</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>63474</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="8">
         <v>66121</v>
       </c>
     </row>
@@ -4219,16 +4222,16 @@
       <c r="A5" t="s">
         <v>436</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="9">
         <v>14</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>14</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>59515</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>79310</v>
       </c>
     </row>
@@ -4236,16 +4239,16 @@
       <c r="A6" t="s">
         <v>437</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="9">
         <v>14</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>14</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>55855</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="8">
         <v>68156</v>
       </c>
     </row>
@@ -4253,16 +4256,16 @@
       <c r="A7" t="s">
         <v>438</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="9">
         <v>14</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <v>14</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>53630</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="8">
         <v>48472</v>
       </c>
     </row>
@@ -4270,16 +4273,16 @@
       <c r="A8" t="s">
         <v>439</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="9">
         <v>14</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>14</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>59998</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="8">
         <v>63464</v>
       </c>
     </row>
@@ -4287,16 +4290,16 @@
       <c r="A9" t="s">
         <v>440</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="9">
         <v>14</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="9">
         <v>14</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="8">
         <v>59607</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="8">
         <v>65474</v>
       </c>
     </row>
@@ -4304,16 +4307,16 @@
       <c r="A10" t="s">
         <v>441</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="9">
         <v>14</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <v>14</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="8">
         <v>62148</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="8">
         <v>65388</v>
       </c>
     </row>
@@ -4321,16 +4324,16 @@
       <c r="A11" t="s">
         <v>442</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="9">
         <v>14</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <v>14</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>51649</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="8">
         <v>50048</v>
       </c>
     </row>
@@ -4338,16 +4341,16 @@
       <c r="A12" t="s">
         <v>443</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="9">
         <v>14</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="9">
         <v>14</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="8">
         <v>61326</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="8">
         <v>60419</v>
       </c>
     </row>
@@ -4355,16 +4358,16 @@
       <c r="A13" t="s">
         <v>444</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="9">
         <v>14</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="9">
         <v>14</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>62246</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="8">
         <v>58004</v>
       </c>
     </row>
@@ -4372,16 +4375,16 @@
       <c r="A14" t="s">
         <v>445</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="9">
         <v>14</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="9">
         <v>14</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="8">
         <v>67395</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="8">
         <v>58989</v>
       </c>
     </row>
@@ -4389,16 +4392,16 @@
       <c r="A15" t="s">
         <v>446</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="9">
         <v>8</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="9">
         <v>6</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="8">
         <v>73438</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="8">
         <v>72283</v>
       </c>
     </row>
@@ -4406,16 +4409,16 @@
       <c r="A16" t="s">
         <v>447</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="9">
         <v>6</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="9">
         <v>2</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="8">
         <v>275195</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="8">
         <v>123814</v>
       </c>
     </row>
@@ -4423,16 +4426,16 @@
       <c r="A17" t="s">
         <v>448</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="9">
         <v>11</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="9">
         <v>9</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="8">
         <v>357561</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="8">
         <v>360206</v>
       </c>
     </row>
@@ -4440,10 +4443,16 @@
       <c r="A18" t="s">
         <v>449</v>
       </c>
-      <c r="D18" s="9">
+      <c r="B18" s="9">
+        <v>6</v>
+      </c>
+      <c r="C18" s="9">
+        <v>1</v>
+      </c>
+      <c r="D18" s="8">
         <v>720564</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="8">
         <v>731999</v>
       </c>
     </row>
@@ -4457,10 +4466,10 @@
       <c r="C19">
         <v>16</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="8">
         <v>254503</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="8">
         <v>276539</v>
       </c>
     </row>
@@ -4468,10 +4477,16 @@
       <c r="A20" t="s">
         <v>451</v>
       </c>
-      <c r="D20" s="9">
+      <c r="B20" s="9">
+        <v>7</v>
+      </c>
+      <c r="C20" s="9">
+        <v>3</v>
+      </c>
+      <c r="D20" s="8">
         <v>544350</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="8">
         <v>577751</v>
       </c>
     </row>
@@ -4479,10 +4494,16 @@
       <c r="A21" t="s">
         <v>452</v>
       </c>
-      <c r="D21" s="9">
+      <c r="B21" s="9">
+        <v>7</v>
+      </c>
+      <c r="C21" s="9">
+        <v>3</v>
+      </c>
+      <c r="D21" s="8">
         <v>239470</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="8">
         <v>202127</v>
       </c>
     </row>
@@ -4490,10 +4511,16 @@
       <c r="A22" t="s">
         <v>453</v>
       </c>
-      <c r="D22" s="9">
+      <c r="B22" s="9">
+        <v>8</v>
+      </c>
+      <c r="C22" s="9">
+        <v>3</v>
+      </c>
+      <c r="D22" s="8">
         <v>508995</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="8">
         <v>442400</v>
       </c>
     </row>
@@ -4507,10 +4534,10 @@
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="8">
         <v>636575</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="8">
         <v>630158</v>
       </c>
     </row>
@@ -4524,10 +4551,10 @@
       <c r="C24">
         <v>6</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="8">
         <v>79736</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="8">
         <v>64904</v>
       </c>
     </row>
@@ -4535,10 +4562,16 @@
       <c r="A25" t="s">
         <v>456</v>
       </c>
-      <c r="D25" s="9">
+      <c r="B25">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" s="8">
         <v>202563</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="8">
         <v>209805</v>
       </c>
     </row>
@@ -4546,10 +4579,16 @@
       <c r="A26" t="s">
         <v>457</v>
       </c>
-      <c r="D26" s="9">
+      <c r="B26">
+        <v>6</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="8">
         <v>622723</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="8">
         <v>587188</v>
       </c>
     </row>
@@ -4557,10 +4596,16 @@
       <c r="A27" t="s">
         <v>458</v>
       </c>
-      <c r="D27" s="9">
+      <c r="B27">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27" s="8">
         <v>298295</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="8">
         <v>82733</v>
       </c>
     </row>
@@ -4568,10 +4613,16 @@
       <c r="A28" t="s">
         <v>459</v>
       </c>
-      <c r="D28" s="9">
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="8">
         <v>1926557</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="8">
         <v>2218202</v>
       </c>
     </row>
@@ -4579,10 +4630,16 @@
       <c r="A29" t="s">
         <v>460</v>
       </c>
-      <c r="D29" s="9">
+      <c r="B29">
+        <v>11</v>
+      </c>
+      <c r="C29">
+        <v>10</v>
+      </c>
+      <c r="D29" s="8">
         <v>357243</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="8">
         <v>503653</v>
       </c>
     </row>
@@ -4590,10 +4647,16 @@
       <c r="A30" t="s">
         <v>461</v>
       </c>
-      <c r="D30" s="9">
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="8">
         <v>2122520</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="8">
         <v>2229902</v>
       </c>
     </row>
@@ -4601,10 +4664,16 @@
       <c r="A31" t="s">
         <v>462</v>
       </c>
-      <c r="D31" s="9">
+      <c r="B31">
+        <v>17</v>
+      </c>
+      <c r="C31">
+        <v>18</v>
+      </c>
+      <c r="D31" s="8">
         <v>276111</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="8">
         <v>256133</v>
       </c>
     </row>
@@ -4612,10 +4681,16 @@
       <c r="A32" t="s">
         <v>463</v>
       </c>
-      <c r="D32" s="9">
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" s="8">
         <v>995284</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="8">
         <v>799581</v>
       </c>
     </row>
@@ -4623,10 +4698,16 @@
       <c r="A33" t="s">
         <v>464</v>
       </c>
-      <c r="D33" s="9">
+      <c r="B33">
+        <v>7</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" s="8">
         <v>349268</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="8">
         <v>279835</v>
       </c>
     </row>
@@ -4634,10 +4715,16 @@
       <c r="A34" t="s">
         <v>465</v>
       </c>
-      <c r="D34" s="9">
+      <c r="B34">
+        <v>7</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" s="8">
         <v>902645</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="8">
         <v>1103685</v>
       </c>
     </row>
@@ -4645,10 +4732,16 @@
       <c r="A35" t="s">
         <v>466</v>
       </c>
-      <c r="D35" s="9">
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" s="8">
         <v>1644765</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="8">
         <v>2177955</v>
       </c>
     </row>
@@ -4656,10 +4749,16 @@
       <c r="A36" t="s">
         <v>467</v>
       </c>
-      <c r="D36" s="9">
+      <c r="B36">
+        <v>7</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" s="8">
         <v>336862</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="8">
         <v>393489</v>
       </c>
     </row>
@@ -4667,10 +4766,16 @@
       <c r="A37" t="s">
         <v>468</v>
       </c>
-      <c r="D37" s="9">
+      <c r="B37">
+        <v>17</v>
+      </c>
+      <c r="C37">
+        <v>18</v>
+      </c>
+      <c r="D37" s="8">
         <v>215714</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="8">
         <v>214134</v>
       </c>
     </row>
@@ -4678,10 +4783,16 @@
       <c r="A38" t="s">
         <v>469</v>
       </c>
-      <c r="D38" s="9">
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" s="8">
         <v>2015480</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="8">
         <v>1957713</v>
       </c>
     </row>
@@ -4689,10 +4800,16 @@
       <c r="A39" t="s">
         <v>470</v>
       </c>
-      <c r="D39" s="9">
+      <c r="B39">
+        <v>6</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" s="8">
         <v>313487</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="8">
         <v>259395</v>
       </c>
     </row>
@@ -4700,10 +4817,16 @@
       <c r="A40" t="s">
         <v>471</v>
       </c>
-      <c r="D40" s="9">
+      <c r="B40">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" s="8">
         <v>4408213</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="8">
         <v>5326249</v>
       </c>
     </row>
@@ -4711,10 +4834,16 @@
       <c r="A41" t="s">
         <v>472</v>
       </c>
-      <c r="D41" s="9">
+      <c r="B41">
+        <v>13</v>
+      </c>
+      <c r="C41">
+        <v>12</v>
+      </c>
+      <c r="D41" s="8">
         <v>324740</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="8">
         <v>333703</v>
       </c>
     </row>
@@ -4722,10 +4851,16 @@
       <c r="A42" t="s">
         <v>473</v>
       </c>
-      <c r="D42" s="9">
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" s="8">
         <v>4220600</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="8">
         <v>4788163</v>
       </c>
     </row>
@@ -4733,10 +4868,16 @@
       <c r="A43" t="s">
         <v>474</v>
       </c>
-      <c r="D43" s="9">
+      <c r="B43">
+        <v>22</v>
+      </c>
+      <c r="C43">
+        <v>19</v>
+      </c>
+      <c r="D43" s="8">
         <v>226059</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="8">
         <v>274131</v>
       </c>
     </row>
@@ -4744,10 +4885,16 @@
       <c r="A44" t="s">
         <v>475</v>
       </c>
-      <c r="D44" s="9">
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>2</v>
+      </c>
+      <c r="D44" s="8">
         <v>2114091</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="8">
         <v>2630581</v>
       </c>
     </row>
@@ -4755,10 +4902,16 @@
       <c r="A45" t="s">
         <v>476</v>
       </c>
-      <c r="D45" s="9">
+      <c r="B45">
+        <v>6</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" s="8">
         <v>380903</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="8">
         <v>388935</v>
       </c>
     </row>
@@ -4766,10 +4919,16 @@
       <c r="A46" t="s">
         <v>477</v>
       </c>
-      <c r="D46" s="9">
+      <c r="B46">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" s="8">
         <v>2265211</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="8">
         <v>3195875</v>
       </c>
     </row>
@@ -4777,10 +4936,16 @@
       <c r="A47" t="s">
         <v>478</v>
       </c>
-      <c r="D47" s="9">
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" s="8">
         <v>3633444</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="8">
         <v>4579745</v>
       </c>
     </row>
@@ -4788,10 +4953,16 @@
       <c r="A48" t="s">
         <v>479</v>
       </c>
-      <c r="D48" s="9">
+      <c r="B48">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" s="8">
         <v>333929</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="8">
         <v>314064</v>
       </c>
     </row>
@@ -4799,10 +4970,16 @@
       <c r="A49" t="s">
         <v>480</v>
       </c>
-      <c r="D49" s="9">
+      <c r="B49">
+        <v>19</v>
+      </c>
+      <c r="C49">
+        <v>21</v>
+      </c>
+      <c r="D49" s="8">
         <v>195608</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="8">
         <v>171842</v>
       </c>
     </row>
@@ -4810,10 +4987,16 @@
       <c r="A50" t="s">
         <v>481</v>
       </c>
-      <c r="D50" s="9">
+      <c r="B50">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" s="8">
         <v>3214494</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="8">
         <v>4417319</v>
       </c>
     </row>
@@ -4821,10 +5004,16 @@
       <c r="A51" t="s">
         <v>482</v>
       </c>
-      <c r="D51" s="9">
+      <c r="B51">
+        <v>6</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" s="8">
         <v>562973</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="8">
         <v>685462</v>
       </c>
     </row>
@@ -4832,10 +5021,16 @@
       <c r="A52" t="s">
         <v>483</v>
       </c>
-      <c r="D52" s="9">
+      <c r="B52">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" s="8">
         <v>9954400</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="8">
         <v>14402033</v>
       </c>
     </row>
@@ -4843,10 +5038,16 @@
       <c r="A53" t="s">
         <v>484</v>
       </c>
-      <c r="D53" s="9">
+      <c r="B53">
+        <v>16</v>
+      </c>
+      <c r="C53">
+        <v>17</v>
+      </c>
+      <c r="D53" s="8">
         <v>446925</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="8">
         <v>369499</v>
       </c>
     </row>
@@ -4854,10 +5055,16 @@
       <c r="A54" t="s">
         <v>485</v>
       </c>
-      <c r="D54" s="9">
+      <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" s="8">
         <v>9674521</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="8">
         <v>14147688</v>
       </c>
     </row>
@@ -4865,10 +5072,16 @@
       <c r="A55" t="s">
         <v>486</v>
       </c>
-      <c r="D55" s="9">
+      <c r="B55">
+        <v>24</v>
+      </c>
+      <c r="C55">
+        <v>28</v>
+      </c>
+      <c r="D55" s="8">
         <v>246281</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="8">
         <v>260596</v>
       </c>
     </row>
@@ -4876,10 +5089,16 @@
       <c r="A56" t="s">
         <v>487</v>
       </c>
-      <c r="D56" s="9">
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" s="8">
         <v>5646595</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="8">
         <v>9203006</v>
       </c>
     </row>
@@ -4887,10 +5106,16 @@
       <c r="A57" t="s">
         <v>488</v>
       </c>
-      <c r="D57" s="9">
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57">
+        <v>3</v>
+      </c>
+      <c r="D57" s="8">
         <v>299911</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="8">
         <v>382228</v>
       </c>
     </row>
@@ -4898,10 +5123,16 @@
       <c r="A58" t="s">
         <v>489</v>
       </c>
-      <c r="D58" s="9">
+      <c r="B58">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>4</v>
+      </c>
+      <c r="D58" s="8">
         <v>7088673</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="8">
         <v>6825946</v>
       </c>
     </row>
@@ -4909,10 +5140,16 @@
       <c r="A59" t="s">
         <v>490</v>
       </c>
-      <c r="D59" s="9">
+      <c r="B59">
+        <v>5</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" s="8">
         <v>7555401</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="8">
         <v>11626139</v>
       </c>
     </row>
@@ -4920,10 +5157,16 @@
       <c r="A60" t="s">
         <v>491</v>
       </c>
-      <c r="D60" s="9">
+      <c r="B60">
+        <v>6</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" s="8">
         <v>336131</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="8">
         <v>1158885</v>
       </c>
     </row>
@@ -4931,10 +5174,16 @@
       <c r="A61" t="s">
         <v>492</v>
       </c>
-      <c r="D61" s="9">
+      <c r="B61">
+        <v>24</v>
+      </c>
+      <c r="C61">
+        <v>28</v>
+      </c>
+      <c r="D61" s="8">
         <v>192268</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="8">
         <v>208623</v>
       </c>
     </row>
@@ -4942,10 +5191,16 @@
       <c r="A62" t="s">
         <v>493</v>
       </c>
-      <c r="D62" s="9">
+      <c r="B62">
+        <v>5</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" s="8">
         <v>7063582</v>
       </c>
-      <c r="E62" s="9">
+      <c r="E62" s="8">
         <v>11561985</v>
       </c>
     </row>
@@ -4953,10 +5208,16 @@
       <c r="A63" t="s">
         <v>494</v>
       </c>
-      <c r="D63" s="9">
+      <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" s="8">
         <v>19813102</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="8">
         <v>27401988</v>
       </c>
     </row>
@@ -4964,10 +5225,16 @@
       <c r="A64" t="s">
         <v>495</v>
       </c>
-      <c r="D64" s="9">
+      <c r="B64">
+        <v>6</v>
+      </c>
+      <c r="C64">
+        <v>2</v>
+      </c>
+      <c r="D64" s="8">
         <v>26435902</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="8">
         <v>38174838</v>
       </c>
     </row>
@@ -4975,10 +5242,16 @@
       <c r="A65" t="s">
         <v>496</v>
       </c>
-      <c r="D65" s="9">
+      <c r="B65">
+        <v>22</v>
+      </c>
+      <c r="C65">
+        <v>25</v>
+      </c>
+      <c r="D65" s="8">
         <v>240510</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="8">
         <v>394900</v>
       </c>
     </row>
@@ -4986,10 +5259,16 @@
       <c r="A66" t="s">
         <v>497</v>
       </c>
-      <c r="D66" s="9">
+      <c r="B66">
+        <v>6</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" s="8">
         <v>26919822</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="8">
         <v>37142411</v>
       </c>
     </row>
@@ -4997,10 +5276,16 @@
       <c r="A67" t="s">
         <v>498</v>
       </c>
-      <c r="D67" s="9">
+      <c r="B67">
+        <v>35</v>
+      </c>
+      <c r="C67">
+        <v>43</v>
+      </c>
+      <c r="D67" s="8">
         <v>197093</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="8">
         <v>246396</v>
       </c>
     </row>
@@ -5008,10 +5293,16 @@
       <c r="A68" t="s">
         <v>499</v>
       </c>
-      <c r="D68" s="9">
+      <c r="B68">
+        <v>9</v>
+      </c>
+      <c r="C68">
+        <v>4</v>
+      </c>
+      <c r="D68" s="8">
         <v>11262138</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="8">
         <v>21984674</v>
       </c>
     </row>
@@ -5019,10 +5310,16 @@
       <c r="A69" t="s">
         <v>500</v>
       </c>
-      <c r="D69" s="9">
+      <c r="B69">
+        <v>9</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+      <c r="D69" s="8">
         <v>378270</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="8">
         <v>477718</v>
       </c>
     </row>
@@ -5030,10 +5327,16 @@
       <c r="A70" t="s">
         <v>501</v>
       </c>
-      <c r="D70" s="9">
+      <c r="B70">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>4</v>
+      </c>
+      <c r="D70" s="8">
         <v>10455408</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="8">
         <v>8423675</v>
       </c>
     </row>
@@ -5041,10 +5344,16 @@
       <c r="A71" t="s">
         <v>502</v>
       </c>
-      <c r="D71" s="9">
+      <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" s="8">
         <v>21241589</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="8">
         <v>31772937</v>
       </c>
     </row>
@@ -5052,10 +5361,16 @@
       <c r="A72" t="s">
         <v>503</v>
       </c>
-      <c r="D72" s="9">
+      <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72" s="8">
         <v>19051005</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="8">
         <v>28464583</v>
       </c>
     </row>
@@ -5063,10 +5378,16 @@
       <c r="A73" t="s">
         <v>504</v>
       </c>
-      <c r="D73" s="9">
+      <c r="B73">
+        <v>35</v>
+      </c>
+      <c r="C73">
+        <v>43</v>
+      </c>
+      <c r="D73" s="8">
         <v>177638</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="8">
         <v>173170</v>
       </c>
     </row>
@@ -5074,10 +5395,16 @@
       <c r="A74" t="s">
         <v>505</v>
       </c>
-      <c r="D74" s="9">
+      <c r="B74">
+        <v>6</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" s="8">
         <v>14495413</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="8">
         <v>25708445</v>
       </c>
     </row>
@@ -6276,8 +6603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C145"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView showRuler="0" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A136" sqref="A136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6291,272 +6618,272 @@
       <c r="A1" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="C1" s="5"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>290</v>
       </c>
-      <c r="B2" s="13">
+      <c r="B2" s="10">
         <v>14</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C2" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="B3" s="13">
+      <c r="B3" s="10">
         <v>14</v>
       </c>
-      <c r="C3" s="13">
+      <c r="C3" s="10">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="10">
         <v>6</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="10">
         <v>8</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="10">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="10">
         <v>4</v>
       </c>
-      <c r="C6" s="13">
+      <c r="C6" s="10">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="10">
         <v>7</v>
       </c>
-      <c r="C7" s="13">
+      <c r="C7" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="10">
         <v>2</v>
       </c>
-      <c r="C8" s="13">
+      <c r="C8" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="10">
         <v>6</v>
       </c>
-      <c r="C9" s="13">
+      <c r="C9" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="10">
         <v>1</v>
       </c>
-      <c r="C10" s="13">
+      <c r="C10" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="10">
         <v>6</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="10">
         <v>1</v>
       </c>
-      <c r="C12" s="13">
+      <c r="C12" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="10">
         <v>5</v>
       </c>
-      <c r="C13" s="13">
+      <c r="C13" s="10">
         <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>14</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>14</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>1</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>6</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>1</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>5</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>1</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>5</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>1</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>5</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="11">
         <v>1</v>
       </c>
-      <c r="C24" s="14">
+      <c r="C24" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>5</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>6</v>
       </c>
     </row>
@@ -6693,134 +7020,134 @@
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="12" t="s">
         <v>326</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>14</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="12" t="s">
         <v>327</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>14</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="12" t="s">
         <v>328</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>6</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>8</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>3</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>7</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="15" t="s">
+      <c r="A44" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="B44" s="6">
+      <c r="B44" s="5">
         <v>2</v>
       </c>
-      <c r="C44" s="6">
+      <c r="C44" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="15" t="s">
+      <c r="A45" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="B45" s="6">
+      <c r="B45" s="5">
         <v>6</v>
       </c>
-      <c r="C45" s="6">
+      <c r="C45" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="15" t="s">
+      <c r="A46" s="12" t="s">
         <v>334</v>
       </c>
-      <c r="B46" s="6">
+      <c r="B46" s="5">
         <v>1</v>
       </c>
-      <c r="C46" s="6">
+      <c r="C46" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="12" t="s">
         <v>335</v>
       </c>
-      <c r="B47" s="6">
+      <c r="B47" s="5">
         <v>6</v>
       </c>
-      <c r="C47" s="6">
+      <c r="C47" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="15" t="s">
+      <c r="A48" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="B48" s="6">
+      <c r="B48" s="5">
         <v>1</v>
       </c>
-      <c r="C48" s="6">
+      <c r="C48" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="15" t="s">
+      <c r="A49" s="12" t="s">
         <v>337</v>
       </c>
-      <c r="B49" s="6">
+      <c r="B49" s="5">
         <v>6</v>
       </c>
-      <c r="C49" s="6">
+      <c r="C49" s="5">
         <v>6</v>
       </c>
     </row>
@@ -6957,134 +7284,134 @@
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="15" t="s">
+      <c r="A62" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="B62" s="6">
+      <c r="B62" s="5">
         <v>14</v>
       </c>
-      <c r="C62" s="6">
+      <c r="C62" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="15" t="s">
+      <c r="A63" s="12" t="s">
         <v>351</v>
       </c>
-      <c r="B63" s="6">
+      <c r="B63" s="5">
         <v>14</v>
       </c>
-      <c r="C63" s="6">
+      <c r="C63" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="15" t="s">
+      <c r="A64" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="B64" s="6">
+      <c r="B64" s="5">
         <v>16</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C64" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="15" t="s">
+      <c r="A65" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="B65" s="6">
+      <c r="B65" s="5">
         <v>15</v>
       </c>
-      <c r="C65" s="6">
+      <c r="C65" s="5">
         <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="15" t="s">
+      <c r="A66" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="B66" s="6">
+      <c r="B66" s="5">
         <v>18</v>
       </c>
-      <c r="C66" s="6">
+      <c r="C66" s="5">
         <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="15" t="s">
+      <c r="A67" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="B67" s="6">
+      <c r="B67" s="5">
         <v>17</v>
       </c>
-      <c r="C67" s="6">
+      <c r="C67" s="5">
         <v>17</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="15" t="s">
+      <c r="A68" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="B68" s="6">
+      <c r="B68" s="5">
         <v>21</v>
       </c>
-      <c r="C68" s="6">
+      <c r="C68" s="5">
         <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="15" t="s">
+      <c r="A69" s="12" t="s">
         <v>357</v>
       </c>
-      <c r="B69" s="6">
+      <c r="B69" s="5">
         <v>19</v>
       </c>
-      <c r="C69" s="6">
+      <c r="C69" s="5">
         <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="15" t="s">
+      <c r="A70" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="B70" s="6">
+      <c r="B70" s="5">
         <v>28</v>
       </c>
-      <c r="C70" s="6">
+      <c r="C70" s="5">
         <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="15" t="s">
+      <c r="A71" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="B71" s="6">
+      <c r="B71" s="5">
         <v>24</v>
       </c>
-      <c r="C71" s="6">
+      <c r="C71" s="5">
         <v>25</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="15" t="s">
+      <c r="A72" s="12" t="s">
         <v>360</v>
       </c>
-      <c r="B72" s="6">
+      <c r="B72" s="5">
         <v>43</v>
       </c>
-      <c r="C72" s="6">
+      <c r="C72" s="5">
         <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="15" t="s">
+      <c r="A73" s="12" t="s">
         <v>361</v>
       </c>
-      <c r="B73" s="6">
+      <c r="B73" s="5">
         <v>35</v>
       </c>
-      <c r="C73" s="6">
+      <c r="C73" s="5">
         <v>35</v>
       </c>
     </row>
@@ -7221,134 +7548,134 @@
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="15" t="s">
+      <c r="A86" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="B86" s="6">
+      <c r="B86" s="5">
         <v>14</v>
       </c>
-      <c r="C86" s="6">
+      <c r="C86" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="15" t="s">
+      <c r="A87" s="12" t="s">
         <v>375</v>
       </c>
-      <c r="B87" s="6">
+      <c r="B87" s="5">
         <v>14</v>
       </c>
-      <c r="C87" s="6">
+      <c r="C87" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="15" t="s">
+      <c r="A88" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="B88" s="6">
+      <c r="B88" s="5">
         <v>1</v>
       </c>
-      <c r="C88" s="6">
+      <c r="C88" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="15" t="s">
+      <c r="A89" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="B89" s="6">
+      <c r="B89" s="5">
         <v>6</v>
       </c>
-      <c r="C89" s="6">
+      <c r="C89" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="15" t="s">
+      <c r="A90" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="B90" s="6">
+      <c r="B90" s="5">
         <v>1</v>
       </c>
-      <c r="C90" s="6">
+      <c r="C90" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="15" t="s">
+      <c r="A91" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="B91" s="6">
+      <c r="B91" s="5">
         <v>5</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C91" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="15" t="s">
+      <c r="A92" s="12" t="s">
         <v>380</v>
       </c>
-      <c r="B92" s="6">
+      <c r="B92" s="5">
         <v>1</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C92" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="15" t="s">
+      <c r="A93" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="B93" s="6">
+      <c r="B93" s="5">
         <v>5</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C93" s="5">
         <v>5</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="15" t="s">
+      <c r="A94" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="B94" s="6">
+      <c r="B94" s="5">
         <v>1</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C94" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="15" t="s">
+      <c r="A95" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="B95" s="6">
+      <c r="B95" s="5">
         <v>6</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C95" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96" s="15" t="s">
+      <c r="A96" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="B96" s="6">
+      <c r="B96" s="5">
         <v>1</v>
       </c>
-      <c r="C96" s="6">
+      <c r="C96" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="15" t="s">
+      <c r="A97" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="B97" s="6">
+      <c r="B97" s="5">
         <v>6</v>
       </c>
-      <c r="C97" s="6">
+      <c r="C97" s="5">
         <v>6</v>
       </c>
     </row>
@@ -7485,134 +7812,134 @@
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="15" t="s">
+      <c r="A110" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="B110" s="6">
+      <c r="B110" s="5">
         <v>14</v>
       </c>
-      <c r="C110" s="6">
+      <c r="C110" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="15" t="s">
+      <c r="A111" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="B111" s="6">
+      <c r="B111" s="5">
         <v>14</v>
       </c>
-      <c r="C111" s="6">
+      <c r="C111" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="15" t="s">
+      <c r="A112" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="B112" s="6">
+      <c r="B112" s="5">
         <v>3</v>
       </c>
-      <c r="C112" s="6">
+      <c r="C112" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="15" t="s">
+      <c r="A113" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="B113" s="6">
+      <c r="B113" s="5">
         <v>7</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C113" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="15" t="s">
+      <c r="A114" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="B114" s="6">
+      <c r="B114" s="5">
         <v>3</v>
       </c>
-      <c r="C114" s="6">
+      <c r="C114" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="15" t="s">
+      <c r="A115" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="B115" s="6">
+      <c r="B115" s="5">
         <v>7</v>
       </c>
-      <c r="C115" s="6">
+      <c r="C115" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="116" spans="1:3">
-      <c r="A116" s="15" t="s">
+      <c r="A116" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="B116" s="6">
+      <c r="B116" s="5">
         <v>2</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C116" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="15" t="s">
+      <c r="A117" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="B117" s="6">
+      <c r="B117" s="5">
         <v>7</v>
       </c>
-      <c r="C117" s="6">
+      <c r="C117" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="15" t="s">
+      <c r="A118" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="B118" s="6">
+      <c r="B118" s="5">
         <v>3</v>
       </c>
-      <c r="C118" s="6">
+      <c r="C118" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="15" t="s">
+      <c r="A119" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="B119" s="6">
+      <c r="B119" s="5">
         <v>8</v>
       </c>
-      <c r="C119" s="6">
+      <c r="C119" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="15" t="s">
+      <c r="A120" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="B120" s="6">
+      <c r="B120" s="5">
         <v>4</v>
       </c>
-      <c r="C120" s="6">
+      <c r="C120" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="15" t="s">
+      <c r="A121" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="B121" s="6">
+      <c r="B121" s="5">
         <v>10</v>
       </c>
-      <c r="C121" s="6">
+      <c r="C121" s="5">
         <v>9</v>
       </c>
     </row>
@@ -7749,134 +8076,134 @@
       </c>
     </row>
     <row r="134" spans="1:3">
-      <c r="A134" s="15" t="s">
+      <c r="A134" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="B134" s="6">
+      <c r="B134" s="5">
         <v>14</v>
       </c>
-      <c r="C134" s="6">
+      <c r="C134" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="15" t="s">
+      <c r="A135" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="B135" s="6">
+      <c r="B135" s="5">
         <v>14</v>
       </c>
-      <c r="C135" s="6">
+      <c r="C135" s="5">
         <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="15" t="s">
+      <c r="A136" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="B136" s="6">
+      <c r="B136" s="5">
         <v>3</v>
       </c>
-      <c r="C136" s="6">
+      <c r="C136" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="15" t="s">
+      <c r="A137" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="B137" s="6">
+      <c r="B137" s="5">
         <v>7</v>
       </c>
-      <c r="C137" s="6">
+      <c r="C137" s="5">
         <v>10</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="15" t="s">
+      <c r="A138" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="B138" s="6">
+      <c r="B138" s="5">
         <v>3</v>
       </c>
-      <c r="C138" s="6">
+      <c r="C138" s="5">
         <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="15" t="s">
+      <c r="A139" s="12" t="s">
         <v>427</v>
       </c>
-      <c r="B139" s="6">
+      <c r="B139" s="5">
         <v>6</v>
       </c>
-      <c r="C139" s="6">
+      <c r="C139" s="5">
         <v>7</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="15" t="s">
+      <c r="A140" s="12" t="s">
         <v>428</v>
       </c>
-      <c r="B140" s="6">
+      <c r="B140" s="5">
         <v>3</v>
       </c>
-      <c r="C140" s="6">
+      <c r="C140" s="5">
         <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="15" t="s">
+      <c r="A141" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="B141" s="6">
+      <c r="B141" s="5">
         <v>6</v>
       </c>
-      <c r="C141" s="6">
+      <c r="C141" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="15" t="s">
+      <c r="A142" s="12" t="s">
         <v>430</v>
       </c>
-      <c r="B142" s="6">
+      <c r="B142" s="5">
         <v>3</v>
       </c>
-      <c r="C142" s="6">
+      <c r="C142" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:3">
-      <c r="A143" s="15" t="s">
+      <c r="A143" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="B143" s="6">
+      <c r="B143" s="5">
         <v>8</v>
       </c>
-      <c r="C143" s="6">
+      <c r="C143" s="5">
         <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="15" t="s">
+      <c r="A144" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="B144" s="6">
+      <c r="B144" s="5">
         <v>5</v>
       </c>
-      <c r="C144" s="6">
+      <c r="C144" s="5">
         <v>6</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="15" t="s">
+      <c r="A145" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="B145" s="6">
+      <c r="B145" s="5">
         <v>9</v>
       </c>
-      <c r="C145" s="6">
+      <c r="C145" s="5">
         <v>9</v>
       </c>
     </row>

--- a/Data/HW_Counters.xlsx
+++ b/Data/HW_Counters.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16280" windowHeight="14580" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="33340" yWindow="1540" windowWidth="46300" windowHeight="24500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PM_CMPLU_STALL_DCACHE_MISS" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="534">
   <si>
     <t xml:space="preserve">j-A_10th_close.txt:	</t>
   </si>
@@ -1555,6 +1555,75 @@
   </si>
   <si>
     <t>Timing</t>
+  </si>
+  <si>
+    <t>NUMBER OF THREADS</t>
+  </si>
+  <si>
+    <t>CONFIGURATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cores_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cores_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cores_spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sockets_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sockets_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sockets_spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spread	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">threads_close	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">threads_master	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">threads_spread	</t>
+  </si>
+  <si>
+    <t>threads = 10</t>
+  </si>
+  <si>
+    <t>threads = 20</t>
+  </si>
+  <si>
+    <t>threads = 40</t>
+  </si>
+  <si>
+    <t>threads = 80</t>
+  </si>
+  <si>
+    <t>threads = 160</t>
+  </si>
+  <si>
+    <t>JACOBI-NO AFFINITY</t>
+  </si>
+  <si>
+    <t>JACOBI-AFFINITY</t>
+  </si>
+  <si>
+    <t>AFFINITY = No</t>
+  </si>
+  <si>
+    <t>AFFINITY = Yes</t>
   </si>
 </sst>
 </file>
@@ -1570,7 +1639,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1639,7 +1707,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="61">
+  <cellStyleXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1701,8 +1769,88 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1728,11 +1876,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="61">
+  <cellStyles count="141">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1763,6 +1923,46 @@
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1793,6 +1993,46 @@
     <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1924,11 +2164,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2082653592"/>
-        <c:axId val="2082650568"/>
+        <c:axId val="2139925720"/>
+        <c:axId val="-2141806440"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2082653592"/>
+        <c:axId val="2139925720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1937,7 +2177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082650568"/>
+        <c:crossAx val="-2141806440"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1945,7 +2185,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082650568"/>
+        <c:axId val="-2141806440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,7 +2196,343 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082653592"/>
+        <c:crossAx val="2139925720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>40 OpenMP Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$D$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$C$42:$C$53</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$D$42:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$E$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = Yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$C$42:$C$53</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$E$42:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2037487576"/>
+        <c:axId val="-2037484600"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2037487576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2037484600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2037484600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time iin</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2037487576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1964,6 +2540,1029 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>80 OpenMP Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$C$55:$C$66</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$D$55:$D$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$E$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = Yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$C$55:$C$66</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$E$55:$E$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2141261928"/>
+        <c:axId val="-2142105080"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2141261928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2142105080"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2142105080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2141261928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>160 OpenMP Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$D$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$C$68:$C$79</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$D$68:$D$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$E$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = Yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$C$68:$C$79</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$E$68:$E$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2034887976"/>
+        <c:axId val="-2141961432"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2034887976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2141961432"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2141961432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2034887976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$A$1:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>j-A_10th_close.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>j-A_10th_cores_close.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>j-A_10th_cores_master.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>j-A_10th_cores_spread.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>j-A_10th_master.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>j-A_10th_sockets_close.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>j-A_10th_sockets_master.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>j-A_10th_sockets_spread.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>j-A_10th_spread.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>j-A_10th_threads_close.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>j-A_10th_threads_master.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>j-A_10th_threads_spread.txt:	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$B$1:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>821254.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.754533E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.283705E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.998507E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>838880.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.431994E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>918526.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.393456E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.779083E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>769176.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>795950.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.528247E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2137499512"/>
+        <c:axId val="-2137496536"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2137499512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2137496536"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2137496536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2137499512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$A$73:$A$84</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>j-O_10th_close.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>j-O_10th_cores_close.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>j-O_10th_cores_master.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>j-O_10th_cores_spread.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>j-O_10th_master.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>j-O_10th_sockets_close.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>j-O_10th_sockets_master.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>j-O_10th_sockets_spread.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>j-O_10th_spread.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>j-O_10th_threads_close.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>j-O_10th_threads_master.txt:	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>j-O_10th_threads_spread.txt:	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$B$73:$B$84</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>972990.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.395466E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.969554E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.704222E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>794295.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.43055E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>386462.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.252018E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.099532E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>669955.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>794069.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.818235E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2137471496"/>
+        <c:axId val="-2137630616"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2137471496"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2137630616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2137630616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2137471496"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2102,11 +3701,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2082592552"/>
-        <c:axId val="2082589528"/>
+        <c:axId val="-2141661608"/>
+        <c:axId val="-2141714680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2082592552"/>
+        <c:axId val="-2141661608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2115,7 +3714,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082589528"/>
+        <c:crossAx val="-2141714680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2123,7 +3722,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082589528"/>
+        <c:axId val="-2141714680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2134,7 +3733,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082592552"/>
+        <c:crossAx val="-2141661608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2169,106 +3768,255 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>10 OpenMP Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="32"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$L$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$A$1:$A$12</c:f>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$K$46:$K$57</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>j-A_10th_close.txt:	</c:v>
+                  <c:v>close	</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>j-A_10th_cores_close.txt:	</c:v>
+                  <c:v>cores_close	</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>j-A_10th_cores_master.txt:	</c:v>
+                  <c:v>cores_master	</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>j-A_10th_cores_spread.txt:	</c:v>
+                  <c:v>cores_spread	</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>j-A_10th_master.txt:	</c:v>
+                  <c:v>master	</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>j-A_10th_sockets_close.txt:	</c:v>
+                  <c:v>sockets_close	</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>j-A_10th_sockets_master.txt:	</c:v>
+                  <c:v>sockets_master	</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>j-A_10th_sockets_spread.txt:	</c:v>
+                  <c:v>sockets_spread	</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>j-A_10th_spread.txt:	</c:v>
+                  <c:v>spread	</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>j-A_10th_threads_close.txt:	</c:v>
+                  <c:v>threads_close	</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>j-A_10th_threads_master.txt:	</c:v>
+                  <c:v>threads_master	</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>j-A_10th_threads_spread.txt:	</c:v>
+                  <c:v>threads_spread	</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$B$1:$B$12</c:f>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$L$46:$L$57</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>821254.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.754533E6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.283705E6</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.998507E6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>838880.0</c:v>
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.431994E6</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>918526.0</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.393456E6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.779083E6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>769176.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>795950.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.528247E6</c:v>
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>6.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$M$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = Yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$K$46:$K$57</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$M$46:$M$57</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2278,21 +4026,21 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="2082555080"/>
-        <c:axId val="2082552056"/>
-      </c:barChart>
+        <c:axId val="-2142462648"/>
+        <c:axId val="-2075965592"/>
+        <c:axId val="-2143277832"/>
+      </c:line3DChart>
       <c:catAx>
-        <c:axId val="2082555080"/>
+        <c:axId val="-2142462648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082552056"/>
+        <c:crossAx val="-2075965592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2300,21 +4048,53 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082552056"/>
+        <c:axId val="-2075965592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2142462648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="-2143277832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082555080"/>
+        <c:crossAx val="-2075965592"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+      </c:serAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
@@ -2347,6 +4127,1471 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>20 OpenMP Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="32"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$C$29:$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$D$29:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = Yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$C$29:$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$E$29:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2138081480"/>
+        <c:axId val="-2076446024"/>
+        <c:axId val="-2138828328"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="-2138081480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2076446024"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2076446024"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2138081480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="-2138828328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2076446024"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>40 OpenMP Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="32"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$D$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$C$42:$C$53</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$D$42:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$E$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = Yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$C$42:$C$53</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$E$42:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2146160888"/>
+        <c:axId val="-2142394968"/>
+        <c:axId val="-2078363816"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="-2146160888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2142394968"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2142394968"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time iin</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2146160888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="-2078363816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2142394968"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>80 OpenMP Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="32"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$D$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$C$55:$C$66</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$D$55:$D$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$E$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = Yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$C$55:$C$66</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$E$55:$E$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2073320056"/>
+        <c:axId val="-2075275240"/>
+        <c:axId val="-2073344792"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="-2073320056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2075275240"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2075275240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2073320056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="-2073344792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2075275240"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>160 OpenMP Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="32"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:line3DChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$D$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$C$68:$C$79</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$D$68:$D$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$E$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = Yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$C$68:$C$79</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$E$68:$E$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2141651944"/>
+        <c:axId val="-2139190216"/>
+        <c:axId val="-2141720952"/>
+      </c:line3DChart>
+      <c:catAx>
+        <c:axId val="-2141651944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2139190216"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2139190216"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2141651944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="-2141720952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2139190216"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>10 OpenMP Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -2357,92 +5602,208 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$L$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$A$73:$A$84</c:f>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$K$46:$K$57</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>j-O_10th_close.txt:	</c:v>
+                  <c:v>close	</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>j-O_10th_cores_close.txt:	</c:v>
+                  <c:v>cores_close	</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>j-O_10th_cores_master.txt:	</c:v>
+                  <c:v>cores_master	</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>j-O_10th_cores_spread.txt:	</c:v>
+                  <c:v>cores_spread	</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>j-O_10th_master.txt:	</c:v>
+                  <c:v>master	</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>j-O_10th_sockets_close.txt:	</c:v>
+                  <c:v>sockets_close	</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>j-O_10th_sockets_master.txt:	</c:v>
+                  <c:v>sockets_master	</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>j-O_10th_sockets_spread.txt:	</c:v>
+                  <c:v>sockets_spread	</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>j-O_10th_spread.txt:	</c:v>
+                  <c:v>spread	</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>j-O_10th_threads_close.txt:	</c:v>
+                  <c:v>threads_close	</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>j-O_10th_threads_master.txt:	</c:v>
+                  <c:v>threads_master	</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>j-O_10th_threads_spread.txt:	</c:v>
+                  <c:v>threads_spread	</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$B$73:$B$84</c:f>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$L$46:$L$57</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>972990.0</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.395466E6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.969554E6</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.704222E6</c:v>
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$M$45</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = Yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$K$46:$K$57</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>794295.0</c:v>
+                  <c:v>master	</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.43055E6</c:v>
+                  <c:v>sockets_close	</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>386462.0</c:v>
+                  <c:v>sockets_master	</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.252018E6</c:v>
+                  <c:v>sockets_spread	</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.099532E6</c:v>
+                  <c:v>spread	</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>669955.0</c:v>
+                  <c:v>threads_close	</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>794069.0</c:v>
+                  <c:v>threads_master	</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.818235E6</c:v>
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$M$46:$M$57</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="General">
+                  <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2457,20 +5818,20 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2082527160"/>
-        <c:axId val="2082524136"/>
+        <c:axId val="-2034750888"/>
+        <c:axId val="-2141499848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2082527160"/>
+        <c:axId val="-2034750888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082524136"/>
+        <c:crossAx val="-2141499848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2478,24 +5839,376 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2082524136"/>
+        <c:axId val="-2141499848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082527160"/>
+        <c:crossAx val="-2034750888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>20 OpenMP Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$C$29:$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$D$29:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = Yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$C$29:$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$E$29:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2142057720"/>
+        <c:axId val="-2141775400"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2142057720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2141775400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2141775400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time in seconds</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2142057720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2576,6 +6289,321 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>7469</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>17927</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>537882</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="Chart 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>39220</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>34365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>629770</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Chart 15"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>70970</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>617070</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123265</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>23905</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>110565</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>591670</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>47065</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>45570</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>97865</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>578970</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>40339</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>170327</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>570752</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>2987</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4139,1282 +8167,2357 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="B77" sqref="B77"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="17.1640625" customWidth="1"/>
-    <col min="5" max="5" width="20" style="8" customWidth="1"/>
-    <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="9" max="9" width="31.1640625" customWidth="1"/>
-    <col min="10" max="10" width="22.1640625" style="8" customWidth="1"/>
-    <col min="11" max="11" width="19.33203125" customWidth="1"/>
+    <col min="1" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20" style="8" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="31.1640625" customWidth="1"/>
+    <col min="12" max="12" width="22.1640625" style="8" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" customWidth="1"/>
+    <col min="14" max="14" width="23.1640625" customWidth="1"/>
+    <col min="15" max="15" width="21" customWidth="1"/>
+    <col min="16" max="16" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:16">
+      <c r="A1" s="14"/>
+      <c r="D1" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="E1" s="16"/>
+      <c r="F1" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="G1" s="15"/>
+      <c r="K1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
+      <c r="A2" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>510</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="13" t="s">
-        <v>509</v>
-      </c>
-      <c r="E1" s="13"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="F2" s="7" t="s">
         <v>506</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="7" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="K2" t="s">
+        <v>512</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>525</v>
+      </c>
+      <c r="M2" t="s">
+        <v>526</v>
+      </c>
+      <c r="N2" t="s">
+        <v>527</v>
+      </c>
+      <c r="O2" t="s">
+        <v>528</v>
+      </c>
+      <c r="P2" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="18">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>434</v>
       </c>
-      <c r="B3" s="9">
+      <c r="C3" t="s">
+        <v>513</v>
+      </c>
+      <c r="D3" s="9">
         <v>14</v>
       </c>
-      <c r="C3" s="9">
+      <c r="E3" s="9">
         <v>14</v>
       </c>
-      <c r="D3" s="8">
+      <c r="F3" s="8">
         <v>61128</v>
       </c>
-      <c r="E3" s="8">
+      <c r="G3" s="8">
         <v>62412</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+      <c r="K3" t="s">
+        <v>513</v>
+      </c>
+      <c r="L3" s="9">
+        <v>8</v>
+      </c>
+      <c r="M3">
+        <v>7</v>
+      </c>
+      <c r="N3">
+        <v>6</v>
+      </c>
+      <c r="O3">
+        <v>6</v>
+      </c>
+      <c r="P3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="18"/>
+      <c r="B4" t="s">
         <v>435</v>
       </c>
-      <c r="B4" s="9">
+      <c r="C4" t="s">
+        <v>514</v>
+      </c>
+      <c r="D4" s="9">
         <v>14</v>
       </c>
-      <c r="C4" s="9">
+      <c r="E4" s="9">
         <v>14</v>
       </c>
-      <c r="D4" s="8">
+      <c r="F4" s="8">
         <v>63474</v>
       </c>
-      <c r="E4" s="8">
+      <c r="G4" s="8">
         <v>66121</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="K4" t="s">
+        <v>514</v>
+      </c>
+      <c r="L4" s="9">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="18"/>
+      <c r="B5" t="s">
         <v>436</v>
       </c>
-      <c r="B5" s="9">
+      <c r="C5" t="s">
+        <v>515</v>
+      </c>
+      <c r="D5" s="9">
         <v>14</v>
       </c>
-      <c r="C5" s="9">
+      <c r="E5" s="9">
         <v>14</v>
       </c>
-      <c r="D5" s="8">
+      <c r="F5" s="8">
         <v>59515</v>
       </c>
-      <c r="E5" s="8">
+      <c r="G5" s="8">
         <v>79310</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="K5" t="s">
+        <v>515</v>
+      </c>
+      <c r="L5" s="9">
+        <v>11</v>
+      </c>
+      <c r="M5">
+        <v>11</v>
+      </c>
+      <c r="N5">
+        <v>13</v>
+      </c>
+      <c r="O5">
+        <v>16</v>
+      </c>
+      <c r="P5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="18"/>
+      <c r="B6" t="s">
         <v>437</v>
       </c>
-      <c r="B6" s="9">
+      <c r="C6" t="s">
+        <v>516</v>
+      </c>
+      <c r="D6" s="9">
         <v>14</v>
       </c>
-      <c r="C6" s="9">
+      <c r="E6" s="9">
         <v>14</v>
       </c>
-      <c r="D6" s="8">
+      <c r="F6" s="8">
         <v>55855</v>
       </c>
-      <c r="E6" s="8">
+      <c r="G6" s="8">
         <v>68156</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="K6" t="s">
+        <v>516</v>
+      </c>
+      <c r="L6" s="9">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+      <c r="N6">
+        <v>5</v>
+      </c>
+      <c r="O6">
+        <v>6</v>
+      </c>
+      <c r="P6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="18"/>
+      <c r="B7" t="s">
         <v>438</v>
       </c>
-      <c r="B7" s="9">
+      <c r="C7" t="s">
+        <v>517</v>
+      </c>
+      <c r="D7" s="9">
         <v>14</v>
       </c>
-      <c r="C7" s="9">
+      <c r="E7" s="9">
         <v>14</v>
       </c>
-      <c r="D7" s="8">
+      <c r="F7" s="8">
         <v>53630</v>
       </c>
-      <c r="E7" s="8">
+      <c r="G7" s="8">
         <v>48472</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="K7" t="s">
+        <v>517</v>
+      </c>
+      <c r="L7">
+        <v>15</v>
+      </c>
+      <c r="M7">
+        <v>17</v>
+      </c>
+      <c r="N7">
+        <v>22</v>
+      </c>
+      <c r="O7">
+        <v>24</v>
+      </c>
+      <c r="P7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="18"/>
+      <c r="B8" t="s">
         <v>439</v>
       </c>
-      <c r="B8" s="9">
+      <c r="C8" t="s">
+        <v>518</v>
+      </c>
+      <c r="D8" s="9">
         <v>14</v>
       </c>
-      <c r="C8" s="9">
+      <c r="E8" s="9">
         <v>14</v>
       </c>
-      <c r="D8" s="8">
+      <c r="F8" s="8">
         <v>59998</v>
       </c>
-      <c r="E8" s="8">
+      <c r="G8" s="8">
         <v>63464</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
+      <c r="K8" t="s">
+        <v>518</v>
+      </c>
+      <c r="L8" s="9">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>7</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="18"/>
+      <c r="B9" t="s">
         <v>440</v>
       </c>
-      <c r="B9" s="9">
+      <c r="C9" t="s">
+        <v>519</v>
+      </c>
+      <c r="D9" s="9">
         <v>14</v>
       </c>
-      <c r="C9" s="9">
+      <c r="E9" s="9">
         <v>14</v>
       </c>
-      <c r="D9" s="8">
+      <c r="F9" s="8">
         <v>59607</v>
       </c>
-      <c r="E9" s="8">
+      <c r="G9" s="8">
         <v>65474</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
+      <c r="K9" t="s">
+        <v>519</v>
+      </c>
+      <c r="L9" s="9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>7</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>8</v>
+      </c>
+      <c r="P9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="18"/>
+      <c r="B10" t="s">
         <v>441</v>
       </c>
-      <c r="B10" s="9">
+      <c r="C10" t="s">
+        <v>520</v>
+      </c>
+      <c r="D10" s="9">
         <v>14</v>
       </c>
-      <c r="C10" s="9">
+      <c r="E10" s="9">
         <v>14</v>
       </c>
-      <c r="D10" s="8">
+      <c r="F10" s="8">
         <v>62148</v>
       </c>
-      <c r="E10" s="8">
+      <c r="G10" s="8">
         <v>65388</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
+      <c r="K10" t="s">
+        <v>520</v>
+      </c>
+      <c r="L10" s="9">
+        <v>8</v>
+      </c>
+      <c r="M10">
+        <v>7</v>
+      </c>
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="18"/>
+      <c r="B11" t="s">
         <v>442</v>
       </c>
-      <c r="B11" s="9">
+      <c r="C11" t="s">
+        <v>521</v>
+      </c>
+      <c r="D11" s="9">
         <v>14</v>
       </c>
-      <c r="C11" s="9">
+      <c r="E11" s="9">
         <v>14</v>
       </c>
-      <c r="D11" s="8">
+      <c r="F11" s="8">
         <v>51649</v>
       </c>
-      <c r="E11" s="8">
+      <c r="G11" s="8">
         <v>50048</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
+      <c r="K11" t="s">
+        <v>521</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="18"/>
+      <c r="B12" t="s">
         <v>443</v>
       </c>
-      <c r="B12" s="9">
+      <c r="C12" t="s">
+        <v>522</v>
+      </c>
+      <c r="D12" s="9">
         <v>14</v>
       </c>
-      <c r="C12" s="9">
+      <c r="E12" s="9">
         <v>14</v>
       </c>
-      <c r="D12" s="8">
+      <c r="F12" s="8">
         <v>61326</v>
       </c>
-      <c r="E12" s="8">
+      <c r="G12" s="8">
         <v>60419</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
+      <c r="K12" t="s">
+        <v>522</v>
+      </c>
+      <c r="L12">
+        <v>8</v>
+      </c>
+      <c r="M12">
+        <v>7</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <v>6</v>
+      </c>
+      <c r="P12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="18"/>
+      <c r="B13" t="s">
         <v>444</v>
       </c>
-      <c r="B13" s="9">
+      <c r="C13" t="s">
+        <v>523</v>
+      </c>
+      <c r="D13" s="9">
         <v>14</v>
       </c>
-      <c r="C13" s="9">
+      <c r="E13" s="9">
         <v>14</v>
       </c>
-      <c r="D13" s="8">
+      <c r="F13" s="8">
         <v>62246</v>
       </c>
-      <c r="E13" s="8">
+      <c r="G13" s="8">
         <v>58004</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
+      <c r="K13" t="s">
+        <v>523</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13">
+        <v>17</v>
+      </c>
+      <c r="N13">
+        <v>19</v>
+      </c>
+      <c r="O13">
+        <v>24</v>
+      </c>
+      <c r="P13">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="18"/>
+      <c r="B14" t="s">
         <v>445</v>
       </c>
-      <c r="B14" s="9">
+      <c r="C14" t="s">
+        <v>524</v>
+      </c>
+      <c r="D14" s="9">
         <v>14</v>
       </c>
-      <c r="C14" s="9">
+      <c r="E14" s="9">
         <v>14</v>
       </c>
-      <c r="D14" s="8">
+      <c r="F14" s="8">
         <v>67395</v>
       </c>
-      <c r="E14" s="8">
+      <c r="G14" s="8">
         <v>58989</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
+      <c r="K14" t="s">
+        <v>524</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="19"/>
+      <c r="C15" t="s">
+        <v>512</v>
+      </c>
+      <c r="D15" t="s">
+        <v>532</v>
+      </c>
+      <c r="E15" t="s">
+        <v>533</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="L15"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="18">
+        <v>10</v>
+      </c>
+      <c r="B16" t="s">
         <v>446</v>
       </c>
-      <c r="B15" s="9">
+      <c r="C16" t="s">
+        <v>513</v>
+      </c>
+      <c r="D16" s="9">
         <v>8</v>
       </c>
-      <c r="C15" s="9">
+      <c r="E16" s="9">
         <v>6</v>
       </c>
-      <c r="D15" s="8">
+      <c r="F16" s="8">
         <v>73438</v>
       </c>
-      <c r="E15" s="8">
+      <c r="G16" s="8">
         <v>72283</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
+    <row r="17" spans="1:16">
+      <c r="A17" s="18"/>
+      <c r="B17" t="s">
         <v>447</v>
       </c>
-      <c r="B16" s="9">
+      <c r="C17" t="s">
+        <v>514</v>
+      </c>
+      <c r="D17" s="9">
         <v>6</v>
       </c>
-      <c r="C16" s="9">
+      <c r="E17" s="9">
         <v>2</v>
       </c>
-      <c r="D16" s="8">
+      <c r="F17" s="8">
         <v>275195</v>
       </c>
-      <c r="E16" s="8">
+      <c r="G17" s="8">
         <v>123814</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
+    <row r="18" spans="1:16">
+      <c r="A18" s="18"/>
+      <c r="B18" t="s">
         <v>448</v>
       </c>
-      <c r="B17" s="9">
+      <c r="C18" t="s">
+        <v>515</v>
+      </c>
+      <c r="D18" s="9">
         <v>11</v>
       </c>
-      <c r="C17" s="9">
+      <c r="E18" s="9">
         <v>9</v>
       </c>
-      <c r="D17" s="8">
+      <c r="F18" s="8">
         <v>357561</v>
       </c>
-      <c r="E17" s="8">
+      <c r="G18" s="8">
         <v>360206</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
+    <row r="19" spans="1:16">
+      <c r="A19" s="18"/>
+      <c r="B19" t="s">
         <v>449</v>
       </c>
-      <c r="B18" s="9">
+      <c r="C19" t="s">
+        <v>516</v>
+      </c>
+      <c r="D19" s="9">
         <v>6</v>
       </c>
-      <c r="C18" s="9">
+      <c r="E19" s="9">
         <v>1</v>
       </c>
-      <c r="D18" s="8">
+      <c r="F19" s="8">
         <v>720564</v>
       </c>
-      <c r="E18" s="8">
+      <c r="G19" s="8">
         <v>731999</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+    <row r="20" spans="1:16">
+      <c r="A20" s="18"/>
+      <c r="B20" t="s">
         <v>450</v>
       </c>
-      <c r="B19">
+      <c r="C20" t="s">
+        <v>517</v>
+      </c>
+      <c r="D20">
         <v>15</v>
       </c>
-      <c r="C19">
+      <c r="E20">
         <v>16</v>
       </c>
-      <c r="D19" s="8">
+      <c r="F20" s="8">
         <v>254503</v>
       </c>
-      <c r="E19" s="8">
+      <c r="G20" s="8">
         <v>276539</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+    <row r="21" spans="1:16">
+      <c r="A21" s="18"/>
+      <c r="B21" t="s">
         <v>451</v>
       </c>
-      <c r="B20" s="9">
+      <c r="C21" t="s">
+        <v>518</v>
+      </c>
+      <c r="D21" s="9">
         <v>7</v>
       </c>
-      <c r="C20" s="9">
+      <c r="E21" s="9">
         <v>3</v>
       </c>
-      <c r="D20" s="8">
+      <c r="F21" s="8">
         <v>544350</v>
       </c>
-      <c r="E20" s="8">
+      <c r="G21" s="8">
         <v>577751</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+    <row r="22" spans="1:16">
+      <c r="A22" s="18"/>
+      <c r="B22" t="s">
         <v>452</v>
       </c>
-      <c r="B21" s="9">
+      <c r="C22" t="s">
+        <v>519</v>
+      </c>
+      <c r="D22" s="9">
         <v>7</v>
       </c>
-      <c r="C21" s="9">
+      <c r="E22" s="9">
         <v>3</v>
       </c>
-      <c r="D21" s="8">
+      <c r="F22" s="8">
         <v>239470</v>
       </c>
-      <c r="E21" s="8">
+      <c r="G22" s="8">
         <v>202127</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+    <row r="23" spans="1:16">
+      <c r="A23" s="18"/>
+      <c r="B23" t="s">
         <v>453</v>
       </c>
-      <c r="B22" s="9">
+      <c r="C23" t="s">
+        <v>520</v>
+      </c>
+      <c r="D23" s="9">
         <v>8</v>
       </c>
-      <c r="C22" s="9">
+      <c r="E23" s="9">
         <v>3</v>
       </c>
-      <c r="D22" s="8">
+      <c r="F23" s="8">
         <v>508995</v>
       </c>
-      <c r="E22" s="8">
+      <c r="G23" s="8">
         <v>442400</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
+      <c r="K23" t="s">
+        <v>531</v>
+      </c>
+      <c r="L23" s="13"/>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="18"/>
+      <c r="B24" t="s">
         <v>454</v>
       </c>
-      <c r="B23">
+      <c r="C24" t="s">
+        <v>521</v>
+      </c>
+      <c r="D24">
         <v>6</v>
       </c>
-      <c r="C23">
+      <c r="E24">
         <v>1</v>
       </c>
-      <c r="D23" s="8">
+      <c r="F24" s="8">
         <v>636575</v>
       </c>
-      <c r="E23" s="8">
+      <c r="G24" s="8">
         <v>630158</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+      <c r="K24" t="s">
+        <v>512</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>525</v>
+      </c>
+      <c r="M24" t="s">
+        <v>526</v>
+      </c>
+      <c r="N24" t="s">
+        <v>527</v>
+      </c>
+      <c r="O24" t="s">
+        <v>528</v>
+      </c>
+      <c r="P24" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="18"/>
+      <c r="B25" t="s">
         <v>455</v>
       </c>
-      <c r="B24">
+      <c r="C25" t="s">
+        <v>522</v>
+      </c>
+      <c r="D25">
         <v>8</v>
       </c>
-      <c r="C24">
+      <c r="E25">
         <v>6</v>
       </c>
-      <c r="D24" s="8">
+      <c r="F25" s="8">
         <v>79736</v>
       </c>
-      <c r="E24" s="8">
+      <c r="G25" s="8">
         <v>64904</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
+      <c r="K25" t="s">
+        <v>513</v>
+      </c>
+      <c r="L25" s="9">
+        <v>6</v>
+      </c>
+      <c r="M25">
+        <v>4</v>
+      </c>
+      <c r="N25">
+        <v>2</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="18"/>
+      <c r="B26" t="s">
         <v>456</v>
       </c>
-      <c r="B25">
+      <c r="C26" t="s">
+        <v>523</v>
+      </c>
+      <c r="D26">
         <v>7</v>
       </c>
-      <c r="C25">
+      <c r="E26">
         <v>3</v>
       </c>
-      <c r="D25" s="8">
+      <c r="F26" s="8">
         <v>202563</v>
       </c>
-      <c r="E25" s="8">
+      <c r="G26" s="8">
         <v>209805</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
+      <c r="K26" t="s">
+        <v>514</v>
+      </c>
+      <c r="L26" s="9">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>1</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+      <c r="P26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="18"/>
+      <c r="B27" t="s">
         <v>457</v>
       </c>
-      <c r="B26">
+      <c r="C27" t="s">
+        <v>524</v>
+      </c>
+      <c r="D27">
         <v>6</v>
       </c>
-      <c r="C26">
+      <c r="E27">
         <v>1</v>
       </c>
-      <c r="D26" s="8">
+      <c r="F27" s="8">
         <v>622723</v>
       </c>
-      <c r="E26" s="8">
+      <c r="G27" s="8">
         <v>587188</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+      <c r="K27" t="s">
+        <v>515</v>
+      </c>
+      <c r="L27" s="9">
+        <v>9</v>
+      </c>
+      <c r="M27">
+        <v>10</v>
+      </c>
+      <c r="N27">
+        <v>12</v>
+      </c>
+      <c r="O27">
+        <v>17</v>
+      </c>
+      <c r="P27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="19"/>
+      <c r="C28" t="s">
+        <v>512</v>
+      </c>
+      <c r="D28" t="s">
+        <v>532</v>
+      </c>
+      <c r="E28" t="s">
+        <v>533</v>
+      </c>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="K28" t="s">
+        <v>516</v>
+      </c>
+      <c r="L28" s="9">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="9">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
         <v>458</v>
       </c>
-      <c r="B27">
+      <c r="C29" t="s">
+        <v>513</v>
+      </c>
+      <c r="D29">
         <v>7</v>
       </c>
-      <c r="C27">
+      <c r="E29">
         <v>4</v>
       </c>
-      <c r="D27" s="8">
+      <c r="F29" s="8">
         <v>298295</v>
       </c>
-      <c r="E27" s="8">
+      <c r="G29" s="8">
         <v>82733</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
+      <c r="K29" t="s">
+        <v>517</v>
+      </c>
+      <c r="L29">
+        <v>16</v>
+      </c>
+      <c r="M29">
+        <v>18</v>
+      </c>
+      <c r="N29">
+        <v>19</v>
+      </c>
+      <c r="O29">
+        <v>28</v>
+      </c>
+      <c r="P29">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="9">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
         <v>459</v>
       </c>
-      <c r="B28">
+      <c r="C30" t="s">
+        <v>514</v>
+      </c>
+      <c r="D30">
         <v>5</v>
       </c>
-      <c r="C28">
+      <c r="E30">
         <v>1</v>
       </c>
-      <c r="D28" s="8">
+      <c r="F30" s="8">
         <v>1926557</v>
       </c>
-      <c r="E28" s="8">
+      <c r="G30" s="8">
         <v>2218202</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
+      <c r="K30" t="s">
+        <v>518</v>
+      </c>
+      <c r="L30" s="9">
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>3</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="P30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="9">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
         <v>460</v>
       </c>
-      <c r="B29">
+      <c r="C31" t="s">
+        <v>515</v>
+      </c>
+      <c r="D31">
         <v>11</v>
       </c>
-      <c r="C29">
+      <c r="E31">
         <v>10</v>
       </c>
-      <c r="D29" s="8">
+      <c r="F31" s="8">
         <v>357243</v>
       </c>
-      <c r="E29" s="8">
+      <c r="G31" s="8">
         <v>503653</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
+      <c r="K31" t="s">
+        <v>519</v>
+      </c>
+      <c r="L31" s="9">
+        <v>3</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31">
+        <v>3</v>
+      </c>
+      <c r="P31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="9">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
         <v>461</v>
       </c>
-      <c r="B30">
+      <c r="C32" t="s">
+        <v>516</v>
+      </c>
+      <c r="D32">
         <v>5</v>
       </c>
-      <c r="C30">
+      <c r="E32">
         <v>1</v>
       </c>
-      <c r="D30" s="8">
+      <c r="F32" s="8">
         <v>2122520</v>
       </c>
-      <c r="E30" s="8">
+      <c r="G32" s="8">
         <v>2229902</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
+      <c r="K32" t="s">
+        <v>520</v>
+      </c>
+      <c r="L32" s="9">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>3</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32">
+        <v>4</v>
+      </c>
+      <c r="P32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="9">
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
         <v>462</v>
       </c>
-      <c r="B31">
+      <c r="C33" t="s">
+        <v>517</v>
+      </c>
+      <c r="D33">
         <v>17</v>
       </c>
-      <c r="C31">
+      <c r="E33">
         <v>18</v>
       </c>
-      <c r="D31" s="8">
+      <c r="F33" s="8">
         <v>276111</v>
       </c>
-      <c r="E31" s="8">
+      <c r="G33" s="8">
         <v>256133</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
+      <c r="K33" t="s">
+        <v>521</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="9">
+        <v>20</v>
+      </c>
+      <c r="B34" t="s">
         <v>463</v>
       </c>
-      <c r="B32">
+      <c r="C34" t="s">
+        <v>518</v>
+      </c>
+      <c r="D34">
         <v>7</v>
       </c>
-      <c r="C32">
+      <c r="E34">
         <v>3</v>
       </c>
-      <c r="D32" s="8">
+      <c r="F34" s="8">
         <v>995284</v>
       </c>
-      <c r="E32" s="8">
+      <c r="G34" s="8">
         <v>799581</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
+      <c r="K34" t="s">
+        <v>522</v>
+      </c>
+      <c r="L34">
+        <v>6</v>
+      </c>
+      <c r="M34">
+        <v>3</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="9">
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
         <v>464</v>
       </c>
-      <c r="B33">
+      <c r="C35" t="s">
+        <v>519</v>
+      </c>
+      <c r="D35">
         <v>7</v>
       </c>
-      <c r="C33">
+      <c r="E35">
         <v>2</v>
       </c>
-      <c r="D33" s="8">
+      <c r="F35" s="8">
         <v>349268</v>
       </c>
-      <c r="E33" s="8">
+      <c r="G35" s="8">
         <v>279835</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
+      <c r="K35" t="s">
+        <v>523</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35">
+        <v>18</v>
+      </c>
+      <c r="N35">
+        <v>21</v>
+      </c>
+      <c r="O35">
+        <v>28</v>
+      </c>
+      <c r="P35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="9">
+        <v>20</v>
+      </c>
+      <c r="B36" t="s">
         <v>465</v>
       </c>
-      <c r="B34">
+      <c r="C36" t="s">
+        <v>520</v>
+      </c>
+      <c r="D36">
         <v>7</v>
       </c>
-      <c r="C34">
+      <c r="E36">
         <v>3</v>
       </c>
-      <c r="D34" s="8">
+      <c r="F36" s="8">
         <v>902645</v>
       </c>
-      <c r="E34" s="8">
+      <c r="G36" s="8">
         <v>1103685</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
+      <c r="K36" t="s">
+        <v>524</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="9">
+        <v>20</v>
+      </c>
+      <c r="B37" t="s">
         <v>466</v>
       </c>
-      <c r="B35">
+      <c r="C37" t="s">
+        <v>521</v>
+      </c>
+      <c r="D37">
         <v>5</v>
       </c>
-      <c r="C35">
+      <c r="E37">
         <v>1</v>
       </c>
-      <c r="D35" s="8">
+      <c r="F37" s="8">
         <v>1644765</v>
       </c>
-      <c r="E35" s="8">
+      <c r="G37" s="8">
         <v>2177955</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
+    <row r="38" spans="1:16">
+      <c r="A38" s="9">
+        <v>20</v>
+      </c>
+      <c r="B38" t="s">
         <v>467</v>
       </c>
-      <c r="B36">
+      <c r="C38" t="s">
+        <v>522</v>
+      </c>
+      <c r="D38">
         <v>7</v>
       </c>
-      <c r="C36">
+      <c r="E38">
         <v>3</v>
       </c>
-      <c r="D36" s="8">
+      <c r="F38" s="8">
         <v>336862</v>
       </c>
-      <c r="E36" s="8">
+      <c r="G38" s="8">
         <v>393489</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
+    <row r="39" spans="1:16">
+      <c r="A39" s="9">
+        <v>20</v>
+      </c>
+      <c r="B39" t="s">
         <v>468</v>
       </c>
-      <c r="B37">
+      <c r="C39" t="s">
+        <v>523</v>
+      </c>
+      <c r="D39">
         <v>17</v>
       </c>
-      <c r="C37">
+      <c r="E39">
         <v>18</v>
       </c>
-      <c r="D37" s="8">
+      <c r="F39" s="8">
         <v>215714</v>
       </c>
-      <c r="E37" s="8">
+      <c r="G39" s="8">
         <v>214134</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
-      <c r="A38" t="s">
+    <row r="40" spans="1:16">
+      <c r="A40" s="9">
+        <v>20</v>
+      </c>
+      <c r="B40" t="s">
         <v>469</v>
       </c>
-      <c r="B38">
+      <c r="C40" t="s">
+        <v>524</v>
+      </c>
+      <c r="D40">
         <v>5</v>
       </c>
-      <c r="C38">
+      <c r="E40">
         <v>1</v>
       </c>
-      <c r="D38" s="8">
+      <c r="F40" s="8">
         <v>2015480</v>
       </c>
-      <c r="E38" s="8">
+      <c r="G40" s="8">
         <v>1957713</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
-      <c r="A39" t="s">
+    <row r="41" spans="1:16">
+      <c r="A41" s="9"/>
+      <c r="C41" t="s">
+        <v>512</v>
+      </c>
+      <c r="D41" t="s">
+        <v>532</v>
+      </c>
+      <c r="E41" t="s">
+        <v>533</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="L41" s="13"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="9">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
         <v>470</v>
       </c>
-      <c r="B39">
+      <c r="C42" t="s">
+        <v>513</v>
+      </c>
+      <c r="D42">
         <v>6</v>
       </c>
-      <c r="C39">
+      <c r="E42">
         <v>2</v>
       </c>
-      <c r="D39" s="8">
+      <c r="F42" s="8">
         <v>313487</v>
       </c>
-      <c r="E39" s="8">
+      <c r="G42" s="8">
         <v>259395</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
-      <c r="A40" t="s">
+    <row r="43" spans="1:16">
+      <c r="A43" s="9">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
         <v>471</v>
       </c>
-      <c r="B40">
+      <c r="C43" t="s">
+        <v>514</v>
+      </c>
+      <c r="D43">
         <v>5</v>
       </c>
-      <c r="C40">
+      <c r="E43">
         <v>1</v>
       </c>
-      <c r="D40" s="8">
+      <c r="F43" s="8">
         <v>4408213</v>
       </c>
-      <c r="E40" s="8">
+      <c r="G43" s="8">
         <v>5326249</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
-      <c r="A41" t="s">
+    <row r="44" spans="1:16">
+      <c r="A44" s="9">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
         <v>472</v>
       </c>
-      <c r="B41">
+      <c r="C44" t="s">
+        <v>515</v>
+      </c>
+      <c r="D44">
         <v>13</v>
       </c>
-      <c r="C41">
+      <c r="E44">
         <v>12</v>
       </c>
-      <c r="D41" s="8">
+      <c r="F44" s="8">
         <v>324740</v>
       </c>
-      <c r="E41" s="8">
+      <c r="G44" s="8">
         <v>333703</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
+    <row r="45" spans="1:16">
+      <c r="A45" s="9">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
         <v>473</v>
       </c>
-      <c r="B42">
+      <c r="C45" t="s">
+        <v>516</v>
+      </c>
+      <c r="D45">
         <v>5</v>
       </c>
-      <c r="C42">
+      <c r="E45">
         <v>1</v>
       </c>
-      <c r="D42" s="8">
+      <c r="F45" s="8">
         <v>4220600</v>
       </c>
-      <c r="E42" s="8">
+      <c r="G45" s="8">
         <v>4788163</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" t="s">
+      <c r="K45" t="s">
+        <v>512</v>
+      </c>
+      <c r="L45" t="s">
+        <v>532</v>
+      </c>
+      <c r="M45" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="9">
+        <v>40</v>
+      </c>
+      <c r="B46" t="s">
         <v>474</v>
       </c>
-      <c r="B43">
+      <c r="C46" t="s">
+        <v>517</v>
+      </c>
+      <c r="D46">
         <v>22</v>
       </c>
-      <c r="C43">
+      <c r="E46">
         <v>19</v>
       </c>
-      <c r="D43" s="8">
+      <c r="F46" s="8">
         <v>226059</v>
       </c>
-      <c r="E43" s="8">
+      <c r="G46" s="8">
         <v>274131</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" t="s">
+      <c r="K46" t="s">
+        <v>513</v>
+      </c>
+      <c r="L46" s="9">
+        <v>8</v>
+      </c>
+      <c r="M46" s="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="9">
+        <v>40</v>
+      </c>
+      <c r="B47" t="s">
         <v>475</v>
       </c>
-      <c r="B44">
+      <c r="C47" t="s">
+        <v>518</v>
+      </c>
+      <c r="D47">
         <v>7</v>
       </c>
-      <c r="C44">
+      <c r="E47">
         <v>2</v>
       </c>
-      <c r="D44" s="8">
+      <c r="F47" s="8">
         <v>2114091</v>
       </c>
-      <c r="E44" s="8">
+      <c r="G47" s="8">
         <v>2630581</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" t="s">
+      <c r="K47" t="s">
+        <v>514</v>
+      </c>
+      <c r="L47" s="9">
+        <v>6</v>
+      </c>
+      <c r="M47" s="9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="9">
+        <v>40</v>
+      </c>
+      <c r="B48" t="s">
         <v>476</v>
       </c>
-      <c r="B45">
+      <c r="C48" t="s">
+        <v>519</v>
+      </c>
+      <c r="D48">
         <v>6</v>
       </c>
-      <c r="C45">
+      <c r="E48">
         <v>3</v>
       </c>
-      <c r="D45" s="8">
+      <c r="F48" s="8">
         <v>380903</v>
       </c>
-      <c r="E45" s="8">
+      <c r="G48" s="8">
         <v>388935</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" t="s">
+      <c r="K48" t="s">
+        <v>515</v>
+      </c>
+      <c r="L48" s="9">
+        <v>11</v>
+      </c>
+      <c r="M48" s="9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="9">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
         <v>477</v>
       </c>
-      <c r="B46">
+      <c r="C49" t="s">
+        <v>520</v>
+      </c>
+      <c r="D49">
         <v>7</v>
       </c>
-      <c r="C46">
+      <c r="E49">
         <v>3</v>
       </c>
-      <c r="D46" s="8">
+      <c r="F49" s="8">
         <v>2265211</v>
       </c>
-      <c r="E46" s="8">
+      <c r="G49" s="8">
         <v>3195875</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" t="s">
+      <c r="K49" t="s">
+        <v>516</v>
+      </c>
+      <c r="L49" s="9">
+        <v>6</v>
+      </c>
+      <c r="M49" s="9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="9">
+        <v>40</v>
+      </c>
+      <c r="B50" t="s">
         <v>478</v>
       </c>
-      <c r="B47">
+      <c r="C50" t="s">
+        <v>521</v>
+      </c>
+      <c r="D50">
         <v>5</v>
       </c>
-      <c r="C47">
+      <c r="E50">
         <v>1</v>
       </c>
-      <c r="D47" s="8">
+      <c r="F50" s="8">
         <v>3633444</v>
       </c>
-      <c r="E47" s="8">
+      <c r="G50" s="8">
         <v>4579745</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" t="s">
+      <c r="K50" t="s">
+        <v>517</v>
+      </c>
+      <c r="L50">
+        <v>15</v>
+      </c>
+      <c r="M50">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="9">
+        <v>40</v>
+      </c>
+      <c r="B51" t="s">
         <v>479</v>
       </c>
-      <c r="B48">
+      <c r="C51" t="s">
+        <v>522</v>
+      </c>
+      <c r="D51">
         <v>6</v>
       </c>
-      <c r="C48">
+      <c r="E51">
         <v>2</v>
       </c>
-      <c r="D48" s="8">
+      <c r="F51" s="8">
         <v>333929</v>
       </c>
-      <c r="E48" s="8">
+      <c r="G51" s="8">
         <v>314064</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" t="s">
+      <c r="K51" t="s">
+        <v>518</v>
+      </c>
+      <c r="L51" s="9">
+        <v>7</v>
+      </c>
+      <c r="M51" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="9">
+        <v>40</v>
+      </c>
+      <c r="B52" t="s">
         <v>480</v>
       </c>
-      <c r="B49">
+      <c r="C52" t="s">
+        <v>523</v>
+      </c>
+      <c r="D52">
         <v>19</v>
       </c>
-      <c r="C49">
+      <c r="E52">
         <v>21</v>
       </c>
-      <c r="D49" s="8">
+      <c r="F52" s="8">
         <v>195608</v>
       </c>
-      <c r="E49" s="8">
+      <c r="G52" s="8">
         <v>171842</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" t="s">
+      <c r="K52" t="s">
+        <v>519</v>
+      </c>
+      <c r="L52" s="9">
+        <v>7</v>
+      </c>
+      <c r="M52" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="9">
+        <v>40</v>
+      </c>
+      <c r="B53" t="s">
         <v>481</v>
       </c>
-      <c r="B50">
+      <c r="C53" t="s">
+        <v>524</v>
+      </c>
+      <c r="D53">
         <v>5</v>
       </c>
-      <c r="C50">
+      <c r="E53">
         <v>1</v>
       </c>
-      <c r="D50" s="8">
+      <c r="F53" s="8">
         <v>3214494</v>
       </c>
-      <c r="E50" s="8">
+      <c r="G53" s="8">
         <v>4417319</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" t="s">
+      <c r="K53" t="s">
+        <v>520</v>
+      </c>
+      <c r="L53" s="9">
+        <v>8</v>
+      </c>
+      <c r="M53" s="9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="9"/>
+      <c r="C54" t="s">
+        <v>512</v>
+      </c>
+      <c r="D54" t="s">
+        <v>532</v>
+      </c>
+      <c r="E54" t="s">
+        <v>533</v>
+      </c>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="K54" t="s">
+        <v>521</v>
+      </c>
+      <c r="L54">
+        <v>6</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="9">
+        <v>80</v>
+      </c>
+      <c r="B55" t="s">
         <v>482</v>
       </c>
-      <c r="B51">
+      <c r="C55" t="s">
+        <v>513</v>
+      </c>
+      <c r="D55">
         <v>6</v>
       </c>
-      <c r="C51">
+      <c r="E55">
         <v>1</v>
       </c>
-      <c r="D51" s="8">
+      <c r="F55" s="8">
         <v>562973</v>
       </c>
-      <c r="E51" s="8">
+      <c r="G55" s="8">
         <v>685462</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="s">
+      <c r="K55" t="s">
+        <v>522</v>
+      </c>
+      <c r="L55">
+        <v>8</v>
+      </c>
+      <c r="M55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="9">
+        <v>80</v>
+      </c>
+      <c r="B56" t="s">
         <v>483</v>
       </c>
-      <c r="B52">
+      <c r="C56" t="s">
+        <v>514</v>
+      </c>
+      <c r="D56">
         <v>6</v>
       </c>
-      <c r="C52">
+      <c r="E56">
         <v>1</v>
       </c>
-      <c r="D52" s="8">
+      <c r="F56" s="8">
         <v>9954400</v>
       </c>
-      <c r="E52" s="8">
+      <c r="G56" s="8">
         <v>14402033</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="s">
+      <c r="K56" t="s">
+        <v>523</v>
+      </c>
+      <c r="L56">
+        <v>7</v>
+      </c>
+      <c r="M56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="9">
+        <v>80</v>
+      </c>
+      <c r="B57" t="s">
         <v>484</v>
       </c>
-      <c r="B53">
+      <c r="C57" t="s">
+        <v>515</v>
+      </c>
+      <c r="D57">
         <v>16</v>
       </c>
-      <c r="C53">
+      <c r="E57">
         <v>17</v>
       </c>
-      <c r="D53" s="8">
+      <c r="F57" s="8">
         <v>446925</v>
       </c>
-      <c r="E53" s="8">
+      <c r="G57" s="8">
         <v>369499</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="s">
+      <c r="K57" t="s">
+        <v>524</v>
+      </c>
+      <c r="L57">
+        <v>6</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="9">
+        <v>80</v>
+      </c>
+      <c r="B58" t="s">
         <v>485</v>
       </c>
-      <c r="B54">
+      <c r="C58" t="s">
+        <v>516</v>
+      </c>
+      <c r="D58">
         <v>6</v>
       </c>
-      <c r="C54">
+      <c r="E58">
         <v>1</v>
       </c>
-      <c r="D54" s="8">
+      <c r="F58" s="8">
         <v>9674521</v>
       </c>
-      <c r="E54" s="8">
+      <c r="G58" s="8">
         <v>14147688</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="s">
+    <row r="59" spans="1:13">
+      <c r="A59" s="9">
+        <v>80</v>
+      </c>
+      <c r="B59" t="s">
         <v>486</v>
       </c>
-      <c r="B55">
+      <c r="C59" t="s">
+        <v>517</v>
+      </c>
+      <c r="D59">
         <v>24</v>
       </c>
-      <c r="C55">
+      <c r="E59">
         <v>28</v>
       </c>
-      <c r="D55" s="8">
+      <c r="F59" s="8">
         <v>246281</v>
       </c>
-      <c r="E55" s="8">
+      <c r="G59" s="8">
         <v>260596</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="s">
+    <row r="60" spans="1:13">
+      <c r="A60" s="9">
+        <v>80</v>
+      </c>
+      <c r="B60" t="s">
         <v>487</v>
       </c>
-      <c r="B56">
+      <c r="C60" t="s">
+        <v>518</v>
+      </c>
+      <c r="D60">
         <v>7</v>
       </c>
-      <c r="C56">
+      <c r="E60">
         <v>3</v>
       </c>
-      <c r="D56" s="8">
+      <c r="F60" s="8">
         <v>5646595</v>
       </c>
-      <c r="E56" s="8">
+      <c r="G60" s="8">
         <v>9203006</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="s">
+    <row r="61" spans="1:13">
+      <c r="A61" s="9">
+        <v>80</v>
+      </c>
+      <c r="B61" t="s">
         <v>488</v>
       </c>
-      <c r="B57">
+      <c r="C61" t="s">
+        <v>519</v>
+      </c>
+      <c r="D61">
         <v>8</v>
       </c>
-      <c r="C57">
+      <c r="E61">
         <v>3</v>
       </c>
-      <c r="D57" s="8">
+      <c r="F61" s="8">
         <v>299911</v>
       </c>
-      <c r="E57" s="8">
+      <c r="G61" s="8">
         <v>382228</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="s">
+      <c r="K61" t="s">
+        <v>512</v>
+      </c>
+      <c r="L61" t="s">
+        <v>532</v>
+      </c>
+      <c r="M61" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="9">
+        <v>80</v>
+      </c>
+      <c r="B62" t="s">
         <v>489</v>
       </c>
-      <c r="B58">
+      <c r="C62" t="s">
+        <v>520</v>
+      </c>
+      <c r="D62">
         <v>7</v>
       </c>
-      <c r="C58">
+      <c r="E62">
         <v>4</v>
       </c>
-      <c r="D58" s="8">
+      <c r="F62" s="8">
         <v>7088673</v>
       </c>
-      <c r="E58" s="8">
+      <c r="G62" s="8">
         <v>6825946</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="s">
+    <row r="63" spans="1:13">
+      <c r="A63" s="9">
+        <v>80</v>
+      </c>
+      <c r="B63" t="s">
         <v>490</v>
       </c>
-      <c r="B59">
+      <c r="C63" t="s">
+        <v>521</v>
+      </c>
+      <c r="D63">
         <v>5</v>
       </c>
-      <c r="C59">
+      <c r="E63">
         <v>1</v>
       </c>
-      <c r="D59" s="8">
+      <c r="F63" s="8">
         <v>7555401</v>
       </c>
-      <c r="E59" s="8">
+      <c r="G63" s="8">
         <v>11626139</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="s">
+    <row r="64" spans="1:13">
+      <c r="A64" s="9">
+        <v>80</v>
+      </c>
+      <c r="B64" t="s">
         <v>491</v>
       </c>
-      <c r="B60">
+      <c r="C64" t="s">
+        <v>522</v>
+      </c>
+      <c r="D64">
         <v>6</v>
       </c>
-      <c r="C60">
+      <c r="E64">
         <v>1</v>
       </c>
-      <c r="D60" s="8">
+      <c r="F64" s="8">
         <v>336131</v>
       </c>
-      <c r="E60" s="8">
+      <c r="G64" s="8">
         <v>1158885</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="s">
+    <row r="65" spans="1:12">
+      <c r="A65" s="9">
+        <v>80</v>
+      </c>
+      <c r="B65" t="s">
         <v>492</v>
       </c>
-      <c r="B61">
+      <c r="C65" t="s">
+        <v>523</v>
+      </c>
+      <c r="D65">
         <v>24</v>
       </c>
-      <c r="C61">
+      <c r="E65">
         <v>28</v>
       </c>
-      <c r="D61" s="8">
+      <c r="F65" s="8">
         <v>192268</v>
       </c>
-      <c r="E61" s="8">
+      <c r="G65" s="8">
         <v>208623</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="s">
+    <row r="66" spans="1:12">
+      <c r="A66" s="9">
+        <v>80</v>
+      </c>
+      <c r="B66" t="s">
         <v>493</v>
       </c>
-      <c r="B62">
+      <c r="C66" t="s">
+        <v>524</v>
+      </c>
+      <c r="D66">
         <v>5</v>
       </c>
-      <c r="C62">
+      <c r="E66">
         <v>1</v>
       </c>
-      <c r="D62" s="8">
+      <c r="F66" s="8">
         <v>7063582</v>
       </c>
-      <c r="E62" s="8">
+      <c r="G66" s="8">
         <v>11561985</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="s">
+    <row r="67" spans="1:12">
+      <c r="A67" s="9"/>
+      <c r="C67" t="s">
+        <v>512</v>
+      </c>
+      <c r="D67" t="s">
+        <v>532</v>
+      </c>
+      <c r="E67" t="s">
+        <v>533</v>
+      </c>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="L67" s="13"/>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68" s="9">
+        <v>160</v>
+      </c>
+      <c r="B68" t="s">
         <v>494</v>
       </c>
-      <c r="B63">
+      <c r="C68" t="s">
+        <v>513</v>
+      </c>
+      <c r="D68">
         <v>5</v>
       </c>
-      <c r="C63">
+      <c r="E68">
         <v>1</v>
       </c>
-      <c r="D63" s="8">
+      <c r="F68" s="8">
         <v>19813102</v>
       </c>
-      <c r="E63" s="8">
+      <c r="G68" s="8">
         <v>27401988</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="s">
+    <row r="69" spans="1:12">
+      <c r="A69" s="9">
+        <v>160</v>
+      </c>
+      <c r="B69" t="s">
         <v>495</v>
       </c>
-      <c r="B64">
+      <c r="C69" t="s">
+        <v>514</v>
+      </c>
+      <c r="D69">
         <v>6</v>
       </c>
-      <c r="C64">
+      <c r="E69">
         <v>2</v>
       </c>
-      <c r="D64" s="8">
+      <c r="F69" s="8">
         <v>26435902</v>
       </c>
-      <c r="E64" s="8">
+      <c r="G69" s="8">
         <v>38174838</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="s">
+    <row r="70" spans="1:12">
+      <c r="A70" s="9">
+        <v>160</v>
+      </c>
+      <c r="B70" t="s">
         <v>496</v>
       </c>
-      <c r="B65">
+      <c r="C70" t="s">
+        <v>515</v>
+      </c>
+      <c r="D70">
         <v>22</v>
       </c>
-      <c r="C65">
+      <c r="E70">
         <v>25</v>
       </c>
-      <c r="D65" s="8">
+      <c r="F70" s="8">
         <v>240510</v>
       </c>
-      <c r="E65" s="8">
+      <c r="G70" s="8">
         <v>394900</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="s">
+    <row r="71" spans="1:12">
+      <c r="A71" s="9">
+        <v>160</v>
+      </c>
+      <c r="B71" t="s">
         <v>497</v>
       </c>
-      <c r="B66">
+      <c r="C71" t="s">
+        <v>516</v>
+      </c>
+      <c r="D71">
         <v>6</v>
       </c>
-      <c r="C66">
+      <c r="E71">
         <v>1</v>
       </c>
-      <c r="D66" s="8">
+      <c r="F71" s="8">
         <v>26919822</v>
       </c>
-      <c r="E66" s="8">
+      <c r="G71" s="8">
         <v>37142411</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="s">
+    <row r="72" spans="1:12">
+      <c r="A72" s="9">
+        <v>160</v>
+      </c>
+      <c r="B72" t="s">
         <v>498</v>
       </c>
-      <c r="B67">
+      <c r="C72" t="s">
+        <v>517</v>
+      </c>
+      <c r="D72">
         <v>35</v>
       </c>
-      <c r="C67">
+      <c r="E72">
         <v>43</v>
       </c>
-      <c r="D67" s="8">
+      <c r="F72" s="8">
         <v>197093</v>
       </c>
-      <c r="E67" s="8">
+      <c r="G72" s="8">
         <v>246396</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="s">
+    <row r="73" spans="1:12">
+      <c r="A73" s="9">
+        <v>160</v>
+      </c>
+      <c r="B73" t="s">
         <v>499</v>
       </c>
-      <c r="B68">
+      <c r="C73" t="s">
+        <v>518</v>
+      </c>
+      <c r="D73">
         <v>9</v>
       </c>
-      <c r="C68">
+      <c r="E73">
         <v>4</v>
       </c>
-      <c r="D68" s="8">
+      <c r="F73" s="8">
         <v>11262138</v>
       </c>
-      <c r="E68" s="8">
+      <c r="G73" s="8">
         <v>21984674</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="s">
+    <row r="74" spans="1:12">
+      <c r="A74" s="9">
+        <v>160</v>
+      </c>
+      <c r="B74" t="s">
         <v>500</v>
       </c>
-      <c r="B69">
+      <c r="C74" t="s">
+        <v>519</v>
+      </c>
+      <c r="D74">
         <v>9</v>
       </c>
-      <c r="C69">
+      <c r="E74">
         <v>6</v>
       </c>
-      <c r="D69" s="8">
+      <c r="F74" s="8">
         <v>378270</v>
       </c>
-      <c r="E69" s="8">
+      <c r="G74" s="8">
         <v>477718</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="s">
+    <row r="75" spans="1:12">
+      <c r="A75" s="9">
+        <v>160</v>
+      </c>
+      <c r="B75" t="s">
         <v>501</v>
       </c>
-      <c r="B70">
+      <c r="C75" t="s">
+        <v>520</v>
+      </c>
+      <c r="D75">
         <v>8</v>
       </c>
-      <c r="C70">
+      <c r="E75">
         <v>4</v>
       </c>
-      <c r="D70" s="8">
+      <c r="F75" s="8">
         <v>10455408</v>
       </c>
-      <c r="E70" s="8">
+      <c r="G75" s="8">
         <v>8423675</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="s">
+    <row r="76" spans="1:12">
+      <c r="A76" s="9">
+        <v>160</v>
+      </c>
+      <c r="B76" t="s">
         <v>502</v>
       </c>
-      <c r="B71">
+      <c r="C76" t="s">
+        <v>521</v>
+      </c>
+      <c r="D76">
         <v>6</v>
       </c>
-      <c r="C71">
+      <c r="E76">
         <v>1</v>
       </c>
-      <c r="D71" s="8">
+      <c r="F76" s="8">
         <v>21241589</v>
       </c>
-      <c r="E71" s="8">
+      <c r="G76" s="8">
         <v>31772937</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="s">
+    <row r="77" spans="1:12">
+      <c r="A77" s="9">
+        <v>160</v>
+      </c>
+      <c r="B77" t="s">
         <v>503</v>
       </c>
-      <c r="B72">
+      <c r="C77" t="s">
+        <v>522</v>
+      </c>
+      <c r="D77">
         <v>6</v>
       </c>
-      <c r="C72">
+      <c r="E77">
         <v>1</v>
       </c>
-      <c r="D72" s="8">
+      <c r="F77" s="8">
         <v>19051005</v>
       </c>
-      <c r="E72" s="8">
+      <c r="G77" s="8">
         <v>28464583</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="s">
+    <row r="78" spans="1:12">
+      <c r="A78" s="9">
+        <v>160</v>
+      </c>
+      <c r="B78" t="s">
         <v>504</v>
       </c>
-      <c r="B73">
+      <c r="C78" t="s">
+        <v>523</v>
+      </c>
+      <c r="D78">
         <v>35</v>
       </c>
-      <c r="C73">
+      <c r="E78">
         <v>43</v>
       </c>
-      <c r="D73" s="8">
+      <c r="F78" s="8">
         <v>177638</v>
       </c>
-      <c r="E73" s="8">
+      <c r="G78" s="8">
         <v>173170</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="s">
+    <row r="79" spans="1:12">
+      <c r="A79" s="9">
+        <v>160</v>
+      </c>
+      <c r="B79" t="s">
         <v>505</v>
       </c>
-      <c r="B74">
+      <c r="C79" t="s">
+        <v>524</v>
+      </c>
+      <c r="D79">
         <v>6</v>
       </c>
-      <c r="C74">
+      <c r="E79">
         <v>1</v>
       </c>
-      <c r="D74" s="8">
+      <c r="F79" s="8">
         <v>14495413</v>
       </c>
-      <c r="E74" s="8">
+      <c r="G79" s="8">
         <v>25708445</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
+    <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A3:A14"/>
+    <mergeCell ref="A16:A27"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -6618,10 +11721,10 @@
       <c r="A1" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="17" t="s">
         <v>288</v>
       </c>
-      <c r="C1" s="15"/>
+      <c r="C1" s="17"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">

--- a/Data/HW_Counters.xlsx
+++ b/Data/HW_Counters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="33340" yWindow="1540" windowWidth="46300" windowHeight="24500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="34840" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="PM_CMPLU_STALL_DCACHE_MISS" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="534">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="537">
   <si>
     <t xml:space="preserve">j-A_10th_close.txt:	</t>
   </si>
@@ -1624,6 +1624,15 @@
   </si>
   <si>
     <t>AFFINITY = Yes</t>
+  </si>
+  <si>
+    <t>AFFINITY = FALSE</t>
+  </si>
+  <si>
+    <t>AFFINITY = TRUE</t>
+  </si>
+  <si>
+    <t>PM_CMPLU_STALL_DCACHE_MISS</t>
   </si>
 </sst>
 </file>
@@ -1707,8 +1716,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="141">
+  <cellStyleXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1876,23 +1889,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="141">
+  <cellStyles count="145">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1963,6 +1976,8 @@
     <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2033,6 +2048,8 @@
     <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2164,11 +2181,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2139925720"/>
-        <c:axId val="-2141806440"/>
+        <c:axId val="-2073964680"/>
+        <c:axId val="-2146846632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2139925720"/>
+        <c:axId val="-2073964680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2177,7 +2194,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141806440"/>
+        <c:crossAx val="-2146846632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2185,7 +2202,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141806440"/>
+        <c:axId val="-2146846632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2196,13 +2213,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139925720"/>
+        <c:crossAx val="-2073964680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2266,7 +2284,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AFFINITY = No</c:v>
+                  <c:v>AFFINITY = FALSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2371,7 +2389,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AFFINITY = Yes</c:v>
+                  <c:v>AFFINITY = TRUE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2476,11 +2494,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2037487576"/>
-        <c:axId val="-2037484600"/>
+        <c:axId val="-2073981464"/>
+        <c:axId val="-2146865464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2037487576"/>
+        <c:axId val="-2073981464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2489,7 +2507,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2037484600"/>
+        <c:crossAx val="-2146865464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2497,7 +2515,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2037484600"/>
+        <c:axId val="-2146865464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2532,7 +2550,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2037487576"/>
+        <c:crossAx val="-2073981464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2584,7 +2602,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2603,7 +2620,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AFFINITY = No</c:v>
+                  <c:v>AFFINITY = FALSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2708,7 +2725,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AFFINITY = Yes</c:v>
+                  <c:v>AFFINITY = TRUE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2813,11 +2830,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2141261928"/>
-        <c:axId val="-2142105080"/>
+        <c:axId val="-2073430968"/>
+        <c:axId val="-2147224008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2141261928"/>
+        <c:axId val="-2073430968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2826,7 +2843,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142105080"/>
+        <c:crossAx val="-2147224008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2834,7 +2851,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142105080"/>
+        <c:axId val="-2147224008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2857,21 +2874,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141261928"/>
+        <c:crossAx val="-2073430968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2916,7 +2931,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2935,7 +2949,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AFFINITY = No</c:v>
+                  <c:v>AFFINITY = FALSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3040,7 +3054,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AFFINITY = Yes</c:v>
+                  <c:v>AFFINITY = TRUE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3145,11 +3159,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2034887976"/>
-        <c:axId val="-2141961432"/>
+        <c:axId val="-2146604616"/>
+        <c:axId val="-2073909896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2034887976"/>
+        <c:axId val="-2146604616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3158,7 +3172,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141961432"/>
+        <c:crossAx val="-2073909896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3166,7 +3180,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141961432"/>
+        <c:axId val="-2073909896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3194,21 +3208,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2034887976"/>
+        <c:crossAx val="-2146604616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3347,11 +3359,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2137499512"/>
-        <c:axId val="-2137496536"/>
+        <c:axId val="-2073634168"/>
+        <c:axId val="-2073886424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2137499512"/>
+        <c:axId val="-2073634168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3360,7 +3372,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137496536"/>
+        <c:crossAx val="-2073886424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3368,7 +3380,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2137496536"/>
+        <c:axId val="-2073886424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3379,13 +3391,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137499512"/>
+        <c:crossAx val="-2073634168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3524,11 +3537,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2137471496"/>
-        <c:axId val="-2137630616"/>
+        <c:axId val="-2146493256"/>
+        <c:axId val="-2073947336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2137471496"/>
+        <c:axId val="-2146493256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3537,7 +3550,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137630616"/>
+        <c:crossAx val="-2073947336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3545,7 +3558,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2137630616"/>
+        <c:axId val="-2073947336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3556,7 +3569,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137471496"/>
+        <c:crossAx val="-2146493256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3701,11 +3714,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2141661608"/>
-        <c:axId val="-2141714680"/>
+        <c:axId val="-2147022344"/>
+        <c:axId val="-2073844776"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2141661608"/>
+        <c:axId val="-2147022344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3714,7 +3727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141714680"/>
+        <c:crossAx val="-2073844776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3722,7 +3735,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141714680"/>
+        <c:axId val="-2073844776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3733,7 +3746,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141661608"/>
+        <c:crossAx val="-2147022344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4026,12 +4039,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142462648"/>
-        <c:axId val="-2075965592"/>
-        <c:axId val="-2143277832"/>
+        <c:axId val="-2146545752"/>
+        <c:axId val="-2147334712"/>
+        <c:axId val="-2147253432"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2142462648"/>
+        <c:axId val="-2146545752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4040,7 +4053,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2075965592"/>
+        <c:crossAx val="-2147334712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4048,7 +4061,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2075965592"/>
+        <c:axId val="-2147334712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4078,12 +4091,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142462648"/>
+        <c:crossAx val="-2146545752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2143277832"/>
+        <c:axId val="-2147253432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4092,7 +4105,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2075965592"/>
+        <c:crossAx val="-2147334712"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -4176,7 +4189,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AFFINITY = No</c:v>
+                  <c:v>AFFINITY = FALSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4281,7 +4294,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AFFINITY = Yes</c:v>
+                  <c:v>AFFINITY = TRUE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4385,12 +4398,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2138081480"/>
-        <c:axId val="-2076446024"/>
-        <c:axId val="-2138828328"/>
+        <c:axId val="-2147199592"/>
+        <c:axId val="-2147300072"/>
+        <c:axId val="-2073899224"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2138081480"/>
+        <c:axId val="-2147199592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4399,7 +4412,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2076446024"/>
+        <c:crossAx val="-2147300072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4407,7 +4420,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2076446024"/>
+        <c:axId val="-2147300072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4437,12 +4450,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138081480"/>
+        <c:crossAx val="-2147199592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2138828328"/>
+        <c:axId val="-2073899224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4451,7 +4464,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2076446024"/>
+        <c:crossAx val="-2147300072"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -4535,7 +4548,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AFFINITY = No</c:v>
+                  <c:v>AFFINITY = FALSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4640,7 +4653,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AFFINITY = Yes</c:v>
+                  <c:v>AFFINITY = TRUE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4744,12 +4757,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2146160888"/>
-        <c:axId val="-2142394968"/>
-        <c:axId val="-2078363816"/>
+        <c:axId val="-2073926328"/>
+        <c:axId val="-2073548584"/>
+        <c:axId val="-2147230296"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2146160888"/>
+        <c:axId val="-2073926328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4758,7 +4771,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142394968"/>
+        <c:crossAx val="-2073548584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4766,7 +4779,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142394968"/>
+        <c:axId val="-2073548584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4801,12 +4814,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146160888"/>
+        <c:crossAx val="-2073926328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2078363816"/>
+        <c:axId val="-2147230296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4815,7 +4828,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142394968"/>
+        <c:crossAx val="-2073548584"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -4899,7 +4912,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AFFINITY = No</c:v>
+                  <c:v>AFFINITY = FALSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5004,7 +5017,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AFFINITY = Yes</c:v>
+                  <c:v>AFFINITY = TRUE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5108,12 +5121,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2073320056"/>
-        <c:axId val="-2075275240"/>
-        <c:axId val="-2073344792"/>
+        <c:axId val="2139145240"/>
+        <c:axId val="-2073946728"/>
+        <c:axId val="-2146867288"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2073320056"/>
+        <c:axId val="2139145240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5122,7 +5135,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2075275240"/>
+        <c:crossAx val="-2073946728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5130,7 +5143,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2075275240"/>
+        <c:axId val="-2073946728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5160,12 +5173,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073320056"/>
+        <c:crossAx val="2139145240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2073344792"/>
+        <c:axId val="-2146867288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5174,7 +5187,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2075275240"/>
+        <c:crossAx val="-2073946728"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -5258,7 +5271,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AFFINITY = No</c:v>
+                  <c:v>AFFINITY = FALSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5363,7 +5376,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AFFINITY = Yes</c:v>
+                  <c:v>AFFINITY = TRUE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5467,12 +5480,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2141651944"/>
-        <c:axId val="-2139190216"/>
-        <c:axId val="-2141720952"/>
+        <c:axId val="-2073487672"/>
+        <c:axId val="2139264488"/>
+        <c:axId val="-2073622168"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2141651944"/>
+        <c:axId val="-2073487672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5481,7 +5494,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139190216"/>
+        <c:crossAx val="2139264488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5489,7 +5502,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2139190216"/>
+        <c:axId val="2139264488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5524,12 +5537,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141651944"/>
+        <c:crossAx val="-2073487672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2141720952"/>
+        <c:axId val="-2073622168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5538,7 +5551,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2139190216"/>
+        <c:crossAx val="2139264488"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -5818,11 +5831,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2034750888"/>
-        <c:axId val="-2141499848"/>
+        <c:axId val="2139345432"/>
+        <c:axId val="-2146711912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2034750888"/>
+        <c:axId val="2139345432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5831,7 +5844,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141499848"/>
+        <c:crossAx val="-2146711912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5839,7 +5852,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141499848"/>
+        <c:axId val="-2146711912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5869,7 +5882,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2034750888"/>
+        <c:crossAx val="2139345432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5921,7 +5934,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5940,7 +5952,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AFFINITY = No</c:v>
+                  <c:v>AFFINITY = FALSE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6045,7 +6057,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>AFFINITY = Yes</c:v>
+                  <c:v>AFFINITY = TRUE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6150,11 +6162,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2142057720"/>
-        <c:axId val="-2141775400"/>
+        <c:axId val="-2147243064"/>
+        <c:axId val="-2147323704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2142057720"/>
+        <c:axId val="-2147243064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6163,7 +6175,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141775400"/>
+        <c:crossAx val="-2147323704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6171,7 +6183,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141775400"/>
+        <c:axId val="-2147323704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6194,21 +6206,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142057720"/>
+        <c:crossAx val="-2147243064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8169,8 +8179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P79"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="H23" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="H67" sqref="H67:I67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8190,14 +8200,18 @@
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="14"/>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="17" t="s">
         <v>510</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="15" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="G1" s="15"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="I1" s="16"/>
       <c r="K1" t="s">
         <v>530</v>
       </c>
@@ -8223,6 +8237,12 @@
       </c>
       <c r="G2" s="7" t="s">
         <v>507</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>535</v>
       </c>
       <c r="K2" t="s">
         <v>512</v>
@@ -8714,18 +8734,24 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="19"/>
+      <c r="A15" s="15"/>
       <c r="C15" t="s">
         <v>512</v>
       </c>
       <c r="D15" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E15" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
+      <c r="H15" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>535</v>
+      </c>
       <c r="L15"/>
     </row>
     <row r="16" spans="1:16">
@@ -9059,18 +9085,24 @@
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="19"/>
+      <c r="A28" s="15"/>
       <c r="C28" t="s">
         <v>512</v>
       </c>
       <c r="D28" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E28" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F28" s="13"/>
       <c r="G28" s="13"/>
+      <c r="H28" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>535</v>
+      </c>
       <c r="K28" t="s">
         <v>516</v>
       </c>
@@ -9516,13 +9548,19 @@
         <v>512</v>
       </c>
       <c r="D41" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E41" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
+      <c r="H41" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="I41" s="6" t="s">
+        <v>535</v>
+      </c>
       <c r="L41" s="13"/>
     </row>
     <row r="42" spans="1:16">
@@ -9888,13 +9926,19 @@
         <v>512</v>
       </c>
       <c r="D54" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E54" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F54" s="13"/>
       <c r="G54" s="13"/>
+      <c r="H54" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="I54" s="6" t="s">
+        <v>535</v>
+      </c>
       <c r="K54" t="s">
         <v>521</v>
       </c>
@@ -10223,13 +10267,19 @@
         <v>512</v>
       </c>
       <c r="D67" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E67" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F67" s="13"/>
       <c r="G67" s="13"/>
+      <c r="H67" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="I67" s="6" t="s">
+        <v>535</v>
+      </c>
       <c r="L67" s="13"/>
     </row>
     <row r="68" spans="1:12">
@@ -10509,11 +10559,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A3:A14"/>
     <mergeCell ref="A16:A27"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -10530,7 +10581,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B144"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="C10" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -11721,10 +11772,10 @@
       <c r="A1" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="C1" s="17"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="10" t="s">

--- a/Data/HW_Counters.xlsx
+++ b/Data/HW_Counters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="34840" yWindow="0" windowWidth="39960" windowHeight="26960" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="34840" yWindow="0" windowWidth="39960" windowHeight="26960" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Timing" sheetId="4" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="537">
   <si>
     <t xml:space="preserve">j-A_10th_close.txt:	</t>
   </si>
@@ -1718,8 +1718,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="259">
+  <cellStyleXfs count="263">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2027,7 +2031,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="259">
+  <cellStyles count="263">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2157,6 +2161,8 @@
     <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2286,6 +2292,8 @@
     <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2294,6 +2302,1591 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PM_CMPLU_STALL_DCACHE_MISS for</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> 10 OpenMP Threads</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = FALSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$F$16:$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$G$16:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.1948408E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.42291E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3758106E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.745173E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.170594E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.580436E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.160493E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.644008E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.521135E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.085205E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.935902E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.54161E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$H$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = TRUE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$F$16:$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$H$16:$H$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.1775007E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.572884E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9369197E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.727561E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.045049E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.744809E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.534674E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.146206E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.577984E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.248022E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.940541E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.909861E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2138065096"/>
+        <c:axId val="-2138498072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2138065096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2138498072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2138498072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2138065096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PM_CMPLU_STALL_DMISS_DISTANT for 160</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> OpenMP Threads</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$F$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = FALSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$E$68:$E$79</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$F$68:$F$79</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.212746E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2795997E7</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>2.641304E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.337682E7</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.212887E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.9660703E7</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>3.746226E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5282489E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0366122E7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.5362202E7</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.144107E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.6013355E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$G$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = TRUE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$E$68:$E$79</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$G$68:$G$79</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.7783396E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.5463247E7</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>3.414301E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3344837E7</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.620091E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8155462E7</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>4.051747E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.6096854E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.4852579E7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7105192E7</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.460309E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0015116E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2025431672"/>
+        <c:axId val="-2025456824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2025431672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2025456824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2025456824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2025431672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PM_CMPLU_STALL_DMISS_REMOTE for 10 OpenMP Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = FALSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$C$3:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$D$3:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>61128.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>63474.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59515.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>55855.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53630.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59998.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>59607.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62148.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51649.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61326.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62246.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67395.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = TRUE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$C$3:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$E$3:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>62412.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66121.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79310.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>68156.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>48472.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63464.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>65474.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65388.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50048.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60419.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58004.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>58989.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2033314952"/>
+        <c:axId val="-2140382888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2033314952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140382888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2140382888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2033314952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>PM_CMPLU_STALL_DMISS_REMOTE for 20 OpenMP Threads</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$D$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = FALSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$C$29:$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$D$29:$D$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>298295.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.926557E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>357243.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.12252E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>276111.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>995284.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>349268.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>902645.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.644765E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>336862.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>215714.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.01548E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$E$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = TRUE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$C$29:$C$40</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$E$29:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>82733.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.218202E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>503653.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.229902E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>256133.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>799581.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>279835.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.103685E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.177955E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>393489.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>214134.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.957713E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2029774248"/>
+        <c:axId val="-2029819384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2029774248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2029819384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2029819384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2029774248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>PM_CMPLU_STALL_DMISS_REMOTE for 40 OpenMP Threads</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$D$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = FALSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$C$42:$C$53</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$D$42:$D$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>313487.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.408213E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>324740.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2206E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>226059.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.114091E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>380903.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.265211E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.633444E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>333929.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>195608.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.214494E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$E$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = TRUE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$C$42:$C$53</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_REMOTE!$E$42:$E$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>259395.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.326249E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>333703.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.788163E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>274131.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.630581E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>388935.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.195875E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.579745E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>314064.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>171842.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.417319E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2079260120"/>
+        <c:axId val="-2029895704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2079260120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2029895704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2029895704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2079260120"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2652,344 +4245,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>160 OpenMP Threads</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Complete!$D$67</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AFFINITY = FALSE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Complete!$C$68:$C$79</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>close	</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>cores_close	</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>cores_master	</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>cores_spread	</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>master	</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>sockets_close	</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>sockets_master	</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>sockets_spread	</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>spread	</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>threads_close	</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>threads_master	</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>threads_spread	</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Complete!$D$68:$D$79</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Complete!$E$67</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>AFFINITY = TRUE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Complete!$C$68:$C$79</c:f>
-              <c:strCache>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>close	</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>cores_close	</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>cores_master	</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>cores_spread	</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>master	</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>sockets_close	</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>sockets_master	</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>sockets_spread	</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>spread	</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>threads_close	</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>threads_master	</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>threads_spread	</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Complete!$E$68:$E$79</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="-2027753864"/>
-        <c:axId val="-2027750888"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="-2027753864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2027750888"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="-2027750888"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> in seconds</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2027753864"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3348,7 +4604,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3712,7 +4968,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4071,7 +5327,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4435,7 +5691,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4767,7 +6023,320 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PM_CMPLU_STALL_DCACHE_MISS for 20 OpenMP Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$G$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = FALSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$F$29:$F$40</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$G$29:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.0662146E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.917586E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5227802E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.496783E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.179241E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.345726E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.496671E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.368697E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.958567E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0473686E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.08284E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.059954E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$H$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = TRUE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$F$29:$F$40</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$H$29:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>2.1604169E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.034189E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5123585E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1642611E7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.21447E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.845316E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.51814E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.168905E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.1072227E7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1658057E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.24336E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0094631E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2033413688"/>
+        <c:axId val="-2076279416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2033413688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2076279416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2076279416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2033413688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5099,7 +6668,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5436,7 +7005,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5768,7 +7337,2940 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>160 OpenMP Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Complete!$D$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = FALSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Complete!$C$68:$C$79</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Complete!$D$68:$D$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Complete!$E$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = TRUE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Complete!$C$68:$C$79</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Complete!$E$68:$E$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2027753864"/>
+        <c:axId val="-2027750888"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2027753864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2027750888"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2027750888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> in seconds</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2027753864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PM_CMPLU_STALL_DCACHE_MISS for 40 OpenMP Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$G$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = FALSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$F$42:$F$53</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$G$42:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.5159655E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9268088E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5579783E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9492279E7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.39153E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.9174425E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0156711E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1074369E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.6000963E7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2474431E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.435245E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.6229138E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$H$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = TRUE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$F$42:$F$53</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$H$42:$H$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3.6080674E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6498873E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2216961E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.625546E7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.538307E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6714315E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6851455E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1817974E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.1733983E7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.5535978E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.749637E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0488941E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2032227288"/>
+        <c:axId val="-2032161640"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2032227288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2032161640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2032161640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2032227288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PM_CMPLU_STALL_DCACHE_MISS for 80 OpenMP Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$G$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = FALSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$F$55:$F$66</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$G$55:$G$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>4.9786715E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.3185724E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8638199E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.2287259E7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.891464E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1542471E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.0721581E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.5694836E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.7723024E7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.7836977E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.923488E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.6336402E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$H$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = TRUE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$F$55:$F$66</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$H$55:$H$66</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5.5554853E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4185577E7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8651985E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.4849892E7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.487046E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.72827E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0499881E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.1881375E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0313242E7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3034921E7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.29342E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.8537565E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2073678680"/>
+        <c:axId val="-2143037192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2073678680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2143037192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2143037192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2073678680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PM_CMPLU_STALL_DCACHE_MISS for 160 OpenMP Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$G$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = FALSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$F$68:$F$79</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$G$68:$G$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.15614278E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.36887523E8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8873144E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.23978245E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.415814E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.6270452E7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5894886E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2152947E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.18425894E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.18811269E8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.87011E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.19173786E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$H$67</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = TRUE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$F$68:$F$79</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DCACHE_MISS!$H$68:$H$79</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.36481791E8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0123219E8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5391682E7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.87091229E8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.504194E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.44072941E8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.6750436E7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.30524965E8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.42004521E8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.52987987E8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.888702E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.02850129E8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2075734904"/>
+        <c:axId val="-2075733736"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2075734904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2075733736"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2075733736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2075734904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PM_CMPLU_STALL_DMISS_DISTANT for 10 OpenMP Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$F$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = FALSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$E$16:$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$F$16:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>821254.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.754533E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.283705E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.998507E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>838880.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.431994E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>918526.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.393456E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.779083E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>769176.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>795950.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.528247E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$G$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = TRUE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$E$16:$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$G$16:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>972990.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.395466E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.969554E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.704222E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>794295.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.43055E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>386462.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.252018E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.099532E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>669955.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>794069.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.818235E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2144582600"/>
+        <c:axId val="-2077001384"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2144582600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2077001384"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2077001384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2144582600"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PM_CMPLU_STALL_DMISS_DISTANT for 20 OpenMP Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$F$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = FALSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$E$29:$E$40</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$F$29:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.392756E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.563781E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.272269E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.664638E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.1155E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.899242E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.074903E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.829333E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.188198E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.3999E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>859165.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.090839E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$G$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = TRUE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$E$29:$E$40</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$G$29:$G$40</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.58866E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.621462E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.503873E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.935726E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>756913.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.759494E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>936741.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.238468E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.719028E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.323527E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>999189.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.743872E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2130823016"/>
+        <c:axId val="-2137997944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2130823016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2137997944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2137997944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2130823016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PM_CMPLU_STALL_DMISS_DISTANT for 40 OpenMP Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$F$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = FALSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$E$42:$E$53</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$F$42:$F$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.365493E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.446584E6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.836672E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.571026E6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.048774E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.801007E6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.390191E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.404773E6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.10225E6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.584604E6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>883778.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.669188E6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$G$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = TRUE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$E$42:$E$53</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$G$42:$G$53</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>1.394754E6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.095634E7</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.812919E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2592251E7</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.189194E6</c:v>
+                </c:pt>
+                <c:pt idx="5" formatCode="General">
+                  <c:v>5.837554E6</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.645725E6</c:v>
+                </c:pt>
+                <c:pt idx="7" formatCode="General">
+                  <c:v>5.806947E6</c:v>
+                </c:pt>
+                <c:pt idx="8" formatCode="General">
+                  <c:v>9.931478E6</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>1.96716E6</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.009571E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.023443E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2140166664"/>
+        <c:axId val="-2140843592"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2140166664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140843592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2140843592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2140166664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>PM_CMPLU_STALL_DMISS_DISTANT for 80 OpenMP Threads</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$F$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = FALSE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$E$55:$E$66</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$F$55:$F$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.1497814E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0414035E7</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>1.558054E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1594426E7</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>1.0254E6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7484578E7</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>1.257142E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.1348959E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.7101463E7</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="General">
+                  <c:v>8.638924E6</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>841331.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8140038E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$G$54</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AFFINITY = TRUE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$E$55:$E$66</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>close	</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cores_close	</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>cores_master	</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>cores_spread	</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>master	</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>sockets_close	</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>sockets_master	</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sockets_spread	</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>spread	</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>threads_close	</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>threads_master	</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>threads_spread	</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>PM_CMPLU_STALL_DMISS_DISTANT!$G$55:$G$66</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.3257809E7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5460413E7</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="General">
+                  <c:v>2.384176E6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.859385E7</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>990223.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8196027E7</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="General">
+                  <c:v>2.933958E6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4741172E7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.195997E7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.1687325E7</c:v>
+                </c:pt>
+                <c:pt idx="10" formatCode="General">
+                  <c:v>1.149693E6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.3504098E7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="-2029120200"/>
+        <c:axId val="-2145361480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="-2029120200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2145361480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="-2145361480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2029120200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8959,8 +13461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="C13" workbookViewId="0">
+      <selection activeCell="X71" sqref="X71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11055,6 +15557,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -11067,8 +15570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="R66" sqref="R66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13162,6 +17665,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -13174,8 +17678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E79"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13398,8 +17902,12 @@
       <c r="C15" t="s">
         <v>510</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
+      <c r="D15" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="20">
@@ -13588,8 +18096,12 @@
       <c r="C28" t="s">
         <v>510</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
+      <c r="D28" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="8">
@@ -13800,8 +18312,12 @@
       <c r="C41" t="s">
         <v>510</v>
       </c>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
+      <c r="D41" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="8">
@@ -14012,8 +18528,12 @@
       <c r="C54" t="s">
         <v>510</v>
       </c>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
+      <c r="D54" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="8">
@@ -14224,8 +18744,12 @@
       <c r="C67" t="s">
         <v>510</v>
       </c>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
+      <c r="D67" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>533</v>
+      </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="8">
@@ -14439,6 +18963,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -16560,7 +21085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U79"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>

--- a/Data/HW_Counters.xlsx
+++ b/Data/HW_Counters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="51200" windowHeight="27400" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="51200" windowHeight="27400" tabRatio="500" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Timing" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1987" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="548">
   <si>
     <t xml:space="preserve">j-A_10th_close.txt:	</t>
   </si>
@@ -1723,7 +1723,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1742,6 +1742,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1752,7 +1758,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="297">
+  <cellStyleXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2050,8 +2056,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2101,8 +2111,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="297">
+  <cellStyles count="301">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2251,6 +2267,8 @@
     <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2399,6 +2417,8 @@
     <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2441,7 +2461,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2670,11 +2689,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2072508600"/>
-        <c:axId val="-2072761160"/>
+        <c:axId val="-2023575176"/>
+        <c:axId val="-2023698648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2072508600"/>
+        <c:axId val="-2023575176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2683,7 +2702,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2072761160"/>
+        <c:crossAx val="-2023698648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2691,7 +2710,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2072761160"/>
+        <c:axId val="-2023698648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2702,14 +2721,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2072508600"/>
+        <c:crossAx val="-2023575176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2987,11 +3005,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2139319992"/>
-        <c:axId val="-2073898520"/>
+        <c:axId val="-2022866168"/>
+        <c:axId val="-2022863224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2139319992"/>
+        <c:axId val="-2022866168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3000,7 +3018,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073898520"/>
+        <c:crossAx val="-2022863224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3008,7 +3026,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2073898520"/>
+        <c:axId val="-2022863224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3019,7 +3037,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139319992"/>
+        <c:crossAx val="-2022866168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3070,7 +3088,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3299,11 +3316,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2074070184"/>
-        <c:axId val="-2073181368"/>
+        <c:axId val="-2022850088"/>
+        <c:axId val="-2022847112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2074070184"/>
+        <c:axId val="-2022850088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3312,7 +3329,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073181368"/>
+        <c:crossAx val="-2022847112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3320,7 +3337,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2073181368"/>
+        <c:axId val="-2022847112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3331,14 +3348,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074070184"/>
+        <c:crossAx val="-2022850088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3388,7 +3404,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3617,11 +3632,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2073839464"/>
-        <c:axId val="-2073510696"/>
+        <c:axId val="-2023344488"/>
+        <c:axId val="-2023341512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2073839464"/>
+        <c:axId val="-2023344488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3630,7 +3645,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073510696"/>
+        <c:crossAx val="-2023341512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3638,7 +3653,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2073510696"/>
+        <c:axId val="-2023341512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3649,14 +3664,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073839464"/>
+        <c:crossAx val="-2023344488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3706,7 +3720,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -3935,11 +3948,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2022160312"/>
-        <c:axId val="-2022158488"/>
+        <c:axId val="-2023412984"/>
+        <c:axId val="-2023410008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2022160312"/>
+        <c:axId val="-2023412984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3948,7 +3961,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2022158488"/>
+        <c:crossAx val="-2023410008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3956,7 +3969,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2022158488"/>
+        <c:axId val="-2023410008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3967,14 +3980,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2022160312"/>
+        <c:crossAx val="-2023412984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4048,7 +4060,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Complete!$Q$45</c:f>
+              <c:f>Complete!$S$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4059,7 +4071,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Complete!$P$46:$P$57</c:f>
+              <c:f>Complete!$R$46:$R$57</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4103,7 +4115,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Complete!$Q$46:$Q$57</c:f>
+              <c:f>Complete!$S$46:$S$57</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4153,7 +4165,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Complete!$R$45</c:f>
+              <c:f>Complete!$T$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4164,7 +4176,7 @@
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Complete!$P$46:$P$57</c:f>
+              <c:f>Complete!$R$46:$R$57</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -4208,7 +4220,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Complete!$R$46:$R$57</c:f>
+              <c:f>Complete!$T$46:$T$57</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
@@ -4261,12 +4273,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2023525288"/>
-        <c:axId val="-2023526984"/>
-        <c:axId val="-2022952712"/>
+        <c:axId val="-2022944088"/>
+        <c:axId val="-2022941144"/>
+        <c:axId val="-2022988520"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2023525288"/>
+        <c:axId val="-2022944088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4275,7 +4287,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023526984"/>
+        <c:crossAx val="-2022941144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4283,7 +4295,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2023526984"/>
+        <c:axId val="-2022941144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4313,12 +4325,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023525288"/>
+        <c:crossAx val="-2022944088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2022952712"/>
+        <c:axId val="-2022988520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4327,7 +4339,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023526984"/>
+        <c:crossAx val="-2022941144"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -4620,12 +4632,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2023100104"/>
-        <c:axId val="-2023214040"/>
-        <c:axId val="-2023203144"/>
+        <c:axId val="-2023590856"/>
+        <c:axId val="-2023003720"/>
+        <c:axId val="-2145097928"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2023100104"/>
+        <c:axId val="-2023590856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4634,7 +4646,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023214040"/>
+        <c:crossAx val="-2023003720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4642,7 +4654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2023214040"/>
+        <c:axId val="-2023003720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4672,12 +4684,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023100104"/>
+        <c:crossAx val="-2023590856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2023203144"/>
+        <c:axId val="-2145097928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4686,7 +4698,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023214040"/>
+        <c:crossAx val="-2023003720"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -4979,12 +4991,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2023106040"/>
-        <c:axId val="-2023103064"/>
-        <c:axId val="-2023119736"/>
+        <c:axId val="-2023473528"/>
+        <c:axId val="-2145335992"/>
+        <c:axId val="-2144610920"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2023106040"/>
+        <c:axId val="-2023473528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4993,7 +5005,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023103064"/>
+        <c:crossAx val="-2145335992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5001,7 +5013,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2023103064"/>
+        <c:axId val="-2145335992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5036,12 +5048,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023106040"/>
+        <c:crossAx val="-2023473528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2023119736"/>
+        <c:axId val="-2144610920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5050,7 +5062,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023103064"/>
+        <c:crossAx val="-2145335992"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -5343,12 +5355,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2023401688"/>
-        <c:axId val="-2023398712"/>
-        <c:axId val="-2023393240"/>
+        <c:axId val="-2023561368"/>
+        <c:axId val="-2022738216"/>
+        <c:axId val="-2023460216"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2023401688"/>
+        <c:axId val="-2023561368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5357,7 +5369,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023398712"/>
+        <c:crossAx val="-2022738216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5365,7 +5377,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2023398712"/>
+        <c:axId val="-2022738216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5395,12 +5407,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023401688"/>
+        <c:crossAx val="-2023561368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2023393240"/>
+        <c:axId val="-2023460216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5409,7 +5421,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023398712"/>
+        <c:crossAx val="-2022738216"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -5702,12 +5714,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2023359000"/>
-        <c:axId val="-2023356024"/>
-        <c:axId val="-2023350248"/>
+        <c:axId val="-2023275336"/>
+        <c:axId val="-2023272360"/>
+        <c:axId val="-2023266632"/>
       </c:line3DChart>
       <c:catAx>
-        <c:axId val="-2023359000"/>
+        <c:axId val="-2023275336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5716,7 +5728,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023356024"/>
+        <c:crossAx val="-2023272360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5724,7 +5736,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2023356024"/>
+        <c:axId val="-2023272360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5759,12 +5771,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023359000"/>
+        <c:crossAx val="-2023275336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="-2023350248"/>
+        <c:axId val="-2023266632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5773,7 +5785,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023356024"/>
+        <c:crossAx val="-2023272360"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -5824,7 +5836,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -5839,7 +5850,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Complete!$Q$45</c:f>
+              <c:f>Complete!$S$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5851,7 +5862,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Complete!$P$46:$P$57</c:f>
+              <c:f>Complete!$R$46:$R$57</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -5895,7 +5906,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Complete!$Q$46:$Q$57</c:f>
+              <c:f>Complete!$S$46:$S$57</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
@@ -5944,7 +5955,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Complete!$R$45</c:f>
+              <c:f>Complete!$T$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5956,7 +5967,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Complete!$P$46:$P$57</c:f>
+              <c:f>Complete!$R$46:$R$57</c:f>
               <c:strCache>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
@@ -6000,7 +6011,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Complete!$R$46:$R$57</c:f>
+              <c:f>Complete!$T$46:$T$57</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="12"/>
@@ -6053,11 +6064,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2023317944"/>
-        <c:axId val="-2023314968"/>
+        <c:axId val="-2023235464"/>
+        <c:axId val="-2023232520"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2023317944"/>
+        <c:axId val="-2023235464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6066,7 +6077,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023314968"/>
+        <c:crossAx val="-2023232520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6074,7 +6085,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2023314968"/>
+        <c:axId val="-2023232520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6097,21 +6108,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023317944"/>
+        <c:crossAx val="-2023235464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6156,7 +6165,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6385,11 +6393,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2072209752"/>
-        <c:axId val="-2072570840"/>
+        <c:axId val="-2023603720"/>
+        <c:axId val="-2022731384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2072209752"/>
+        <c:axId val="-2023603720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6398,7 +6406,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2072570840"/>
+        <c:crossAx val="-2022731384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6406,7 +6414,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2072570840"/>
+        <c:axId val="-2022731384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6417,14 +6425,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2072209752"/>
+        <c:crossAx val="-2023603720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6469,7 +6476,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -6698,11 +6704,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2023132920"/>
-        <c:axId val="-2023129944"/>
+        <c:axId val="-2022816184"/>
+        <c:axId val="-2023422968"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2023132920"/>
+        <c:axId val="-2022816184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6711,7 +6717,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023129944"/>
+        <c:crossAx val="-2023422968"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6719,7 +6725,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2023129944"/>
+        <c:axId val="-2023422968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6742,21 +6748,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023132920"/>
+        <c:crossAx val="-2022816184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6801,7 +6805,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7030,11 +7033,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2022883768"/>
-        <c:axId val="-2022880792"/>
+        <c:axId val="-2022809576"/>
+        <c:axId val="-2022806600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2022883768"/>
+        <c:axId val="-2022809576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7043,7 +7046,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2022880792"/>
+        <c:crossAx val="-2022806600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7051,7 +7054,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2022880792"/>
+        <c:axId val="-2022806600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7079,21 +7082,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2022883768"/>
+        <c:crossAx val="-2022809576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7138,7 +7139,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7367,11 +7367,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2023626280"/>
-        <c:axId val="-2023623304"/>
+        <c:axId val="-2022793128"/>
+        <c:axId val="-2022790152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2023626280"/>
+        <c:axId val="-2022793128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7380,7 +7380,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023623304"/>
+        <c:crossAx val="-2022790152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7388,7 +7388,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2023623304"/>
+        <c:axId val="-2022790152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7411,21 +7411,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2023626280"/>
+        <c:crossAx val="-2022793128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7470,7 +7468,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -7699,11 +7696,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2022856856"/>
-        <c:axId val="-2022853880"/>
+        <c:axId val="-2145118120"/>
+        <c:axId val="-2022740488"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2022856856"/>
+        <c:axId val="-2145118120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7712,7 +7709,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2022853880"/>
+        <c:crossAx val="-2022740488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7720,7 +7717,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2022853880"/>
+        <c:axId val="-2022740488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7748,21 +7745,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2022856856"/>
+        <c:crossAx val="-2145118120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -7807,7 +7802,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8036,11 +8030,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2142783576"/>
-        <c:axId val="-2072756680"/>
+        <c:axId val="-2022742696"/>
+        <c:axId val="-2023463608"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2142783576"/>
+        <c:axId val="-2022742696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8049,7 +8043,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2072756680"/>
+        <c:crossAx val="-2023463608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8057,7 +8051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2072756680"/>
+        <c:axId val="-2023463608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8068,14 +8062,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2142783576"/>
+        <c:crossAx val="-2022742696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8120,7 +8113,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8349,11 +8341,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2027365768"/>
-        <c:axId val="-2072577720"/>
+        <c:axId val="-2023683272"/>
+        <c:axId val="-2023699688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2027365768"/>
+        <c:axId val="-2023683272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8362,7 +8354,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2072577720"/>
+        <c:crossAx val="-2023699688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8370,7 +8362,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2072577720"/>
+        <c:axId val="-2023699688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8381,14 +8373,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2027365768"/>
+        <c:crossAx val="-2023683272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8433,7 +8424,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -8662,11 +8652,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2072113560"/>
-        <c:axId val="-2072110584"/>
+        <c:axId val="-2023484440"/>
+        <c:axId val="-2023064472"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2072113560"/>
+        <c:axId val="-2023484440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8675,7 +8665,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2072110584"/>
+        <c:crossAx val="-2023064472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8683,7 +8673,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2072110584"/>
+        <c:axId val="-2023064472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8694,14 +8684,13 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2072113560"/>
+        <c:crossAx val="-2023484440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -8974,11 +8963,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2142513352"/>
-        <c:axId val="-2143190696"/>
+        <c:axId val="-2023378088"/>
+        <c:axId val="-2023375112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2142513352"/>
+        <c:axId val="-2023378088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8987,7 +8976,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143190696"/>
+        <c:crossAx val="-2023375112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8995,7 +8984,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143190696"/>
+        <c:axId val="-2023375112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9006,7 +8995,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142513352"/>
+        <c:crossAx val="-2023378088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9285,11 +9274,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2073358488"/>
-        <c:axId val="-2143018600"/>
+        <c:axId val="-2145130600"/>
+        <c:axId val="-2145188296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2073358488"/>
+        <c:axId val="-2145130600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9298,7 +9287,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143018600"/>
+        <c:crossAx val="-2145188296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9306,7 +9295,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2143018600"/>
+        <c:axId val="-2145188296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9317,7 +9306,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073358488"/>
+        <c:crossAx val="-2145130600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9596,11 +9585,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2074039496"/>
-        <c:axId val="-2142386072"/>
+        <c:axId val="-2023521976"/>
+        <c:axId val="-2023519224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2074039496"/>
+        <c:axId val="-2023521976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9609,7 +9598,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142386072"/>
+        <c:crossAx val="-2023519224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9617,7 +9606,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142386072"/>
+        <c:axId val="-2023519224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9628,7 +9617,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2074039496"/>
+        <c:crossAx val="-2023521976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -9907,11 +9896,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2073474248"/>
-        <c:axId val="-2142323064"/>
+        <c:axId val="-2023138712"/>
+        <c:axId val="-2022883752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2073474248"/>
+        <c:axId val="-2023138712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9920,7 +9909,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142323064"/>
+        <c:crossAx val="-2022883752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9928,7 +9917,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142323064"/>
+        <c:axId val="-2022883752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9939,7 +9928,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2073474248"/>
+        <c:crossAx val="-2023138712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10369,13 +10358,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
@@ -10399,13 +10388,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>584200</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>165100</xdr:rowOff>
@@ -10429,13 +10418,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>812800</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>558800</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>88900</xdr:rowOff>
@@ -10459,13 +10448,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>546100</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
@@ -10489,13 +10478,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>7469</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>17927</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>537882</xdr:colOff>
       <xdr:row>86</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
@@ -10519,13 +10508,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>39220</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>34365</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>629770</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>177800</xdr:rowOff>
@@ -10551,13 +10540,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>54</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>70970</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>8965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>617070</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>123265</xdr:rowOff>
@@ -10583,13 +10572,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>23905</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>110565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>591670</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>47065</xdr:rowOff>
@@ -10615,13 +10604,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>54</xdr:col>
+      <xdr:col>56</xdr:col>
       <xdr:colOff>45570</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>97865</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>63</xdr:col>
+      <xdr:col>65</xdr:col>
       <xdr:colOff>578970</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
@@ -10647,13 +10636,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>44</xdr:col>
+      <xdr:col>46</xdr:col>
       <xdr:colOff>40339</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>170327</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>53</xdr:col>
+      <xdr:col>55</xdr:col>
       <xdr:colOff>570752</xdr:colOff>
       <xdr:row>87</xdr:row>
       <xdr:rowOff>2987</xdr:rowOff>
@@ -17774,8 +17763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="H59" sqref="H59"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -23286,10 +23275,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U93"/>
+  <dimension ref="A1:W93"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="M87" sqref="M87:M91"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="R71" sqref="R71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -23298,16 +23287,19 @@
     <col min="6" max="6" width="17.1640625" customWidth="1"/>
     <col min="7" max="7" width="20" style="7" customWidth="1"/>
     <col min="8" max="8" width="28" customWidth="1"/>
-    <col min="9" max="15" width="19.6640625" customWidth="1"/>
-    <col min="16" max="16" width="31.1640625" customWidth="1"/>
-    <col min="17" max="17" width="22.1640625" style="7" customWidth="1"/>
-    <col min="18" max="18" width="19.33203125" customWidth="1"/>
-    <col min="19" max="19" width="23.1640625" customWidth="1"/>
-    <col min="20" max="20" width="21" customWidth="1"/>
-    <col min="21" max="21" width="19.33203125" customWidth="1"/>
+    <col min="9" max="13" width="19.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
+    <col min="15" max="15" width="18.83203125" customWidth="1"/>
+    <col min="16" max="17" width="19.6640625" customWidth="1"/>
+    <col min="18" max="18" width="31.1640625" customWidth="1"/>
+    <col min="19" max="19" width="22.1640625" style="7" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" customWidth="1"/>
+    <col min="21" max="21" width="23.1640625" customWidth="1"/>
+    <col min="22" max="22" width="21" customWidth="1"/>
+    <col min="23" max="23" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:23">
       <c r="A1" s="13"/>
       <c r="D1" s="20" t="s">
         <v>508</v>
@@ -23329,13 +23321,17 @@
         <v>536</v>
       </c>
       <c r="M1" s="21"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" t="s">
+      <c r="N1" s="21" t="s">
+        <v>547</v>
+      </c>
+      <c r="O1" s="21"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:23">
       <c r="A2" s="13" t="s">
         <v>509</v>
       </c>
@@ -23375,28 +23371,34 @@
       <c r="M2" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" t="s">
+      <c r="N2" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" t="s">
         <v>510</v>
       </c>
-      <c r="Q2" s="7" t="s">
+      <c r="S2" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="R2" t="s">
+      <c r="T2" t="s">
         <v>524</v>
       </c>
-      <c r="S2" t="s">
+      <c r="U2" t="s">
         <v>525</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>526</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:23">
       <c r="A3" s="22">
         <v>1</v>
       </c>
@@ -23436,26 +23438,32 @@
       <c r="M3">
         <v>367519</v>
       </c>
-      <c r="P3" t="s">
+      <c r="N3">
+        <v>92061</v>
+      </c>
+      <c r="O3">
+        <v>85942</v>
+      </c>
+      <c r="R3" t="s">
         <v>511</v>
       </c>
-      <c r="Q3" s="8">
+      <c r="S3" s="8">
         <v>8</v>
       </c>
-      <c r="R3">
+      <c r="T3">
         <v>7</v>
       </c>
-      <c r="S3">
+      <c r="U3">
         <v>6</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>6</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:23">
       <c r="A4" s="22"/>
       <c r="B4" t="s">
         <v>435</v>
@@ -23493,26 +23501,32 @@
       <c r="M4">
         <v>402308</v>
       </c>
-      <c r="P4" t="s">
+      <c r="N4">
+        <v>96730</v>
+      </c>
+      <c r="O4">
+        <v>87553</v>
+      </c>
+      <c r="R4" t="s">
         <v>512</v>
       </c>
-      <c r="Q4" s="8">
+      <c r="S4" s="8">
         <v>6</v>
       </c>
-      <c r="R4">
+      <c r="T4">
         <v>5</v>
       </c>
-      <c r="S4">
+      <c r="U4">
         <v>5</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>6</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:23">
       <c r="A5" s="22"/>
       <c r="B5" t="s">
         <v>436</v>
@@ -23550,26 +23564,32 @@
       <c r="M5">
         <v>436593</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5">
+        <v>99964</v>
+      </c>
+      <c r="O5">
+        <v>115491</v>
+      </c>
+      <c r="R5" t="s">
         <v>513</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="S5" s="8">
         <v>11</v>
       </c>
-      <c r="R5">
+      <c r="T5">
         <v>11</v>
       </c>
-      <c r="S5">
+      <c r="U5">
         <v>13</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>16</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:23">
       <c r="A6" s="22"/>
       <c r="B6" t="s">
         <v>437</v>
@@ -23607,26 +23627,32 @@
       <c r="M6">
         <v>411120</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6">
+        <v>93277</v>
+      </c>
+      <c r="O6">
+        <v>100501</v>
+      </c>
+      <c r="R6" t="s">
         <v>514</v>
       </c>
-      <c r="Q6" s="8">
+      <c r="S6" s="8">
         <v>6</v>
       </c>
-      <c r="R6">
+      <c r="T6">
         <v>5</v>
       </c>
-      <c r="S6">
+      <c r="U6">
         <v>5</v>
       </c>
-      <c r="T6">
+      <c r="V6">
         <v>6</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:23">
       <c r="A7" s="22"/>
       <c r="B7" t="s">
         <v>438</v>
@@ -23664,26 +23690,32 @@
       <c r="M7">
         <v>368676</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7">
+        <v>88776</v>
+      </c>
+      <c r="O7">
+        <v>88323</v>
+      </c>
+      <c r="R7" t="s">
         <v>515</v>
       </c>
-      <c r="Q7">
+      <c r="S7">
         <v>15</v>
       </c>
-      <c r="R7">
+      <c r="T7">
         <v>17</v>
       </c>
-      <c r="S7">
+      <c r="U7">
         <v>22</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>24</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:23">
       <c r="A8" s="22"/>
       <c r="B8" t="s">
         <v>439</v>
@@ -23721,26 +23753,32 @@
       <c r="M8">
         <v>388646</v>
       </c>
-      <c r="P8" t="s">
+      <c r="N8">
+        <v>93913</v>
+      </c>
+      <c r="O8">
+        <v>105016</v>
+      </c>
+      <c r="R8" t="s">
         <v>516</v>
       </c>
-      <c r="Q8" s="8">
-        <v>7</v>
-      </c>
-      <c r="R8">
-        <v>7</v>
-      </c>
-      <c r="S8">
+      <c r="S8" s="8">
         <v>7</v>
       </c>
       <c r="T8">
         <v>7</v>
       </c>
       <c r="U8">
+        <v>7</v>
+      </c>
+      <c r="V8">
+        <v>7</v>
+      </c>
+      <c r="W8">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:23">
       <c r="A9" s="22"/>
       <c r="B9" t="s">
         <v>440</v>
@@ -23778,26 +23816,32 @@
       <c r="M9">
         <v>400161</v>
       </c>
-      <c r="P9" t="s">
+      <c r="N9">
+        <v>107316</v>
+      </c>
+      <c r="O9">
+        <v>91905</v>
+      </c>
+      <c r="R9" t="s">
         <v>517</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="S9" s="8">
         <v>7</v>
       </c>
-      <c r="R9">
+      <c r="T9">
         <v>7</v>
       </c>
-      <c r="S9">
+      <c r="U9">
         <v>6</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>8</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:23">
       <c r="A10" s="22"/>
       <c r="B10" t="s">
         <v>441</v>
@@ -23835,26 +23879,32 @@
       <c r="M10">
         <v>379166</v>
       </c>
-      <c r="P10" t="s">
+      <c r="N10">
+        <v>99758</v>
+      </c>
+      <c r="O10">
+        <v>85527</v>
+      </c>
+      <c r="R10" t="s">
         <v>518</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="S10" s="8">
         <v>8</v>
-      </c>
-      <c r="R10">
-        <v>7</v>
-      </c>
-      <c r="S10">
-        <v>7</v>
       </c>
       <c r="T10">
         <v>7</v>
       </c>
       <c r="U10">
+        <v>7</v>
+      </c>
+      <c r="V10">
+        <v>7</v>
+      </c>
+      <c r="W10">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:23">
       <c r="A11" s="22"/>
       <c r="B11" t="s">
         <v>442</v>
@@ -23892,26 +23942,32 @@
       <c r="M11">
         <v>381781</v>
       </c>
-      <c r="P11" t="s">
+      <c r="N11">
+        <v>88830</v>
+      </c>
+      <c r="O11">
+        <v>87238</v>
+      </c>
+      <c r="R11" t="s">
         <v>519</v>
       </c>
-      <c r="Q11">
+      <c r="S11">
         <v>6</v>
-      </c>
-      <c r="R11">
-        <v>5</v>
-      </c>
-      <c r="S11">
-        <v>5</v>
       </c>
       <c r="T11">
         <v>5</v>
       </c>
       <c r="U11">
+        <v>5</v>
+      </c>
+      <c r="V11">
+        <v>5</v>
+      </c>
+      <c r="W11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:23">
       <c r="A12" s="22"/>
       <c r="B12" t="s">
         <v>443</v>
@@ -23949,26 +24005,32 @@
       <c r="M12">
         <v>369971</v>
       </c>
-      <c r="P12" t="s">
+      <c r="N12">
+        <v>72755</v>
+      </c>
+      <c r="O12">
+        <v>77790</v>
+      </c>
+      <c r="R12" t="s">
         <v>520</v>
       </c>
-      <c r="Q12">
+      <c r="S12">
         <v>8</v>
       </c>
-      <c r="R12">
+      <c r="T12">
         <v>7</v>
-      </c>
-      <c r="S12">
-        <v>6</v>
-      </c>
-      <c r="T12">
-        <v>6</v>
       </c>
       <c r="U12">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="V12">
+        <v>6</v>
+      </c>
+      <c r="W12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="22"/>
       <c r="B13" t="s">
         <v>444</v>
@@ -24006,26 +24068,32 @@
       <c r="M13">
         <v>348895</v>
       </c>
-      <c r="P13" t="s">
+      <c r="N13">
+        <v>90005</v>
+      </c>
+      <c r="O13">
+        <v>75996</v>
+      </c>
+      <c r="R13" t="s">
         <v>521</v>
       </c>
-      <c r="Q13">
+      <c r="S13">
         <v>7</v>
       </c>
-      <c r="R13">
+      <c r="T13">
         <v>17</v>
       </c>
-      <c r="S13">
+      <c r="U13">
         <v>19</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>24</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:23">
       <c r="A14" s="22"/>
       <c r="B14" t="s">
         <v>445</v>
@@ -24063,26 +24131,32 @@
       <c r="M14">
         <v>382935</v>
       </c>
-      <c r="P14" t="s">
+      <c r="N14">
+        <v>80951</v>
+      </c>
+      <c r="O14">
+        <v>87858</v>
+      </c>
+      <c r="R14" t="s">
         <v>522</v>
       </c>
-      <c r="Q14">
+      <c r="S14">
         <v>6</v>
-      </c>
-      <c r="R14">
-        <v>5</v>
-      </c>
-      <c r="S14">
-        <v>5</v>
       </c>
       <c r="T14">
         <v>5</v>
       </c>
       <c r="U14">
+        <v>5</v>
+      </c>
+      <c r="V14">
+        <v>5</v>
+      </c>
+      <c r="W14">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:23">
       <c r="A15" s="14"/>
       <c r="C15" t="s">
         <v>510</v>
@@ -24113,11 +24187,17 @@
       <c r="M15" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="Q15"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="N15" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="O15" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="S15"/>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16" s="22">
         <v>10</v>
       </c>
@@ -24157,8 +24237,14 @@
       <c r="M16">
         <v>10096342</v>
       </c>
-    </row>
-    <row r="17" spans="1:21">
+      <c r="N16">
+        <v>1911274</v>
+      </c>
+      <c r="O16">
+        <v>2141635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="22"/>
       <c r="B17" t="s">
         <v>447</v>
@@ -24196,8 +24282,14 @@
       <c r="M17">
         <v>751047</v>
       </c>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="N17">
+        <v>160845</v>
+      </c>
+      <c r="O17">
+        <v>188423</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="22"/>
       <c r="B18" t="s">
         <v>448</v>
@@ -24235,8 +24327,14 @@
       <c r="M18">
         <v>16768289</v>
       </c>
-    </row>
-    <row r="19" spans="1:21">
+      <c r="N18">
+        <v>3180050</v>
+      </c>
+      <c r="O18">
+        <v>2128125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="22"/>
       <c r="B19" t="s">
         <v>449</v>
@@ -24274,8 +24372,14 @@
       <c r="M19">
         <v>648773</v>
       </c>
-    </row>
-    <row r="20" spans="1:21">
+      <c r="N19">
+        <v>180649</v>
+      </c>
+      <c r="O19">
+        <v>188349</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="22"/>
       <c r="B20" t="s">
         <v>450</v>
@@ -24313,8 +24417,14 @@
       <c r="M20">
         <v>444828</v>
       </c>
-    </row>
-    <row r="21" spans="1:21">
+      <c r="N20">
+        <v>117360</v>
+      </c>
+      <c r="O20">
+        <v>110473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="22"/>
       <c r="B21" t="s">
         <v>451</v>
@@ -24352,8 +24462,14 @@
       <c r="M21">
         <v>1176989</v>
       </c>
-    </row>
-    <row r="22" spans="1:21">
+      <c r="N21">
+        <v>178668</v>
+      </c>
+      <c r="O21">
+        <v>204020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="22"/>
       <c r="B22" t="s">
         <v>452</v>
@@ -24391,8 +24507,14 @@
       <c r="M22">
         <v>1091318</v>
       </c>
-    </row>
-    <row r="23" spans="1:21">
+      <c r="N22">
+        <v>168296</v>
+      </c>
+      <c r="O22">
+        <v>171808</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="22"/>
       <c r="B23" t="s">
         <v>453</v>
@@ -24430,12 +24552,18 @@
       <c r="M23">
         <v>1105509</v>
       </c>
-      <c r="P23" t="s">
+      <c r="N23">
+        <v>198517</v>
+      </c>
+      <c r="O23">
+        <v>174851</v>
+      </c>
+      <c r="R23" t="s">
         <v>529</v>
       </c>
-      <c r="Q23" s="12"/>
-    </row>
-    <row r="24" spans="1:21">
+      <c r="S23" s="12"/>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24" s="22"/>
       <c r="B24" t="s">
         <v>454</v>
@@ -24473,26 +24601,32 @@
       <c r="M24">
         <v>575921</v>
       </c>
-      <c r="P24" t="s">
+      <c r="N24">
+        <v>165077</v>
+      </c>
+      <c r="O24">
+        <v>161304</v>
+      </c>
+      <c r="R24" t="s">
         <v>510</v>
       </c>
-      <c r="Q24" s="12" t="s">
+      <c r="S24" s="12" t="s">
         <v>523</v>
       </c>
-      <c r="R24" t="s">
+      <c r="T24" t="s">
         <v>524</v>
       </c>
-      <c r="S24" t="s">
+      <c r="U24" t="s">
         <v>525</v>
       </c>
-      <c r="T24" t="s">
+      <c r="V24" t="s">
         <v>526</v>
       </c>
-      <c r="U24" t="s">
+      <c r="W24" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:23">
       <c r="A25" s="22"/>
       <c r="B25" t="s">
         <v>455</v>
@@ -24530,26 +24664,32 @@
       <c r="M25">
         <v>11069088</v>
       </c>
-      <c r="P25" t="s">
+      <c r="N25">
+        <v>1984370</v>
+      </c>
+      <c r="O25">
+        <v>9253571</v>
+      </c>
+      <c r="R25" t="s">
         <v>511</v>
       </c>
-      <c r="Q25" s="8">
+      <c r="S25" s="8">
         <v>6</v>
       </c>
-      <c r="R25">
+      <c r="T25">
         <v>4</v>
       </c>
-      <c r="S25">
+      <c r="U25">
         <v>2</v>
       </c>
-      <c r="T25">
+      <c r="V25">
         <v>1</v>
       </c>
-      <c r="U25">
+      <c r="W25">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:23">
       <c r="A26" s="22"/>
       <c r="B26" t="s">
         <v>456</v>
@@ -24587,26 +24727,32 @@
       <c r="M26">
         <v>465539</v>
       </c>
-      <c r="P26" t="s">
+      <c r="N26">
+        <v>104136</v>
+      </c>
+      <c r="O26">
+        <v>101728</v>
+      </c>
+      <c r="R26" t="s">
         <v>512</v>
       </c>
-      <c r="Q26" s="8">
+      <c r="S26" s="8">
         <v>2</v>
-      </c>
-      <c r="R26">
-        <v>1</v>
-      </c>
-      <c r="S26">
-        <v>1</v>
       </c>
       <c r="T26">
         <v>1</v>
       </c>
       <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:23">
       <c r="A27" s="22"/>
       <c r="B27" t="s">
         <v>457</v>
@@ -24644,26 +24790,32 @@
       <c r="M27">
         <v>529125</v>
       </c>
-      <c r="P27" t="s">
+      <c r="N27">
+        <v>155919</v>
+      </c>
+      <c r="O27">
+        <v>172116</v>
+      </c>
+      <c r="R27" t="s">
         <v>513</v>
       </c>
-      <c r="Q27" s="8">
+      <c r="S27" s="8">
         <v>9</v>
       </c>
-      <c r="R27">
+      <c r="T27">
         <v>10</v>
       </c>
-      <c r="S27">
+      <c r="U27">
         <v>12</v>
       </c>
-      <c r="T27">
+      <c r="V27">
         <v>17</v>
       </c>
-      <c r="U27">
+      <c r="W27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:23">
       <c r="A28" s="14"/>
       <c r="C28" t="s">
         <v>510</v>
@@ -24694,18 +24846,18 @@
       <c r="M28" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" t="s">
+      <c r="N28" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="O28" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+      <c r="R28" t="s">
         <v>514</v>
       </c>
-      <c r="Q28" s="8">
-        <v>1</v>
-      </c>
-      <c r="R28">
-        <v>1</v>
-      </c>
-      <c r="S28">
+      <c r="S28" s="8">
         <v>1</v>
       </c>
       <c r="T28">
@@ -24714,8 +24866,14 @@
       <c r="U28">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:21">
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29" s="8">
         <v>20</v>
       </c>
@@ -24755,26 +24913,32 @@
       <c r="M29">
         <v>18277428</v>
       </c>
-      <c r="P29" t="s">
+      <c r="N29">
+        <v>6323270</v>
+      </c>
+      <c r="O29">
+        <v>6756185</v>
+      </c>
+      <c r="R29" t="s">
         <v>515</v>
       </c>
-      <c r="Q29">
+      <c r="S29">
         <v>16</v>
       </c>
-      <c r="R29">
+      <c r="T29">
         <v>18</v>
       </c>
-      <c r="S29">
+      <c r="U29">
         <v>19</v>
       </c>
-      <c r="T29">
+      <c r="V29">
         <v>28</v>
       </c>
-      <c r="U29">
+      <c r="W29">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:23">
       <c r="A30" s="8">
         <v>20</v>
       </c>
@@ -24814,26 +24978,32 @@
       <c r="M30">
         <v>772594</v>
       </c>
-      <c r="P30" t="s">
+      <c r="N30">
+        <v>240619</v>
+      </c>
+      <c r="O30">
+        <v>234301</v>
+      </c>
+      <c r="R30" t="s">
         <v>516</v>
       </c>
-      <c r="Q30" s="8">
+      <c r="S30" s="8">
         <v>3</v>
-      </c>
-      <c r="R30">
-        <v>3</v>
-      </c>
-      <c r="S30">
-        <v>2</v>
       </c>
       <c r="T30">
         <v>3</v>
       </c>
       <c r="U30">
+        <v>2</v>
+      </c>
+      <c r="V30">
+        <v>3</v>
+      </c>
+      <c r="W30">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:23">
       <c r="A31" s="8">
         <v>20</v>
       </c>
@@ -24873,26 +25043,32 @@
       <c r="M31">
         <v>22164364</v>
       </c>
-      <c r="P31" t="s">
+      <c r="N31">
+        <v>5145916</v>
+      </c>
+      <c r="O31">
+        <v>2272747</v>
+      </c>
+      <c r="R31" t="s">
         <v>517</v>
       </c>
-      <c r="Q31" s="8">
+      <c r="S31" s="8">
         <v>3</v>
       </c>
-      <c r="R31">
+      <c r="T31">
         <v>2</v>
       </c>
-      <c r="S31">
+      <c r="U31">
         <v>3</v>
       </c>
-      <c r="T31">
+      <c r="V31">
         <v>3</v>
       </c>
-      <c r="U31">
+      <c r="W31">
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:23">
       <c r="A32" s="8">
         <v>20</v>
       </c>
@@ -24932,26 +25108,32 @@
       <c r="M32">
         <v>698233</v>
       </c>
-      <c r="P32" t="s">
+      <c r="N32">
+        <v>225213</v>
+      </c>
+      <c r="O32">
+        <v>248630</v>
+      </c>
+      <c r="R32" t="s">
         <v>518</v>
       </c>
-      <c r="Q32" s="8">
+      <c r="S32" s="8">
         <v>3</v>
       </c>
-      <c r="R32">
+      <c r="T32">
         <v>3</v>
       </c>
-      <c r="S32">
+      <c r="U32">
         <v>3</v>
       </c>
-      <c r="T32">
+      <c r="V32">
         <v>4</v>
       </c>
-      <c r="U32">
+      <c r="W32">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:23">
       <c r="A33" s="8">
         <v>20</v>
       </c>
@@ -24991,14 +25173,14 @@
       <c r="M33">
         <v>559466</v>
       </c>
-      <c r="P33" t="s">
+      <c r="N33">
+        <v>133990</v>
+      </c>
+      <c r="O33">
+        <v>132260</v>
+      </c>
+      <c r="R33" t="s">
         <v>519</v>
-      </c>
-      <c r="Q33">
-        <v>1</v>
-      </c>
-      <c r="R33">
-        <v>1</v>
       </c>
       <c r="S33">
         <v>1</v>
@@ -25009,8 +25191,14 @@
       <c r="U33">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:21">
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" s="8">
         <v>20</v>
       </c>
@@ -25050,26 +25238,32 @@
       <c r="M34">
         <v>2064249</v>
       </c>
-      <c r="P34" t="s">
+      <c r="N34">
+        <v>347889</v>
+      </c>
+      <c r="O34">
+        <v>330912</v>
+      </c>
+      <c r="R34" t="s">
         <v>520</v>
       </c>
-      <c r="Q34">
+      <c r="S34">
         <v>6</v>
       </c>
-      <c r="R34">
+      <c r="T34">
         <v>3</v>
       </c>
-      <c r="S34">
+      <c r="U34">
         <v>2</v>
       </c>
-      <c r="T34">
+      <c r="V34">
         <v>1</v>
       </c>
-      <c r="U34">
+      <c r="W34">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:23">
       <c r="A35" s="8">
         <v>20</v>
       </c>
@@ -25109,26 +25303,32 @@
       <c r="M35">
         <v>3874468</v>
       </c>
-      <c r="P35" t="s">
+      <c r="N35">
+        <v>288984</v>
+      </c>
+      <c r="O35">
+        <v>5733773</v>
+      </c>
+      <c r="R35" t="s">
         <v>521</v>
       </c>
-      <c r="Q35">
+      <c r="S35">
         <v>3</v>
       </c>
-      <c r="R35">
+      <c r="T35">
         <v>18</v>
       </c>
-      <c r="S35">
+      <c r="U35">
         <v>21</v>
       </c>
-      <c r="T35">
+      <c r="V35">
         <v>28</v>
       </c>
-      <c r="U35">
+      <c r="W35">
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:23">
       <c r="A36" s="8">
         <v>20</v>
       </c>
@@ -25168,14 +25368,14 @@
       <c r="M36">
         <v>2437183</v>
       </c>
-      <c r="P36" t="s">
+      <c r="N36">
+        <v>348100</v>
+      </c>
+      <c r="O36">
+        <v>302417</v>
+      </c>
+      <c r="R36" t="s">
         <v>522</v>
-      </c>
-      <c r="Q36">
-        <v>1</v>
-      </c>
-      <c r="R36">
-        <v>1</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -25186,8 +25386,14 @@
       <c r="U36">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:21">
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37" s="8">
         <v>20</v>
       </c>
@@ -25227,8 +25433,14 @@
       <c r="M37">
         <v>877438</v>
       </c>
-    </row>
-    <row r="38" spans="1:21">
+      <c r="N37">
+        <v>264265</v>
+      </c>
+      <c r="O37">
+        <v>247845</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38" s="8">
         <v>20</v>
       </c>
@@ -25268,8 +25480,14 @@
       <c r="M38">
         <v>18418232</v>
       </c>
-    </row>
-    <row r="39" spans="1:21">
+      <c r="N38">
+        <v>8634257</v>
+      </c>
+      <c r="O38">
+        <v>6621337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39" s="8">
         <v>20</v>
       </c>
@@ -25309,8 +25527,14 @@
       <c r="M39">
         <v>545807</v>
       </c>
-    </row>
-    <row r="40" spans="1:21">
+      <c r="N39">
+        <v>117676</v>
+      </c>
+      <c r="O39">
+        <v>118901</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40" s="8">
         <v>20</v>
       </c>
@@ -25350,8 +25574,14 @@
       <c r="M40">
         <v>752497</v>
       </c>
-    </row>
-    <row r="41" spans="1:21">
+      <c r="N40">
+        <v>246955</v>
+      </c>
+      <c r="O40">
+        <v>269551</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41" s="8"/>
       <c r="C41" t="s">
         <v>510</v>
@@ -25382,11 +25612,17 @@
       <c r="M41" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="N41" s="6"/>
-      <c r="O41" s="6"/>
-      <c r="Q41" s="12"/>
-    </row>
-    <row r="42" spans="1:21">
+      <c r="N41" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="O41" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="S41" s="12"/>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -25426,49 +25662,62 @@
       <c r="M42">
         <v>30130855</v>
       </c>
-    </row>
-    <row r="43" spans="1:21">
-      <c r="A43" s="8">
+      <c r="N42">
+        <v>11073892</v>
+      </c>
+      <c r="O42">
+        <v>11660143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23" s="24" customFormat="1">
+      <c r="A43" s="23">
         <v>40</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="24" t="s">
         <v>471</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="24" t="s">
         <v>512</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="24">
         <v>5</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="24">
         <v>1</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F43" s="25">
         <v>4408213</v>
       </c>
-      <c r="G43" s="7">
+      <c r="G43" s="25">
         <v>5326249</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="24">
         <v>19268088</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="24">
         <v>26498873</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="24">
         <v>9446584</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K43" s="26">
         <v>10956340</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="24">
         <v>2109086</v>
       </c>
-      <c r="M43">
+      <c r="M43" s="24">
         <v>1996414</v>
       </c>
-    </row>
-    <row r="44" spans="1:21">
+      <c r="N43" s="24">
+        <v>390616</v>
+      </c>
+      <c r="O43" s="24">
+        <v>398321</v>
+      </c>
+      <c r="S43" s="25"/>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44" s="8">
         <v>40</v>
       </c>
@@ -25508,8 +25757,14 @@
       <c r="M44">
         <v>17682951</v>
       </c>
-    </row>
-    <row r="45" spans="1:21">
+      <c r="N44">
+        <v>3909947</v>
+      </c>
+      <c r="O44">
+        <v>7224958</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45" s="8">
         <v>40</v>
       </c>
@@ -25549,17 +25804,23 @@
       <c r="M45">
         <v>2379264</v>
       </c>
-      <c r="P45" t="s">
+      <c r="N45">
+        <v>422535</v>
+      </c>
+      <c r="O45">
+        <v>450990</v>
+      </c>
+      <c r="R45" t="s">
         <v>510</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="S45" t="s">
         <v>530</v>
       </c>
-      <c r="R45" t="s">
+      <c r="T45" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:23">
       <c r="A46" s="8">
         <v>40</v>
       </c>
@@ -25599,17 +25860,23 @@
       <c r="M46">
         <v>684397</v>
       </c>
-      <c r="P46" t="s">
+      <c r="N46">
+        <v>154275</v>
+      </c>
+      <c r="O46">
+        <v>160934</v>
+      </c>
+      <c r="R46" t="s">
         <v>511</v>
       </c>
-      <c r="Q46" s="8">
+      <c r="S46" s="8">
         <v>8</v>
       </c>
-      <c r="R46" s="8">
+      <c r="T46" s="8">
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:23">
       <c r="A47" s="8">
         <v>40</v>
       </c>
@@ -25649,17 +25916,23 @@
       <c r="M47">
         <v>16710524</v>
       </c>
-      <c r="P47" t="s">
+      <c r="N47">
+        <v>8147313</v>
+      </c>
+      <c r="O47">
+        <v>8631970</v>
+      </c>
+      <c r="R47" t="s">
         <v>512</v>
       </c>
-      <c r="Q47" s="8">
+      <c r="S47" s="8">
         <v>6</v>
       </c>
-      <c r="R47" s="8">
+      <c r="T47" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:23">
       <c r="A48" s="8">
         <v>40</v>
       </c>
@@ -25699,17 +25972,23 @@
       <c r="M48">
         <v>29370241</v>
       </c>
-      <c r="P48" t="s">
+      <c r="N48">
+        <v>114979284</v>
+      </c>
+      <c r="O48">
+        <v>11217432</v>
+      </c>
+      <c r="R48" t="s">
         <v>513</v>
       </c>
-      <c r="Q48" s="8">
+      <c r="S48" s="8">
         <v>11</v>
       </c>
-      <c r="R48" s="8">
+      <c r="T48" s="8">
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:18">
+    <row r="49" spans="1:20">
       <c r="A49" s="8">
         <v>40</v>
       </c>
@@ -25749,67 +26028,79 @@
       <c r="M49">
         <v>19470206</v>
       </c>
-      <c r="P49" t="s">
+      <c r="N49">
+        <v>7968692</v>
+      </c>
+      <c r="O49">
+        <v>5902411</v>
+      </c>
+      <c r="R49" t="s">
         <v>514</v>
       </c>
-      <c r="Q49" s="8">
+      <c r="S49" s="8">
         <v>6</v>
       </c>
-      <c r="R49" s="8">
+      <c r="T49" s="8">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:18">
-      <c r="A50" s="8">
+    <row r="50" spans="1:20" s="24" customFormat="1">
+      <c r="A50" s="23">
         <v>40</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="24" t="s">
         <v>478</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="24" t="s">
         <v>519</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="24">
         <v>5</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="24">
         <v>1</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F50" s="25">
         <v>3633444</v>
       </c>
-      <c r="G50" s="7">
+      <c r="G50" s="25">
         <v>4579745</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="24">
         <v>16000963</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="24">
         <v>21733983</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="24">
         <v>7102250</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="24">
         <v>9931478</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="24">
         <v>1890469</v>
       </c>
-      <c r="M50">
+      <c r="M50" s="24">
         <v>1886898</v>
       </c>
-      <c r="P50" t="s">
+      <c r="N50" s="24">
+        <v>386104</v>
+      </c>
+      <c r="O50" s="24">
+        <v>437147</v>
+      </c>
+      <c r="R50" s="24" t="s">
         <v>515</v>
       </c>
-      <c r="Q50">
+      <c r="S50" s="24">
         <v>15</v>
       </c>
-      <c r="R50">
+      <c r="T50" s="24">
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:18">
+    <row r="51" spans="1:20">
       <c r="A51" s="8">
         <v>40</v>
       </c>
@@ -25849,17 +26140,23 @@
       <c r="M51">
         <v>29957893</v>
       </c>
-      <c r="P51" t="s">
+      <c r="N51">
+        <v>11128893</v>
+      </c>
+      <c r="O51">
+        <v>11665571</v>
+      </c>
+      <c r="R51" t="s">
         <v>516</v>
       </c>
-      <c r="Q51" s="8">
+      <c r="S51" s="8">
         <v>7</v>
       </c>
-      <c r="R51" s="8">
+      <c r="T51" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:18">
+    <row r="52" spans="1:20">
       <c r="A52" s="8">
         <v>40</v>
       </c>
@@ -25899,67 +26196,79 @@
       <c r="M52">
         <v>700542</v>
       </c>
-      <c r="P52" t="s">
+      <c r="N52">
+        <v>159369</v>
+      </c>
+      <c r="O52">
+        <v>144478</v>
+      </c>
+      <c r="R52" t="s">
         <v>517</v>
       </c>
-      <c r="Q52" s="8">
+      <c r="S52" s="8">
         <v>7</v>
       </c>
-      <c r="R52" s="8">
+      <c r="T52" s="8">
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:18">
-      <c r="A53" s="8">
+    <row r="53" spans="1:20" s="24" customFormat="1">
+      <c r="A53" s="23">
         <v>40</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="24" t="s">
         <v>522</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="24">
         <v>5</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="24">
         <v>1</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F53" s="25">
         <v>3214494</v>
       </c>
-      <c r="G53" s="7">
+      <c r="G53" s="25">
         <v>4417319</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="24">
         <v>16229138</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="24">
         <v>20488941</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="24">
         <v>5669188</v>
       </c>
-      <c r="K53" s="1">
+      <c r="K53" s="26">
         <v>10234430</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="24">
         <v>1913075</v>
       </c>
-      <c r="M53">
+      <c r="M53" s="24">
         <v>1978100</v>
       </c>
-      <c r="P53" t="s">
+      <c r="N53" s="24">
+        <v>390972</v>
+      </c>
+      <c r="O53" s="24">
+        <v>350185</v>
+      </c>
+      <c r="R53" s="24" t="s">
         <v>518</v>
       </c>
-      <c r="Q53" s="8">
+      <c r="S53" s="23">
         <v>8</v>
       </c>
-      <c r="R53" s="8">
+      <c r="T53" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:18">
+    <row r="54" spans="1:20">
       <c r="A54" s="8"/>
       <c r="C54" t="s">
         <v>510</v>
@@ -25990,19 +26299,25 @@
       <c r="M54" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" t="s">
+      <c r="N54" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="O54" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" t="s">
         <v>519</v>
       </c>
-      <c r="Q54">
+      <c r="S54">
         <v>6</v>
       </c>
-      <c r="R54">
+      <c r="T54">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:18">
+    <row r="55" spans="1:20">
       <c r="A55" s="8">
         <v>80</v>
       </c>
@@ -26042,17 +26357,23 @@
       <c r="M55">
         <v>32491159</v>
       </c>
-      <c r="P55" t="s">
+      <c r="N55">
+        <v>12793188</v>
+      </c>
+      <c r="O55">
+        <v>13678675</v>
+      </c>
+      <c r="R55" t="s">
         <v>520</v>
       </c>
-      <c r="Q55">
+      <c r="S55">
         <v>8</v>
       </c>
-      <c r="R55">
+      <c r="T55">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:18">
+    <row r="56" spans="1:20">
       <c r="A56" s="8">
         <v>80</v>
       </c>
@@ -26092,17 +26413,23 @@
       <c r="M56">
         <v>3268805</v>
       </c>
-      <c r="P56" t="s">
+      <c r="N56">
+        <v>988280</v>
+      </c>
+      <c r="O56">
+        <v>1072813</v>
+      </c>
+      <c r="R56" t="s">
         <v>521</v>
       </c>
-      <c r="Q56">
+      <c r="S56">
         <v>7</v>
       </c>
-      <c r="R56">
+      <c r="T56">
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:18">
+    <row r="57" spans="1:20">
       <c r="A57" s="8">
         <v>80</v>
       </c>
@@ -26142,17 +26469,23 @@
       <c r="M57">
         <v>10975925</v>
       </c>
-      <c r="P57" t="s">
+      <c r="N57">
+        <v>4158735</v>
+      </c>
+      <c r="O57">
+        <v>8175339</v>
+      </c>
+      <c r="R57" t="s">
         <v>522</v>
       </c>
-      <c r="Q57">
+      <c r="S57">
         <v>6</v>
       </c>
-      <c r="R57">
+      <c r="T57">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:18">
+    <row r="58" spans="1:20">
       <c r="A58" s="8">
         <v>80</v>
       </c>
@@ -26192,8 +26525,14 @@
       <c r="M58">
         <v>3293005</v>
       </c>
-    </row>
-    <row r="59" spans="1:18">
+      <c r="N58">
+        <v>890335</v>
+      </c>
+      <c r="O58">
+        <v>1108157</v>
+      </c>
+    </row>
+    <row r="59" spans="1:20">
       <c r="A59" s="8">
         <v>80</v>
       </c>
@@ -26233,8 +26572,14 @@
       <c r="M59">
         <v>951233</v>
       </c>
-    </row>
-    <row r="60" spans="1:18">
+      <c r="N59">
+        <v>249471</v>
+      </c>
+      <c r="O59">
+        <v>291761</v>
+      </c>
+    </row>
+    <row r="60" spans="1:20">
       <c r="A60" s="8">
         <v>80</v>
       </c>
@@ -26274,8 +26619,14 @@
       <c r="M60">
         <v>23942338</v>
       </c>
-    </row>
-    <row r="61" spans="1:18">
+      <c r="N60">
+        <v>4977709</v>
+      </c>
+      <c r="O60">
+        <v>7386319</v>
+      </c>
+    </row>
+    <row r="61" spans="1:20">
       <c r="A61" s="8">
         <v>80</v>
       </c>
@@ -26315,17 +26666,23 @@
       <c r="M61">
         <v>22874718</v>
       </c>
-      <c r="P61" t="s">
+      <c r="N61">
+        <v>8411084</v>
+      </c>
+      <c r="O61">
+        <v>8827011</v>
+      </c>
+      <c r="R61" t="s">
         <v>510</v>
       </c>
-      <c r="Q61" t="s">
+      <c r="S61" t="s">
         <v>530</v>
       </c>
-      <c r="R61" t="s">
+      <c r="T61" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="62" spans="1:18">
+    <row r="62" spans="1:20">
       <c r="A62" s="8">
         <v>80</v>
       </c>
@@ -26365,8 +26722,14 @@
       <c r="M62">
         <v>28089125</v>
       </c>
-    </row>
-    <row r="63" spans="1:18">
+      <c r="N62">
+        <v>7086598</v>
+      </c>
+      <c r="O62">
+        <v>32862680</v>
+      </c>
+    </row>
+    <row r="63" spans="1:20">
       <c r="A63" s="8">
         <v>80</v>
       </c>
@@ -26406,8 +26769,14 @@
       <c r="M63">
         <v>2991085</v>
       </c>
-    </row>
-    <row r="64" spans="1:18">
+      <c r="N63">
+        <v>822677</v>
+      </c>
+      <c r="O63">
+        <v>1179776</v>
+      </c>
+    </row>
+    <row r="64" spans="1:20">
       <c r="A64" s="8">
         <v>80</v>
       </c>
@@ -26447,8 +26816,14 @@
       <c r="M64">
         <v>32248784</v>
       </c>
-    </row>
-    <row r="65" spans="1:17">
+      <c r="N64">
+        <v>12727229</v>
+      </c>
+      <c r="O64">
+        <v>13737060</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19">
       <c r="A65" s="8">
         <v>80</v>
       </c>
@@ -26488,8 +26863,14 @@
       <c r="M65">
         <v>964219</v>
       </c>
-    </row>
-    <row r="66" spans="1:17">
+      <c r="N65">
+        <v>244043</v>
+      </c>
+      <c r="O65">
+        <v>257447</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19">
       <c r="A66" s="8">
         <v>80</v>
       </c>
@@ -26529,8 +26910,14 @@
       <c r="M66">
         <v>3137673</v>
       </c>
-    </row>
-    <row r="67" spans="1:17">
+      <c r="N66">
+        <v>946399</v>
+      </c>
+      <c r="O66">
+        <v>1263111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19">
       <c r="A67" s="8"/>
       <c r="C67" t="s">
         <v>510</v>
@@ -26561,11 +26948,17 @@
       <c r="M67" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="N67" s="6"/>
-      <c r="O67" s="6"/>
-      <c r="Q67" s="12"/>
-    </row>
-    <row r="68" spans="1:17">
+      <c r="N67" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="O67" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="S67" s="12"/>
+    </row>
+    <row r="68" spans="1:19">
       <c r="A68" s="8">
         <v>160</v>
       </c>
@@ -26605,8 +26998,14 @@
       <c r="M68">
         <v>36518058</v>
       </c>
-    </row>
-    <row r="69" spans="1:17">
+      <c r="N68">
+        <v>14054805</v>
+      </c>
+      <c r="O68">
+        <v>15577878</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19">
       <c r="A69" s="8">
         <v>160</v>
       </c>
@@ -26646,8 +27045,14 @@
       <c r="M69">
         <v>64156377</v>
       </c>
-    </row>
-    <row r="70" spans="1:17">
+      <c r="N69">
+        <v>12822107</v>
+      </c>
+      <c r="O69">
+        <v>14350993</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
       <c r="A70" s="8">
         <v>160</v>
       </c>
@@ -26687,8 +27092,14 @@
       <c r="M70">
         <v>15922815</v>
       </c>
-    </row>
-    <row r="71" spans="1:17">
+      <c r="N70">
+        <v>3725957</v>
+      </c>
+      <c r="O70">
+        <v>3567798</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
       <c r="A71" s="8">
         <v>160</v>
       </c>
@@ -26728,8 +27139,14 @@
       <c r="M71">
         <v>298620858</v>
       </c>
-    </row>
-    <row r="72" spans="1:17">
+      <c r="N71">
+        <v>12162161</v>
+      </c>
+      <c r="O71">
+        <v>15142302</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19">
       <c r="A72" s="8">
         <v>160</v>
       </c>
@@ -26769,8 +27186,14 @@
       <c r="M72">
         <v>1520381</v>
       </c>
-    </row>
-    <row r="73" spans="1:17">
+      <c r="N72">
+        <v>443128</v>
+      </c>
+      <c r="O72">
+        <v>443848</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19">
       <c r="A73" s="8">
         <v>160</v>
       </c>
@@ -26810,8 +27233,14 @@
       <c r="M73">
         <v>50109751</v>
       </c>
-    </row>
-    <row r="74" spans="1:17">
+      <c r="N73">
+        <v>48377120</v>
+      </c>
+      <c r="O73">
+        <v>11462656</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19">
       <c r="A74" s="8">
         <v>160</v>
       </c>
@@ -26851,8 +27280,14 @@
       <c r="M74">
         <v>62519148</v>
       </c>
-    </row>
-    <row r="75" spans="1:17">
+      <c r="N74">
+        <v>12080050</v>
+      </c>
+      <c r="O74">
+        <v>7969529</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19">
       <c r="A75" s="8">
         <v>160</v>
       </c>
@@ -26892,8 +27327,14 @@
       <c r="M75">
         <v>56451352</v>
       </c>
-    </row>
-    <row r="76" spans="1:17">
+      <c r="N75">
+        <v>9392202</v>
+      </c>
+      <c r="O75">
+        <v>13986771</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19">
       <c r="A76" s="8">
         <v>160</v>
       </c>
@@ -26933,8 +27374,14 @@
       <c r="M76">
         <v>36658673</v>
       </c>
-    </row>
-    <row r="77" spans="1:17">
+      <c r="N76">
+        <v>14393674</v>
+      </c>
+      <c r="O76">
+        <v>15287518</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19">
       <c r="A77" s="8">
         <v>160</v>
       </c>
@@ -26974,8 +27421,14 @@
       <c r="M77">
         <v>37050172</v>
       </c>
-    </row>
-    <row r="78" spans="1:17">
+      <c r="N77">
+        <v>14074008</v>
+      </c>
+      <c r="O77">
+        <v>15346161</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19">
       <c r="A78" s="8">
         <v>160</v>
       </c>
@@ -27015,8 +27468,14 @@
       <c r="M78">
         <v>1536558</v>
       </c>
-    </row>
-    <row r="79" spans="1:17">
+      <c r="N78">
+        <v>496908</v>
+      </c>
+      <c r="O78">
+        <v>465476</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19">
       <c r="A79" s="8">
         <v>160</v>
       </c>
@@ -27056,87 +27515,94 @@
       <c r="M79">
         <v>36597111</v>
       </c>
-    </row>
-    <row r="85" spans="12:17">
+      <c r="N79">
+        <v>13473942</v>
+      </c>
+      <c r="O79">
+        <v>15651701</v>
+      </c>
+    </row>
+    <row r="85" spans="12:19">
       <c r="M85" t="s">
         <v>537</v>
       </c>
-      <c r="Q85" s="18"/>
-    </row>
-    <row r="86" spans="12:17">
+      <c r="S85" s="18"/>
+    </row>
+    <row r="86" spans="12:19">
       <c r="L86" t="s">
         <v>538</v>
       </c>
       <c r="M86" t="s">
         <v>539</v>
       </c>
-      <c r="Q86"/>
-    </row>
-    <row r="87" spans="12:17">
+      <c r="S86"/>
+    </row>
+    <row r="87" spans="12:19">
       <c r="L87" t="s">
         <v>538</v>
       </c>
       <c r="M87" t="s">
         <v>540</v>
       </c>
-      <c r="Q87"/>
-    </row>
-    <row r="88" spans="12:17">
+      <c r="S87"/>
+    </row>
+    <row r="88" spans="12:19">
       <c r="L88" t="s">
         <v>538</v>
       </c>
       <c r="M88" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="Q88"/>
-    </row>
-    <row r="89" spans="12:17">
+      <c r="S88"/>
+    </row>
+    <row r="89" spans="12:19">
       <c r="L89" t="s">
         <v>538</v>
       </c>
       <c r="M89" t="s">
         <v>542</v>
       </c>
-      <c r="Q89"/>
-    </row>
-    <row r="90" spans="12:17">
+      <c r="S89"/>
+    </row>
+    <row r="90" spans="12:19">
       <c r="L90" t="s">
         <v>538</v>
       </c>
       <c r="M90" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="Q90"/>
-    </row>
-    <row r="91" spans="12:17">
+      <c r="S90"/>
+    </row>
+    <row r="91" spans="12:19">
       <c r="L91" t="s">
         <v>538</v>
       </c>
       <c r="M91" s="18" t="s">
         <v>544</v>
       </c>
-      <c r="Q91"/>
-    </row>
-    <row r="92" spans="12:17">
+      <c r="S91"/>
+    </row>
+    <row r="92" spans="12:19">
       <c r="L92" t="s">
         <v>538</v>
       </c>
       <c r="M92" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="Q92"/>
-    </row>
-    <row r="93" spans="12:17">
+      <c r="S92"/>
+    </row>
+    <row r="93" spans="12:19">
       <c r="L93" t="s">
         <v>538</v>
       </c>
       <c r="M93" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="Q93"/>
+      <c r="S93"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="A16:A27"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="J1:K1"/>

--- a/Data/HW_Counters.xlsx
+++ b/Data/HW_Counters.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="0" windowWidth="51200" windowHeight="27400" tabRatio="420" firstSheet="7" activeTab="12"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="51200" windowHeight="27400" tabRatio="420" firstSheet="7" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Timing" sheetId="4" r:id="rId1"/>
@@ -1723,7 +1723,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1745,6 +1745,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2274,7 +2280,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2344,6 +2350,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -12321,7 +12335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q93"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="M85" sqref="M85"/>
     </sheetView>
   </sheetViews>
@@ -16051,7 +16065,7 @@
   <dimension ref="A1:X93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D1:K1048576"/>
+      <selection activeCell="N1" sqref="N1:X1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -16079,32 +16093,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>523</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="N1" s="30" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="N1" s="31" t="s">
         <v>524</v>
       </c>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
-      <c r="W1" s="30"/>
-      <c r="X1" s="30"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
     </row>
     <row r="2" spans="1:24" s="23" customFormat="1">
       <c r="A2" s="22" t="s">
@@ -18878,71 +18892,71 @@
         <v>1394754</v>
       </c>
     </row>
-    <row r="43" spans="1:24">
-      <c r="A43" s="15" t="s">
+    <row r="43" spans="1:24" s="32" customFormat="1">
+      <c r="A43" s="32" t="s">
         <v>471</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="32" t="s">
         <v>512</v>
       </c>
-      <c r="C43" s="15">
+      <c r="C43" s="32">
         <v>5</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D43" s="32">
         <v>2109086</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="32">
         <v>11072370</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="32">
         <v>390616</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="32">
         <v>1718470</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="32">
         <v>390590</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="32">
         <v>2249214</v>
       </c>
-      <c r="J43" s="23">
+      <c r="J43" s="34">
         <v>4408213</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="32">
         <v>9446584</v>
       </c>
-      <c r="N43" s="15" t="s">
+      <c r="N43" s="32" t="s">
         <v>471</v>
       </c>
-      <c r="O43" s="15" t="s">
+      <c r="O43" s="32" t="s">
         <v>512</v>
       </c>
-      <c r="P43">
+      <c r="P43" s="32">
         <v>1</v>
       </c>
-      <c r="Q43">
+      <c r="Q43" s="32">
         <v>1996414</v>
       </c>
-      <c r="R43">
+      <c r="R43" s="32">
         <v>17505523</v>
       </c>
-      <c r="S43">
+      <c r="S43" s="32">
         <v>398321</v>
       </c>
-      <c r="T43">
+      <c r="T43" s="32">
         <v>1598093</v>
       </c>
-      <c r="U43">
+      <c r="U43" s="32">
         <v>138752</v>
       </c>
-      <c r="V43">
+      <c r="V43" s="32">
         <v>4327256</v>
       </c>
-      <c r="W43" s="23">
+      <c r="W43" s="34">
         <v>5326249</v>
       </c>
-      <c r="X43" s="1">
+      <c r="X43" s="33">
         <v>10956340</v>
       </c>
     </row>
@@ -19354,71 +19368,71 @@
         <v>5806947</v>
       </c>
     </row>
-    <row r="50" spans="1:24">
-      <c r="A50" s="15" t="s">
+    <row r="50" spans="1:24" s="32" customFormat="1">
+      <c r="A50" s="32" t="s">
         <v>478</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="32" t="s">
         <v>519</v>
       </c>
-      <c r="C50" s="15">
+      <c r="C50" s="32">
         <v>5</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D50" s="32">
         <v>1890469</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="32">
         <v>14010137</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="32">
         <v>386104</v>
       </c>
-      <c r="G50">
+      <c r="G50" s="32">
         <v>1504365</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="32">
         <v>418489</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="32">
         <v>2983398</v>
       </c>
-      <c r="J50" s="23">
+      <c r="J50" s="34">
         <v>3633444</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="32">
         <v>7102250</v>
       </c>
-      <c r="N50" s="15" t="s">
+      <c r="N50" s="32" t="s">
         <v>478</v>
       </c>
-      <c r="O50" s="15" t="s">
+      <c r="O50" s="32" t="s">
         <v>519</v>
       </c>
-      <c r="P50">
+      <c r="P50" s="32">
         <v>1</v>
       </c>
-      <c r="Q50">
+      <c r="Q50" s="32">
         <v>1886898</v>
       </c>
-      <c r="R50">
+      <c r="R50" s="32">
         <v>19392608</v>
       </c>
-      <c r="S50">
+      <c r="S50" s="32">
         <v>437147</v>
       </c>
-      <c r="T50">
+      <c r="T50" s="32">
         <v>1449751</v>
       </c>
-      <c r="U50">
+      <c r="U50" s="32">
         <v>161336</v>
       </c>
-      <c r="V50">
+      <c r="V50" s="32">
         <v>4201176</v>
       </c>
-      <c r="W50" s="23">
+      <c r="W50" s="34">
         <v>4579745</v>
       </c>
-      <c r="X50">
+      <c r="X50" s="32">
         <v>9931478</v>
       </c>
     </row>
@@ -19558,71 +19572,71 @@
         <v>1009571</v>
       </c>
     </row>
-    <row r="53" spans="1:24">
-      <c r="A53" s="15" t="s">
+    <row r="53" spans="1:24" s="32" customFormat="1">
+      <c r="A53" s="32" t="s">
         <v>481</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="32" t="s">
         <v>522</v>
       </c>
-      <c r="C53" s="15">
+      <c r="C53" s="32">
         <v>5</v>
       </c>
-      <c r="D53" s="15">
+      <c r="D53" s="32">
         <v>1913075</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="32">
         <v>14148096</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="32">
         <v>390972</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="32">
         <v>1522103</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="32">
         <v>384547</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="32">
         <v>3166413</v>
       </c>
-      <c r="J53" s="23">
+      <c r="J53" s="34">
         <v>3214494</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="32">
         <v>5669188</v>
       </c>
-      <c r="N53" s="15" t="s">
+      <c r="N53" s="32" t="s">
         <v>481</v>
       </c>
-      <c r="O53" s="15" t="s">
+      <c r="O53" s="32" t="s">
         <v>522</v>
       </c>
-      <c r="P53">
+      <c r="P53" s="32">
         <v>1</v>
       </c>
-      <c r="Q53">
+      <c r="Q53" s="32">
         <v>1978100</v>
       </c>
-      <c r="R53">
+      <c r="R53" s="32">
         <v>17686768</v>
       </c>
-      <c r="S53">
+      <c r="S53" s="32">
         <v>350185</v>
       </c>
-      <c r="T53">
+      <c r="T53" s="32">
         <v>1627915</v>
       </c>
-      <c r="U53">
+      <c r="U53" s="32">
         <v>135209</v>
       </c>
-      <c r="V53">
+      <c r="V53" s="32">
         <v>4122178</v>
       </c>
-      <c r="W53" s="23">
+      <c r="W53" s="34">
         <v>4417319</v>
       </c>
-      <c r="X53" s="1">
+      <c r="X53" s="33">
         <v>10234430</v>
       </c>
     </row>
@@ -19688,139 +19702,139 @@
         <v>545</v>
       </c>
     </row>
-    <row r="55" spans="1:24">
-      <c r="A55" t="s">
+    <row r="55" spans="1:24" s="32" customFormat="1">
+      <c r="A55" s="32" t="s">
         <v>482</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="32" t="s">
         <v>511</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="32">
         <v>6</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="32">
         <v>30894654</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="32">
         <v>17656699</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="32">
         <v>12793188</v>
       </c>
-      <c r="G55" s="1">
+      <c r="G55" s="33">
         <v>18101466</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="32">
         <v>428857</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="32">
         <v>7029071</v>
       </c>
-      <c r="J55" s="23">
+      <c r="J55" s="34">
         <v>562973</v>
       </c>
-      <c r="K55" s="1">
+      <c r="K55" s="33">
         <v>11497814</v>
       </c>
-      <c r="N55" t="s">
+      <c r="N55" s="32" t="s">
         <v>482</v>
       </c>
-      <c r="O55" t="s">
+      <c r="O55" s="32" t="s">
         <v>511</v>
       </c>
-      <c r="P55">
+      <c r="P55" s="32">
         <v>1</v>
       </c>
-      <c r="Q55">
+      <c r="Q55" s="32">
         <v>32491159</v>
       </c>
-      <c r="R55">
+      <c r="R55" s="32">
         <v>22948216</v>
       </c>
-      <c r="S55">
+      <c r="S55" s="32">
         <v>13678675</v>
       </c>
-      <c r="T55" s="1">
+      <c r="T55" s="33">
         <v>18812484</v>
       </c>
-      <c r="U55">
+      <c r="U55" s="32">
         <v>391850</v>
       </c>
-      <c r="V55">
+      <c r="V55" s="32">
         <v>9707782</v>
       </c>
-      <c r="W55" s="23">
+      <c r="W55" s="34">
         <v>685462</v>
       </c>
-      <c r="X55" s="1">
+      <c r="X55" s="33">
         <v>13257809</v>
       </c>
     </row>
-    <row r="56" spans="1:24">
-      <c r="A56" t="s">
+    <row r="56" spans="1:24" s="32" customFormat="1">
+      <c r="A56" s="32" t="s">
         <v>483</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="32" t="s">
         <v>512</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="32">
         <v>6</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="32">
         <v>3141604</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="32">
         <v>31174022</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="32">
         <v>988280</v>
       </c>
-      <c r="G56">
+      <c r="G56" s="32">
         <v>2153324</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="32">
         <v>607647</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="32">
         <v>6660676</v>
       </c>
-      <c r="J56" s="23">
+      <c r="J56" s="34">
         <v>9954400</v>
       </c>
-      <c r="K56" s="1">
+      <c r="K56" s="33">
         <v>20414035</v>
       </c>
-      <c r="N56" t="s">
+      <c r="N56" s="32" t="s">
         <v>483</v>
       </c>
-      <c r="O56" t="s">
+      <c r="O56" s="32" t="s">
         <v>512</v>
       </c>
-      <c r="P56">
+      <c r="P56" s="32">
         <v>1</v>
       </c>
-      <c r="Q56">
+      <c r="Q56" s="32">
         <v>3268805</v>
       </c>
-      <c r="R56">
+      <c r="R56" s="32">
         <v>49067315</v>
       </c>
-      <c r="S56">
+      <c r="S56" s="32">
         <v>1072813</v>
       </c>
-      <c r="T56">
+      <c r="T56" s="32">
         <v>2195992</v>
       </c>
-      <c r="U56">
+      <c r="U56" s="32">
         <v>319109</v>
       </c>
-      <c r="V56">
+      <c r="V56" s="32">
         <v>11707697</v>
       </c>
-      <c r="W56" s="23">
+      <c r="W56" s="34">
         <v>14402033</v>
       </c>
-      <c r="X56" s="1">
+      <c r="X56" s="33">
         <v>25460413</v>
       </c>
     </row>
@@ -21425,10 +21439,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="N1:X1"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -21443,7 +21453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
